--- a/Bases de datos/Primers RT-qPCR (prev).xlsx
+++ b/Bases de datos/Primers RT-qPCR (prev).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACE6329-4C56-4F05-BEB9-8DEC5A163A84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Human" sheetId="1" r:id="rId1"/>
@@ -3735,7 +3736,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4172,83 +4173,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4263,15 +4189,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4548,11 +4549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M254"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79:C80"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79:H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4570,15 +4571,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
@@ -4611,10 +4612,10 @@
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="63" t="s">
         <v>339</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -4627,7 +4628,7 @@
         <v>337</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="63" t="s">
         <v>789</v>
       </c>
       <c r="I5" s="34"/>
@@ -4636,8 +4637,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="59"/>
-      <c r="C6" s="58"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="11" t="s">
         <v>342</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>338</v>
       </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="58"/>
+      <c r="H6" s="63"/>
       <c r="I6" s="9"/>
       <c r="K6" s="31" t="s">
         <v>787</v>
@@ -4656,7 +4657,7 @@
     </row>
     <row r="7" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="63" t="s">
         <v>340</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -4669,7 +4670,7 @@
         <v>345</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="58"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="9"/>
       <c r="K7" t="s">
         <v>790</v>
@@ -4677,7 +4678,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="58"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="11" t="s">
         <v>344</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>346</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="58"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="9"/>
       <c r="K8" t="s">
         <v>791</v>
@@ -4696,7 +4697,7 @@
     </row>
     <row r="9" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="63" t="s">
         <v>256</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -4709,7 +4710,7 @@
         <v>347</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="58"/>
+      <c r="H9" s="63"/>
       <c r="I9" s="9"/>
       <c r="K9" t="s">
         <v>971</v>
@@ -4717,7 +4718,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
-      <c r="C10" s="58"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="11" t="s">
         <v>259</v>
       </c>
@@ -4728,12 +4729,12 @@
         <v>348</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="58"/>
+      <c r="H10" s="63"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="63" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -4746,12 +4747,12 @@
         <v>349</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="58"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="58"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="11" t="s">
         <v>128</v>
       </c>
@@ -4762,12 +4763,12 @@
         <v>350</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="58"/>
+      <c r="H12" s="63"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="63" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -4780,12 +4781,12 @@
         <v>351</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="58"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
-      <c r="C14" s="58"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="11" t="s">
         <v>44</v>
       </c>
@@ -4796,12 +4797,12 @@
         <v>352</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="58"/>
+      <c r="H14" s="63"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="63" t="s">
         <v>132</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -4814,12 +4815,12 @@
         <v>353</v>
       </c>
       <c r="G15" s="11"/>
-      <c r="H15" s="58"/>
+      <c r="H15" s="63"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
-      <c r="C16" s="58"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="11" t="s">
         <v>134</v>
       </c>
@@ -4830,12 +4831,12 @@
         <v>354</v>
       </c>
       <c r="G16" s="11"/>
-      <c r="H16" s="58"/>
+      <c r="H16" s="63"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="63" t="s">
         <v>135</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -4848,12 +4849,12 @@
         <v>355</v>
       </c>
       <c r="G17" s="11"/>
-      <c r="H17" s="58"/>
+      <c r="H17" s="63"/>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="58"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="11" t="s">
         <v>137</v>
       </c>
@@ -4864,12 +4865,12 @@
         <v>356</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="58"/>
+      <c r="H18" s="63"/>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="63" t="s">
         <v>167</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -4881,17 +4882,17 @@
       <c r="F19" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="63" t="s">
         <v>486</v>
       </c>
-      <c r="H19" s="58" t="s">
+      <c r="H19" s="63" t="s">
         <v>565</v>
       </c>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
-      <c r="C20" s="59"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="12" t="s">
         <v>578</v>
       </c>
@@ -4901,15 +4902,15 @@
       <c r="F20" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="63" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -4922,12 +4923,12 @@
         <v>359</v>
       </c>
       <c r="G21" s="11"/>
-      <c r="H21" s="58"/>
+      <c r="H21" s="63"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="69"/>
-      <c r="C22" s="58"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="11" t="s">
         <v>53</v>
       </c>
@@ -4938,12 +4939,12 @@
         <v>360</v>
       </c>
       <c r="G22" s="11"/>
-      <c r="H22" s="58"/>
+      <c r="H22" s="63"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="63" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -4956,12 +4957,12 @@
         <v>361</v>
       </c>
       <c r="G23" s="11"/>
-      <c r="H23" s="58"/>
+      <c r="H23" s="63"/>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
-      <c r="C24" s="58"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="11" t="s">
         <v>47</v>
       </c>
@@ -4972,12 +4973,12 @@
         <v>364</v>
       </c>
       <c r="G24" s="11"/>
-      <c r="H24" s="58"/>
+      <c r="H24" s="63"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="63" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -4990,12 +4991,12 @@
         <v>365</v>
       </c>
       <c r="G25" s="11"/>
-      <c r="H25" s="58"/>
+      <c r="H25" s="63"/>
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
-      <c r="C26" s="58"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="11" t="s">
         <v>50</v>
       </c>
@@ -5006,12 +5007,12 @@
         <v>362</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="H26" s="58"/>
+      <c r="H26" s="63"/>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="63" t="s">
         <v>170</v>
       </c>
       <c r="D27" t="s">
@@ -5024,7 +5025,7 @@
         <v>363</v>
       </c>
       <c r="G27" s="11"/>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="63" t="s">
         <v>565</v>
       </c>
       <c r="I27" s="3"/>
@@ -5034,7 +5035,7 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
-      <c r="C28" s="58"/>
+      <c r="C28" s="63"/>
       <c r="D28" t="s">
         <v>858</v>
       </c>
@@ -5045,11 +5046,11 @@
         <v>366</v>
       </c>
       <c r="G28" s="11"/>
-      <c r="H28" s="58"/>
+      <c r="H28" s="63"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="63" t="s">
         <v>171</v>
       </c>
       <c r="D29" t="s">
@@ -5062,13 +5063,13 @@
         <v>367</v>
       </c>
       <c r="G29" s="11"/>
-      <c r="H29" s="58" t="s">
+      <c r="H29" s="63" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
-      <c r="C30" s="58"/>
+      <c r="C30" s="63"/>
       <c r="D30" t="s">
         <v>860</v>
       </c>
@@ -5079,11 +5080,11 @@
         <v>368</v>
       </c>
       <c r="G30" s="11"/>
-      <c r="H30" s="58"/>
+      <c r="H30" s="63"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="63" t="s">
         <v>101</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -5096,11 +5097,11 @@
         <v>369</v>
       </c>
       <c r="G31" s="11"/>
-      <c r="H31" s="58"/>
+      <c r="H31" s="63"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
-      <c r="C32" s="58"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="11" t="s">
         <v>71</v>
       </c>
@@ -5111,11 +5112,11 @@
         <v>370</v>
       </c>
       <c r="G32" s="11"/>
-      <c r="H32" s="58"/>
+      <c r="H32" s="63"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="63" t="s">
         <v>949</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -5128,13 +5129,13 @@
         <v>948</v>
       </c>
       <c r="G33" s="11"/>
-      <c r="H33" s="58" t="s">
+      <c r="H33" s="63" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
-      <c r="C34" s="58"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="11" t="s">
         <v>951</v>
       </c>
@@ -5145,11 +5146,11 @@
         <v>953</v>
       </c>
       <c r="G34" s="11"/>
-      <c r="H34" s="58"/>
+      <c r="H34" s="63"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="63" t="s">
         <v>944</v>
       </c>
       <c r="D35" s="11" t="s">
@@ -5162,13 +5163,13 @@
         <v>952</v>
       </c>
       <c r="G35" s="11"/>
-      <c r="H35" s="58" t="s">
+      <c r="H35" s="63" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
-      <c r="C36" s="58"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="11" t="s">
         <v>946</v>
       </c>
@@ -5179,11 +5180,11 @@
         <v>947</v>
       </c>
       <c r="G36" s="11"/>
-      <c r="H36" s="58"/>
+      <c r="H36" s="63"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="63" t="s">
         <v>874</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -5196,13 +5197,13 @@
         <v>878</v>
       </c>
       <c r="G37" s="11"/>
-      <c r="H37" s="58" t="s">
+      <c r="H37" s="63" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
-      <c r="C38" s="58"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="11" t="s">
         <v>875</v>
       </c>
@@ -5213,11 +5214,11 @@
         <v>876</v>
       </c>
       <c r="G38" s="11"/>
-      <c r="H38" s="58"/>
+      <c r="H38" s="63"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="63" t="s">
         <v>890</v>
       </c>
       <c r="D39" s="11" t="s">
@@ -5230,13 +5231,13 @@
         <v>893</v>
       </c>
       <c r="G39" s="11"/>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="63" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
-      <c r="C40" s="58"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="11" t="s">
         <v>891</v>
       </c>
@@ -5247,11 +5248,11 @@
         <v>894</v>
       </c>
       <c r="G40" s="11"/>
-      <c r="H40" s="58"/>
+      <c r="H40" s="63"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="63" t="s">
         <v>95</v>
       </c>
       <c r="D41" s="11" t="s">
@@ -5264,11 +5265,11 @@
         <v>371</v>
       </c>
       <c r="G41" s="11"/>
-      <c r="H41" s="58"/>
+      <c r="H41" s="63"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
-      <c r="C42" s="58"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="11" t="s">
         <v>83</v>
       </c>
@@ -5279,11 +5280,11 @@
         <v>372</v>
       </c>
       <c r="G42" s="11"/>
-      <c r="H42" s="58"/>
+      <c r="H42" s="63"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="63" t="s">
         <v>99</v>
       </c>
       <c r="D43" s="11" t="s">
@@ -5296,11 +5297,11 @@
         <v>373</v>
       </c>
       <c r="G43" s="11"/>
-      <c r="H43" s="58"/>
+      <c r="H43" s="63"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
-      <c r="C44" s="58"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="11" t="s">
         <v>75</v>
       </c>
@@ -5311,11 +5312,11 @@
         <v>374</v>
       </c>
       <c r="G44" s="11"/>
-      <c r="H44" s="58"/>
+      <c r="H44" s="63"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="63" t="s">
         <v>141</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -5328,11 +5329,11 @@
         <v>375</v>
       </c>
       <c r="G45" s="11"/>
-      <c r="H45" s="58"/>
+      <c r="H45" s="63"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
-      <c r="C46" s="58"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="11" t="s">
         <v>143</v>
       </c>
@@ -5343,11 +5344,11 @@
         <v>376</v>
       </c>
       <c r="G46" s="11"/>
-      <c r="H46" s="58"/>
+      <c r="H46" s="63"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="63" t="s">
         <v>138</v>
       </c>
       <c r="D47" s="11" t="s">
@@ -5360,11 +5361,11 @@
         <v>377</v>
       </c>
       <c r="G47" s="11"/>
-      <c r="H47" s="58"/>
+      <c r="H47" s="63"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
-      <c r="C48" s="58"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="11" t="s">
         <v>140</v>
       </c>
@@ -5375,11 +5376,11 @@
         <v>378</v>
       </c>
       <c r="G48" s="11"/>
-      <c r="H48" s="58"/>
+      <c r="H48" s="63"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="11"/>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="63" t="s">
         <v>36</v>
       </c>
       <c r="D49" s="11" t="s">
@@ -5391,12 +5392,12 @@
       <c r="F49" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="G49" s="65"/>
-      <c r="H49" s="58"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="63"/>
     </row>
     <row r="50" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="12"/>
-      <c r="C50" s="59"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="12" t="s">
         <v>38</v>
       </c>
@@ -5406,14 +5407,14 @@
       <c r="F50" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="G50" s="66"/>
-      <c r="H50" s="59"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="64"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="63" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="11" t="s">
@@ -5425,12 +5426,12 @@
       <c r="F51" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
     </row>
     <row r="52" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="69"/>
-      <c r="C52" s="58"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="11" t="s">
         <v>15</v>
       </c>
@@ -5440,12 +5441,12 @@
       <c r="F52" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="63" t="s">
         <v>166</v>
       </c>
       <c r="D53" s="11" t="s">
@@ -5457,16 +5458,16 @@
       <c r="F53" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="G53" s="58" t="s">
+      <c r="G53" s="63" t="s">
         <v>485</v>
       </c>
-      <c r="H53" s="58" t="s">
+      <c r="H53" s="63" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="11"/>
-      <c r="C54" s="58"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="11" t="s">
         <v>574</v>
       </c>
@@ -5476,12 +5477,12 @@
       <c r="F54" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="11"/>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="63" t="s">
         <v>159</v>
       </c>
       <c r="D55" s="11" t="s">
@@ -5494,13 +5495,13 @@
         <v>385</v>
       </c>
       <c r="G55" s="11"/>
-      <c r="H55" s="58" t="s">
+      <c r="H55" s="63" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="11"/>
-      <c r="C56" s="58"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="11" t="s">
         <v>161</v>
       </c>
@@ -5511,11 +5512,11 @@
         <v>386</v>
       </c>
       <c r="G56" s="11"/>
-      <c r="H56" s="58"/>
+      <c r="H56" s="63"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="11"/>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="63" t="s">
         <v>87</v>
       </c>
       <c r="D57" s="11" t="s">
@@ -5528,11 +5529,11 @@
         <v>387</v>
       </c>
       <c r="G57" s="11"/>
-      <c r="H57" s="58"/>
+      <c r="H57" s="63"/>
     </row>
     <row r="58" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="12"/>
-      <c r="C58" s="59"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="12" t="s">
         <v>89</v>
       </c>
@@ -5543,13 +5544,13 @@
         <v>388</v>
       </c>
       <c r="G58" s="12"/>
-      <c r="H58" s="59"/>
+      <c r="H58" s="64"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="66" t="s">
         <v>320</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="68" t="s">
         <v>62</v>
       </c>
       <c r="D59" s="13" t="s">
@@ -5562,11 +5563,11 @@
         <v>63</v>
       </c>
       <c r="G59" s="13"/>
-      <c r="H59" s="63"/>
+      <c r="H59" s="68"/>
     </row>
     <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="69"/>
-      <c r="C60" s="58"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="11" t="s">
         <v>66</v>
       </c>
@@ -5577,11 +5578,11 @@
         <v>64</v>
       </c>
       <c r="G60" s="11"/>
-      <c r="H60" s="58"/>
+      <c r="H60" s="63"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="29"/>
-      <c r="C61" s="58" t="s">
+      <c r="C61" s="63" t="s">
         <v>793</v>
       </c>
       <c r="D61" s="11" t="s">
@@ -5592,7 +5593,7 @@
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="58" t="s">
+      <c r="H61" s="63" t="s">
         <v>706</v>
       </c>
       <c r="I61" t="s">
@@ -5601,7 +5602,7 @@
     </row>
     <row r="62" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
-      <c r="C62" s="59"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="12" t="s">
         <v>707</v>
       </c>
@@ -5610,16 +5611,16 @@
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
-      <c r="H62" s="59"/>
+      <c r="H62" s="64"/>
       <c r="I62" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="68" t="s">
+      <c r="B63" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="63" t="s">
         <v>591</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -5632,16 +5633,16 @@
         <v>389</v>
       </c>
       <c r="G63" s="11"/>
-      <c r="H63" s="58" t="s">
+      <c r="H63" s="63" t="s">
         <v>700</v>
       </c>
-      <c r="I63" s="64" t="s">
+      <c r="I63" s="72" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="69"/>
-      <c r="C64" s="58"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="63"/>
       <c r="D64" s="11" t="s">
         <v>586</v>
       </c>
@@ -5652,12 +5653,12 @@
         <v>390</v>
       </c>
       <c r="G64" s="11"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="64"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="72"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="28"/>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="63" t="s">
         <v>592</v>
       </c>
       <c r="D65" s="11" t="s">
@@ -5670,13 +5671,13 @@
         <v>582</v>
       </c>
       <c r="G65" s="11"/>
-      <c r="H65" s="58" t="s">
+      <c r="H65" s="63" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="28"/>
-      <c r="C66" s="58"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="11" t="s">
         <v>583</v>
       </c>
@@ -5687,11 +5688,11 @@
         <v>584</v>
       </c>
       <c r="G66" s="11"/>
-      <c r="H66" s="58"/>
+      <c r="H66" s="63"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="11"/>
-      <c r="C67" s="58" t="s">
+      <c r="C67" s="63" t="s">
         <v>144</v>
       </c>
       <c r="D67" s="11" t="s">
@@ -5704,11 +5705,11 @@
         <v>391</v>
       </c>
       <c r="G67" s="11"/>
-      <c r="H67" s="58"/>
+      <c r="H67" s="63"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="11"/>
-      <c r="C68" s="58"/>
+      <c r="C68" s="63"/>
       <c r="D68" s="11" t="s">
         <v>146</v>
       </c>
@@ -5719,11 +5720,11 @@
         <v>392</v>
       </c>
       <c r="G68" s="11"/>
-      <c r="H68" s="58"/>
+      <c r="H68" s="63"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="11"/>
-      <c r="C69" s="58" t="s">
+      <c r="C69" s="63" t="s">
         <v>54</v>
       </c>
       <c r="D69" s="11" t="s">
@@ -5736,11 +5737,11 @@
         <v>393</v>
       </c>
       <c r="G69" s="11"/>
-      <c r="H69" s="58"/>
+      <c r="H69" s="63"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="11"/>
-      <c r="C70" s="58"/>
+      <c r="C70" s="63"/>
       <c r="D70" s="11" t="s">
         <v>55</v>
       </c>
@@ -5751,11 +5752,11 @@
         <v>394</v>
       </c>
       <c r="G70" s="11"/>
-      <c r="H70" s="58"/>
+      <c r="H70" s="63"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="11"/>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="63" t="s">
         <v>912</v>
       </c>
       <c r="D71" s="11" t="s">
@@ -5768,13 +5769,13 @@
         <v>917</v>
       </c>
       <c r="G71" s="11"/>
-      <c r="H71" s="58" t="s">
+      <c r="H71" s="63" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="11"/>
-      <c r="C72" s="58"/>
+      <c r="C72" s="63"/>
       <c r="D72" s="11" t="s">
         <v>914</v>
       </c>
@@ -5785,11 +5786,11 @@
         <v>915</v>
       </c>
       <c r="G72" s="11"/>
-      <c r="H72" s="58"/>
+      <c r="H72" s="63"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="11"/>
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="63" t="s">
         <v>913</v>
       </c>
       <c r="D73" s="11" t="s">
@@ -5802,13 +5803,13 @@
         <v>906</v>
       </c>
       <c r="G73" s="11"/>
-      <c r="H73" s="58" t="s">
+      <c r="H73" s="63" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="12"/>
-      <c r="C74" s="59"/>
+      <c r="C74" s="64"/>
       <c r="D74" s="12" t="s">
         <v>909</v>
       </c>
@@ -5819,13 +5820,13 @@
         <v>908</v>
       </c>
       <c r="G74" s="12"/>
-      <c r="H74" s="59"/>
+      <c r="H74" s="64"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="68" t="s">
+      <c r="B75" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="63" t="s">
         <v>972</v>
       </c>
       <c r="D75" s="11" t="s">
@@ -5838,16 +5839,16 @@
         <v>395</v>
       </c>
       <c r="G75" s="11"/>
-      <c r="H75" s="58" t="s">
+      <c r="H75" s="63" t="s">
         <v>861</v>
       </c>
-      <c r="I75" s="60" t="s">
+      <c r="I75" s="75" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="69"/>
-      <c r="C76" s="58"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="63"/>
       <c r="D76" s="11" t="s">
         <v>902</v>
       </c>
@@ -5858,12 +5859,12 @@
         <v>396</v>
       </c>
       <c r="G76" s="11"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="60"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="75"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="11"/>
-      <c r="C77" s="58" t="s">
+      <c r="C77" s="63" t="s">
         <v>56</v>
       </c>
       <c r="D77" s="11" t="s">
@@ -5876,13 +5877,13 @@
         <v>397</v>
       </c>
       <c r="G77" s="11"/>
-      <c r="H77" s="58" t="s">
+      <c r="H77" s="63" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="11"/>
-      <c r="C78" s="58"/>
+      <c r="C78" s="63"/>
       <c r="D78" s="11" t="s">
         <v>903</v>
       </c>
@@ -5893,11 +5894,11 @@
         <v>398</v>
       </c>
       <c r="G78" s="11"/>
-      <c r="H78" s="58"/>
+      <c r="H78" s="63"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="11"/>
-      <c r="C79" s="67" t="s">
+      <c r="C79" s="71" t="s">
         <v>155</v>
       </c>
       <c r="D79" s="11" t="s">
@@ -5910,13 +5911,13 @@
         <v>399</v>
       </c>
       <c r="G79" s="11"/>
-      <c r="H79" s="58" t="s">
+      <c r="H79" s="63" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="11"/>
-      <c r="C80" s="67"/>
+      <c r="C80" s="71"/>
       <c r="D80" s="11" t="s">
         <v>580</v>
       </c>
@@ -5927,11 +5928,11 @@
         <v>400</v>
       </c>
       <c r="G80" s="11"/>
-      <c r="H80" s="58"/>
+      <c r="H80" s="63"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="11"/>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="63" t="s">
         <v>156</v>
       </c>
       <c r="D81" s="11" t="s">
@@ -5944,11 +5945,11 @@
         <v>401</v>
       </c>
       <c r="G81" s="11"/>
-      <c r="H81" s="58"/>
+      <c r="H81" s="63"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="11"/>
-      <c r="C82" s="58"/>
+      <c r="C82" s="63"/>
       <c r="D82" s="11" t="s">
         <v>158</v>
       </c>
@@ -5959,11 +5960,11 @@
         <v>402</v>
       </c>
       <c r="G82" s="11"/>
-      <c r="H82" s="58"/>
+      <c r="H82" s="63"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="11"/>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="63" t="s">
         <v>734</v>
       </c>
       <c r="D83" s="11" t="s">
@@ -5976,13 +5977,13 @@
         <v>737</v>
       </c>
       <c r="G83" s="11"/>
-      <c r="H83" s="58" t="s">
+      <c r="H83" s="63" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="11"/>
-      <c r="C84" s="58"/>
+      <c r="C84" s="63"/>
       <c r="D84" s="11" t="s">
         <v>736</v>
       </c>
@@ -5993,11 +5994,11 @@
         <v>738</v>
       </c>
       <c r="G84" s="11"/>
-      <c r="H84" s="58"/>
+      <c r="H84" s="63"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="11"/>
-      <c r="C85" s="58" t="s">
+      <c r="C85" s="63" t="s">
         <v>869</v>
       </c>
       <c r="D85" s="11" t="s">
@@ -6010,13 +6011,13 @@
         <v>871</v>
       </c>
       <c r="G85" s="11"/>
-      <c r="H85" s="58" t="s">
+      <c r="H85" s="63" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="11"/>
-      <c r="C86" s="58"/>
+      <c r="C86" s="63"/>
       <c r="D86" s="11" t="s">
         <v>872</v>
       </c>
@@ -6027,11 +6028,11 @@
         <v>873</v>
       </c>
       <c r="G86" s="11"/>
-      <c r="H86" s="58"/>
+      <c r="H86" s="63"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="11"/>
-      <c r="C87" s="58" t="s">
+      <c r="C87" s="63" t="s">
         <v>90</v>
       </c>
       <c r="D87" s="11" t="s">
@@ -6044,12 +6045,12 @@
         <v>403</v>
       </c>
       <c r="G87" s="11"/>
-      <c r="H87" s="58"/>
+      <c r="H87" s="63"/>
       <c r="I87" s="9"/>
     </row>
     <row r="88" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="12"/>
-      <c r="C88" s="59"/>
+      <c r="C88" s="64"/>
       <c r="D88" s="12" t="s">
         <v>92</v>
       </c>
@@ -6060,14 +6061,14 @@
         <v>404</v>
       </c>
       <c r="G88" s="12"/>
-      <c r="H88" s="59"/>
+      <c r="H88" s="64"/>
       <c r="I88" s="9"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="68" t="s">
+      <c r="B89" s="66" t="s">
         <v>323</v>
       </c>
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="63" t="s">
         <v>98</v>
       </c>
       <c r="D89" s="11" t="s">
@@ -6080,12 +6081,12 @@
         <v>406</v>
       </c>
       <c r="G89" s="11"/>
-      <c r="H89" s="58"/>
+      <c r="H89" s="63"/>
       <c r="I89" s="9"/>
     </row>
     <row r="90" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="69"/>
-      <c r="C90" s="58"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="63"/>
       <c r="D90" s="11" t="s">
         <v>77</v>
       </c>
@@ -6096,12 +6097,12 @@
         <v>407</v>
       </c>
       <c r="G90" s="11"/>
-      <c r="H90" s="58"/>
+      <c r="H90" s="63"/>
       <c r="I90" s="9"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="11"/>
-      <c r="C91" s="58" t="s">
+      <c r="C91" s="63" t="s">
         <v>39</v>
       </c>
       <c r="D91" s="11" t="s">
@@ -6114,12 +6115,12 @@
         <v>408</v>
       </c>
       <c r="G91" s="11"/>
-      <c r="H91" s="58"/>
+      <c r="H91" s="63"/>
       <c r="I91" s="9"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="11"/>
-      <c r="C92" s="58"/>
+      <c r="C92" s="63"/>
       <c r="D92" s="11" t="s">
         <v>41</v>
       </c>
@@ -6130,12 +6131,12 @@
         <v>409</v>
       </c>
       <c r="G92" s="11"/>
-      <c r="H92" s="58"/>
+      <c r="H92" s="63"/>
       <c r="I92" s="9"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="11"/>
-      <c r="C93" s="58" t="s">
+      <c r="C93" s="63" t="s">
         <v>129</v>
       </c>
       <c r="D93" s="11" t="s">
@@ -6148,12 +6149,12 @@
         <v>410</v>
       </c>
       <c r="G93" s="11"/>
-      <c r="H93" s="58"/>
+      <c r="H93" s="63"/>
       <c r="I93" s="9"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="11"/>
-      <c r="C94" s="58"/>
+      <c r="C94" s="63"/>
       <c r="D94" s="11" t="s">
         <v>131</v>
       </c>
@@ -6164,12 +6165,12 @@
         <v>411</v>
       </c>
       <c r="G94" s="11"/>
-      <c r="H94" s="58"/>
+      <c r="H94" s="63"/>
       <c r="I94" s="9"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="11"/>
-      <c r="C95" s="58" t="s">
+      <c r="C95" s="63" t="s">
         <v>405</v>
       </c>
       <c r="D95" s="11" t="s">
@@ -6182,14 +6183,14 @@
         <v>412</v>
       </c>
       <c r="G95" s="11"/>
-      <c r="H95" s="58" t="s">
+      <c r="H95" s="63" t="s">
         <v>724</v>
       </c>
       <c r="I95" s="9"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="11"/>
-      <c r="C96" s="58"/>
+      <c r="C96" s="63"/>
       <c r="D96" s="11" t="s">
         <v>749</v>
       </c>
@@ -6200,12 +6201,12 @@
         <v>413</v>
       </c>
       <c r="G96" s="11"/>
-      <c r="H96" s="58"/>
+      <c r="H96" s="63"/>
       <c r="I96" s="9"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="11"/>
-      <c r="C97" s="58" t="s">
+      <c r="C97" s="63" t="s">
         <v>300</v>
       </c>
       <c r="D97" s="11" t="s">
@@ -6218,14 +6219,14 @@
         <v>753</v>
       </c>
       <c r="G97" s="11"/>
-      <c r="H97" s="58" t="s">
+      <c r="H97" s="63" t="s">
         <v>724</v>
       </c>
       <c r="I97" s="9"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="11"/>
-      <c r="C98" s="58"/>
+      <c r="C98" s="63"/>
       <c r="D98" s="11" t="s">
         <v>750</v>
       </c>
@@ -6236,12 +6237,12 @@
         <v>751</v>
       </c>
       <c r="G98" s="11"/>
-      <c r="H98" s="58"/>
+      <c r="H98" s="63"/>
       <c r="I98" s="9"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="11"/>
-      <c r="C99" s="58" t="s">
+      <c r="C99" s="63" t="s">
         <v>774</v>
       </c>
       <c r="D99" s="11" t="s">
@@ -6254,7 +6255,7 @@
         <v>683</v>
       </c>
       <c r="G99" s="11"/>
-      <c r="H99" s="58" t="s">
+      <c r="H99" s="63" t="s">
         <v>702</v>
       </c>
       <c r="I99" s="9" t="s">
@@ -6263,7 +6264,7 @@
     </row>
     <row r="100" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="11"/>
-      <c r="C100" s="59"/>
+      <c r="C100" s="64"/>
       <c r="D100" s="12" t="s">
         <v>704</v>
       </c>
@@ -6274,36 +6275,36 @@
         <v>701</v>
       </c>
       <c r="G100" s="12"/>
-      <c r="H100" s="59"/>
+      <c r="H100" s="64"/>
       <c r="I100" s="9" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="68" t="s">
+      <c r="B101" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="C101" s="58"/>
+      <c r="C101" s="63"/>
       <c r="D101" s="11"/>
       <c r="E101" s="23"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
-      <c r="H101" s="58"/>
+      <c r="H101" s="63"/>
       <c r="I101" s="9"/>
     </row>
     <row r="102" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="69"/>
-      <c r="C102" s="58"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="63"/>
       <c r="D102" s="11"/>
       <c r="E102" s="23"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
-      <c r="H102" s="58"/>
+      <c r="H102" s="63"/>
       <c r="I102" s="9"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="29"/>
-      <c r="C103" s="58" t="s">
+      <c r="C103" s="63" t="s">
         <v>775</v>
       </c>
       <c r="D103" s="11" t="s">
@@ -6314,7 +6315,7 @@
       </c>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
-      <c r="H103" s="58" t="s">
+      <c r="H103" s="63" t="s">
         <v>724</v>
       </c>
       <c r="I103" s="9" t="s">
@@ -6323,7 +6324,7 @@
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="29"/>
-      <c r="C104" s="58"/>
+      <c r="C104" s="63"/>
       <c r="D104" s="11" t="s">
         <v>730</v>
       </c>
@@ -6332,14 +6333,14 @@
       </c>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
-      <c r="H104" s="58"/>
+      <c r="H104" s="63"/>
       <c r="I104" s="9" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="29"/>
-      <c r="C105" s="58" t="s">
+      <c r="C105" s="63" t="s">
         <v>776</v>
       </c>
       <c r="D105" s="11" t="s">
@@ -6350,7 +6351,7 @@
       </c>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
-      <c r="H105" s="58" t="s">
+      <c r="H105" s="63" t="s">
         <v>724</v>
       </c>
       <c r="I105" s="9" t="s">
@@ -6359,7 +6360,7 @@
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="29"/>
-      <c r="C106" s="58"/>
+      <c r="C106" s="63"/>
       <c r="D106" s="11" t="s">
         <v>728</v>
       </c>
@@ -6368,14 +6369,14 @@
       </c>
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
-      <c r="H106" s="58"/>
+      <c r="H106" s="63"/>
       <c r="I106" s="9" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="29"/>
-      <c r="C107" s="58" t="s">
+      <c r="C107" s="63" t="s">
         <v>112</v>
       </c>
       <c r="D107" s="11" t="s">
@@ -6388,12 +6389,12 @@
         <v>414</v>
       </c>
       <c r="G107" s="11"/>
-      <c r="H107" s="58"/>
+      <c r="H107" s="63"/>
       <c r="I107" s="9"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="29"/>
-      <c r="C108" s="58"/>
+      <c r="C108" s="63"/>
       <c r="D108" s="11" t="s">
         <v>11</v>
       </c>
@@ -6404,12 +6405,12 @@
         <v>415</v>
       </c>
       <c r="G108" s="11"/>
-      <c r="H108" s="58"/>
+      <c r="H108" s="63"/>
       <c r="I108" s="9"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="29"/>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="63" t="s">
         <v>111</v>
       </c>
       <c r="D109" s="11" t="s">
@@ -6422,12 +6423,12 @@
         <v>416</v>
       </c>
       <c r="G109" s="11"/>
-      <c r="H109" s="58"/>
+      <c r="H109" s="63"/>
       <c r="I109" s="9"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="29"/>
-      <c r="C110" s="58"/>
+      <c r="C110" s="63"/>
       <c r="D110" s="11" t="s">
         <v>13</v>
       </c>
@@ -6438,12 +6439,12 @@
         <v>417</v>
       </c>
       <c r="G110" s="11"/>
-      <c r="H110" s="58"/>
+      <c r="H110" s="63"/>
       <c r="I110" s="9"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="11"/>
-      <c r="C111" s="58" t="s">
+      <c r="C111" s="63" t="s">
         <v>777</v>
       </c>
       <c r="D111" s="11" t="s">
@@ -6454,7 +6455,7 @@
       </c>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
-      <c r="H111" s="58" t="s">
+      <c r="H111" s="63" t="s">
         <v>724</v>
       </c>
       <c r="I111" s="9" t="s">
@@ -6463,7 +6464,7 @@
     </row>
     <row r="112" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="12"/>
-      <c r="C112" s="59"/>
+      <c r="C112" s="64"/>
       <c r="D112" s="12" t="s">
         <v>725</v>
       </c>
@@ -6472,16 +6473,16 @@
       </c>
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
-      <c r="H112" s="59"/>
+      <c r="H112" s="64"/>
       <c r="I112" s="9" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="68" t="s">
+      <c r="B113" s="66" t="s">
         <v>325</v>
       </c>
-      <c r="C113" s="58" t="s">
+      <c r="C113" s="63" t="s">
         <v>113</v>
       </c>
       <c r="D113" s="11" t="s">
@@ -6494,14 +6495,14 @@
         <v>420</v>
       </c>
       <c r="G113" s="11"/>
-      <c r="H113" s="58" t="s">
+      <c r="H113" s="63" t="s">
         <v>565</v>
       </c>
       <c r="I113" s="9"/>
     </row>
     <row r="114" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="69"/>
-      <c r="C114" s="58"/>
+      <c r="B114" s="67"/>
+      <c r="C114" s="63"/>
       <c r="D114" s="11" t="s">
         <v>577</v>
       </c>
@@ -6512,12 +6513,12 @@
         <v>421</v>
       </c>
       <c r="G114" s="11"/>
-      <c r="H114" s="58"/>
+      <c r="H114" s="63"/>
       <c r="I114" s="9"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="11"/>
-      <c r="C115" s="58" t="s">
+      <c r="C115" s="63" t="s">
         <v>152</v>
       </c>
       <c r="D115" s="11" t="s">
@@ -6530,12 +6531,12 @@
         <v>425</v>
       </c>
       <c r="G115" s="11"/>
-      <c r="H115" s="58"/>
+      <c r="H115" s="63"/>
       <c r="I115" s="9"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="11"/>
-      <c r="C116" s="58"/>
+      <c r="C116" s="63"/>
       <c r="D116" s="11" t="s">
         <v>154</v>
       </c>
@@ -6546,12 +6547,12 @@
         <v>424</v>
       </c>
       <c r="G116" s="11"/>
-      <c r="H116" s="58"/>
+      <c r="H116" s="63"/>
       <c r="I116" s="9"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="11"/>
-      <c r="C117" s="58" t="s">
+      <c r="C117" s="63" t="s">
         <v>67</v>
       </c>
       <c r="D117" s="11" t="s">
@@ -6564,12 +6565,12 @@
         <v>423</v>
       </c>
       <c r="G117" s="11"/>
-      <c r="H117" s="58"/>
+      <c r="H117" s="63"/>
       <c r="I117" s="9"/>
     </row>
     <row r="118" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="12"/>
-      <c r="C118" s="59"/>
+      <c r="C118" s="64"/>
       <c r="D118" s="12" t="s">
         <v>69</v>
       </c>
@@ -6580,14 +6581,14 @@
         <v>422</v>
       </c>
       <c r="G118" s="12"/>
-      <c r="H118" s="59"/>
+      <c r="H118" s="64"/>
       <c r="I118" s="9"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="68" t="s">
+      <c r="B119" s="66" t="s">
         <v>326</v>
       </c>
-      <c r="C119" s="58" t="s">
+      <c r="C119" s="63" t="s">
         <v>97</v>
       </c>
       <c r="D119" s="11" t="s">
@@ -6600,12 +6601,12 @@
         <v>426</v>
       </c>
       <c r="G119" s="11"/>
-      <c r="H119" s="58"/>
+      <c r="H119" s="63"/>
       <c r="I119" s="9"/>
     </row>
     <row r="120" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="69"/>
-      <c r="C120" s="58"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="63"/>
       <c r="D120" s="11" t="s">
         <v>79</v>
       </c>
@@ -6616,12 +6617,12 @@
         <v>427</v>
       </c>
       <c r="G120" s="11"/>
-      <c r="H120" s="58"/>
+      <c r="H120" s="63"/>
       <c r="I120" s="9"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="44"/>
-      <c r="C121" s="58" t="s">
+      <c r="C121" s="63" t="s">
         <v>933</v>
       </c>
       <c r="D121" s="11" t="s">
@@ -6634,14 +6635,14 @@
         <v>935</v>
       </c>
       <c r="G121" s="11"/>
-      <c r="H121" s="58" t="s">
+      <c r="H121" s="63" t="s">
         <v>861</v>
       </c>
       <c r="I121" s="9"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="44"/>
-      <c r="C122" s="58"/>
+      <c r="C122" s="63"/>
       <c r="D122" s="11" t="s">
         <v>936</v>
       </c>
@@ -6652,12 +6653,12 @@
         <v>937</v>
       </c>
       <c r="G122" s="11"/>
-      <c r="H122" s="58"/>
+      <c r="H122" s="63"/>
       <c r="I122" s="9"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="11"/>
-      <c r="C123" s="58" t="s">
+      <c r="C123" s="63" t="s">
         <v>93</v>
       </c>
       <c r="D123" s="11" t="s">
@@ -6670,12 +6671,12 @@
         <v>428</v>
       </c>
       <c r="G123" s="11"/>
-      <c r="H123" s="58"/>
+      <c r="H123" s="63"/>
       <c r="I123" s="9"/>
     </row>
     <row r="124" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="12"/>
-      <c r="C124" s="59"/>
+      <c r="C124" s="64"/>
       <c r="D124" s="12" t="s">
         <v>173</v>
       </c>
@@ -6686,14 +6687,14 @@
         <v>429</v>
       </c>
       <c r="G124" s="12"/>
-      <c r="H124" s="59"/>
+      <c r="H124" s="64"/>
       <c r="I124" s="9"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" s="68" t="s">
+      <c r="B125" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="C125" s="58" t="s">
+      <c r="C125" s="63" t="s">
         <v>23</v>
       </c>
       <c r="D125" s="11" t="s">
@@ -6706,12 +6707,12 @@
         <v>431</v>
       </c>
       <c r="G125" s="11"/>
-      <c r="H125" s="58"/>
+      <c r="H125" s="63"/>
       <c r="I125" s="9"/>
     </row>
     <row r="126" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="69"/>
-      <c r="C126" s="58"/>
+      <c r="B126" s="67"/>
+      <c r="C126" s="63"/>
       <c r="D126" s="11" t="s">
         <v>26</v>
       </c>
@@ -6722,12 +6723,12 @@
         <v>432</v>
       </c>
       <c r="G126" s="11"/>
-      <c r="H126" s="58"/>
+      <c r="H126" s="63"/>
       <c r="I126" s="9"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="11"/>
-      <c r="C127" s="58" t="s">
+      <c r="C127" s="63" t="s">
         <v>117</v>
       </c>
       <c r="D127" s="11" t="s">
@@ -6740,12 +6741,12 @@
         <v>433</v>
       </c>
       <c r="G127" s="11"/>
-      <c r="H127" s="58"/>
+      <c r="H127" s="63"/>
       <c r="I127" s="9"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="11"/>
-      <c r="C128" s="58"/>
+      <c r="C128" s="63"/>
       <c r="D128" s="11" t="s">
         <v>119</v>
       </c>
@@ -6756,12 +6757,12 @@
         <v>434</v>
       </c>
       <c r="G128" s="11"/>
-      <c r="H128" s="58"/>
+      <c r="H128" s="63"/>
       <c r="I128" s="9"/>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="11"/>
-      <c r="C129" s="58" t="s">
+      <c r="C129" s="63" t="s">
         <v>120</v>
       </c>
       <c r="D129" s="11" t="s">
@@ -6774,12 +6775,12 @@
         <v>435</v>
       </c>
       <c r="G129" s="11"/>
-      <c r="H129" s="58"/>
+      <c r="H129" s="63"/>
       <c r="I129" s="9"/>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="11"/>
-      <c r="C130" s="58"/>
+      <c r="C130" s="63"/>
       <c r="D130" s="11" t="s">
         <v>122</v>
       </c>
@@ -6790,12 +6791,12 @@
         <v>436</v>
       </c>
       <c r="G130" s="11"/>
-      <c r="H130" s="58"/>
+      <c r="H130" s="63"/>
       <c r="I130" s="9"/>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="11"/>
-      <c r="C131" s="58" t="s">
+      <c r="C131" s="63" t="s">
         <v>94</v>
       </c>
       <c r="D131" s="11" t="s">
@@ -6808,12 +6809,12 @@
         <v>437</v>
       </c>
       <c r="G131" s="11"/>
-      <c r="H131" s="58"/>
+      <c r="H131" s="63"/>
       <c r="I131" s="9"/>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="11"/>
-      <c r="C132" s="58"/>
+      <c r="C132" s="63"/>
       <c r="D132" s="11" t="s">
         <v>7</v>
       </c>
@@ -6824,12 +6825,12 @@
         <v>438</v>
       </c>
       <c r="G132" s="11"/>
-      <c r="H132" s="58"/>
+      <c r="H132" s="63"/>
       <c r="I132" s="9"/>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="11"/>
-      <c r="C133" s="58" t="s">
+      <c r="C133" s="63" t="s">
         <v>430</v>
       </c>
       <c r="D133" s="11" t="s">
@@ -6842,12 +6843,12 @@
         <v>439</v>
       </c>
       <c r="G133" s="11"/>
-      <c r="H133" s="58"/>
+      <c r="H133" s="63"/>
       <c r="I133" s="9"/>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="11"/>
-      <c r="C134" s="58"/>
+      <c r="C134" s="63"/>
       <c r="D134" s="11" t="s">
         <v>9</v>
       </c>
@@ -6858,12 +6859,12 @@
         <v>440</v>
       </c>
       <c r="G134" s="11"/>
-      <c r="H134" s="58"/>
+      <c r="H134" s="63"/>
       <c r="I134" s="9"/>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="11"/>
-      <c r="C135" s="58" t="s">
+      <c r="C135" s="63" t="s">
         <v>35</v>
       </c>
       <c r="D135" s="11" t="s">
@@ -6876,12 +6877,12 @@
         <v>441</v>
       </c>
       <c r="G135" s="11"/>
-      <c r="H135" s="58"/>
+      <c r="H135" s="63"/>
       <c r="I135" s="9"/>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="11"/>
-      <c r="C136" s="58"/>
+      <c r="C136" s="63"/>
       <c r="D136" s="11" t="s">
         <v>480</v>
       </c>
@@ -6892,12 +6893,12 @@
         <v>442</v>
       </c>
       <c r="G136" s="11"/>
-      <c r="H136" s="58"/>
+      <c r="H136" s="63"/>
       <c r="I136" s="9"/>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="11"/>
-      <c r="C137" s="58" t="s">
+      <c r="C137" s="63" t="s">
         <v>102</v>
       </c>
       <c r="D137" s="11" t="s">
@@ -6910,12 +6911,12 @@
         <v>443</v>
       </c>
       <c r="G137" s="11"/>
-      <c r="H137" s="58"/>
+      <c r="H137" s="63"/>
       <c r="I137" s="9"/>
     </row>
     <row r="138" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="12"/>
-      <c r="C138" s="59"/>
+      <c r="C138" s="64"/>
       <c r="D138" s="12" t="s">
         <v>482</v>
       </c>
@@ -6926,14 +6927,14 @@
         <v>444</v>
       </c>
       <c r="G138" s="12"/>
-      <c r="H138" s="59"/>
+      <c r="H138" s="64"/>
       <c r="I138" s="9"/>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="68" t="s">
+      <c r="B139" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="C139" s="58" t="s">
+      <c r="C139" s="63" t="s">
         <v>57</v>
       </c>
       <c r="D139" s="11" t="s">
@@ -6946,14 +6947,14 @@
         <v>58</v>
       </c>
       <c r="G139" s="11"/>
-      <c r="H139" s="58" t="s">
+      <c r="H139" s="63" t="s">
         <v>861</v>
       </c>
       <c r="I139" s="9"/>
     </row>
     <row r="140" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="69"/>
-      <c r="C140" s="58"/>
+      <c r="B140" s="67"/>
+      <c r="C140" s="63"/>
       <c r="D140" s="11" t="s">
         <v>61</v>
       </c>
@@ -6964,12 +6965,12 @@
         <v>59</v>
       </c>
       <c r="G140" s="11"/>
-      <c r="H140" s="58"/>
+      <c r="H140" s="63"/>
       <c r="I140" s="9"/>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="11"/>
-      <c r="C141" s="58" t="s">
+      <c r="C141" s="63" t="s">
         <v>147</v>
       </c>
       <c r="D141" s="11" t="s">
@@ -6982,12 +6983,12 @@
         <v>148</v>
       </c>
       <c r="G141" s="11"/>
-      <c r="H141" s="58"/>
+      <c r="H141" s="63"/>
       <c r="I141" s="9"/>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="11"/>
-      <c r="C142" s="58"/>
+      <c r="C142" s="63"/>
       <c r="D142" s="11" t="s">
         <v>151</v>
       </c>
@@ -6998,12 +6999,12 @@
         <v>149</v>
       </c>
       <c r="G142" s="11"/>
-      <c r="H142" s="58"/>
+      <c r="H142" s="63"/>
       <c r="I142" s="9"/>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="11"/>
-      <c r="C143" s="58" t="s">
+      <c r="C143" s="63" t="s">
         <v>895</v>
       </c>
       <c r="D143" s="9" t="s">
@@ -7016,14 +7017,14 @@
         <v>897</v>
       </c>
       <c r="G143" s="3"/>
-      <c r="H143" s="58" t="s">
+      <c r="H143" s="63" t="s">
         <v>861</v>
       </c>
       <c r="I143" s="9"/>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="11"/>
-      <c r="C144" s="58"/>
+      <c r="C144" s="63"/>
       <c r="D144" s="9" t="s">
         <v>898</v>
       </c>
@@ -7034,12 +7035,12 @@
         <v>899</v>
       </c>
       <c r="G144" s="3"/>
-      <c r="H144" s="58"/>
+      <c r="H144" s="63"/>
       <c r="I144" s="9"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="11"/>
-      <c r="C145" s="58" t="s">
+      <c r="C145" s="63" t="s">
         <v>866</v>
       </c>
       <c r="D145" s="9"/>
@@ -7048,14 +7049,14 @@
       </c>
       <c r="F145" s="11"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="58" t="s">
+      <c r="H145" s="63" t="s">
         <v>861</v>
       </c>
       <c r="I145" s="9"/>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="11"/>
-      <c r="C146" s="58"/>
+      <c r="C146" s="63"/>
       <c r="D146" s="9" t="s">
         <v>868</v>
       </c>
@@ -7066,12 +7067,12 @@
         <v>867</v>
       </c>
       <c r="G146" s="3"/>
-      <c r="H146" s="58"/>
+      <c r="H146" s="63"/>
       <c r="I146" s="9"/>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="11"/>
-      <c r="C147" s="58" t="s">
+      <c r="C147" s="63" t="s">
         <v>973</v>
       </c>
       <c r="D147" s="9" t="s">
@@ -7084,16 +7085,16 @@
         <v>911</v>
       </c>
       <c r="G147" s="3"/>
-      <c r="H147" s="58" t="s">
+      <c r="H147" s="63" t="s">
         <v>861</v>
       </c>
-      <c r="I147" s="60" t="s">
+      <c r="I147" s="75" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="11"/>
-      <c r="C148" s="58"/>
+      <c r="C148" s="63"/>
       <c r="D148" s="9" t="s">
         <v>924</v>
       </c>
@@ -7104,12 +7105,12 @@
         <v>910</v>
       </c>
       <c r="G148" s="3"/>
-      <c r="H148" s="58"/>
-      <c r="I148" s="60"/>
+      <c r="H148" s="63"/>
+      <c r="I148" s="75"/>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="11"/>
-      <c r="C149" s="58" t="s">
+      <c r="C149" s="63" t="s">
         <v>930</v>
       </c>
       <c r="D149" s="9" t="s">
@@ -7122,14 +7123,14 @@
         <v>928</v>
       </c>
       <c r="G149" s="3"/>
-      <c r="H149" s="58" t="s">
+      <c r="H149" s="63" t="s">
         <v>861</v>
       </c>
       <c r="I149" s="43"/>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="11"/>
-      <c r="C150" s="58"/>
+      <c r="C150" s="63"/>
       <c r="D150" s="9" t="s">
         <v>932</v>
       </c>
@@ -7140,12 +7141,12 @@
         <v>929</v>
       </c>
       <c r="G150" s="3"/>
-      <c r="H150" s="58"/>
+      <c r="H150" s="63"/>
       <c r="I150" s="43"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" s="11"/>
-      <c r="C151" s="58" t="s">
+      <c r="C151" s="63" t="s">
         <v>236</v>
       </c>
       <c r="D151" s="9" t="s">
@@ -7157,14 +7158,14 @@
       <c r="F151" s="36" t="s">
         <v>718</v>
       </c>
-      <c r="H151" s="58" t="s">
+      <c r="H151" s="63" t="s">
         <v>706</v>
       </c>
       <c r="I151" s="9"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" s="11"/>
-      <c r="C152" s="58"/>
+      <c r="C152" s="63"/>
       <c r="D152" s="9" t="s">
         <v>721</v>
       </c>
@@ -7174,12 +7175,12 @@
       <c r="F152" s="36" t="s">
         <v>719</v>
       </c>
-      <c r="H152" s="58"/>
+      <c r="H152" s="63"/>
       <c r="I152" s="9"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" s="11"/>
-      <c r="C153" s="58" t="s">
+      <c r="C153" s="63" t="s">
         <v>103</v>
       </c>
       <c r="D153" s="11" t="s">
@@ -7192,12 +7193,12 @@
         <v>445</v>
       </c>
       <c r="G153" s="11"/>
-      <c r="H153" s="58"/>
+      <c r="H153" s="63"/>
       <c r="I153" s="9"/>
     </row>
     <row r="154" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B154" s="12"/>
-      <c r="C154" s="59"/>
+      <c r="C154" s="64"/>
       <c r="D154" s="12" t="s">
         <v>34</v>
       </c>
@@ -7208,14 +7209,14 @@
         <v>446</v>
       </c>
       <c r="G154" s="12"/>
-      <c r="H154" s="59"/>
+      <c r="H154" s="64"/>
       <c r="I154" s="9"/>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B155" s="61" t="s">
+      <c r="B155" s="73" t="s">
         <v>628</v>
       </c>
-      <c r="C155" s="58" t="s">
+      <c r="C155" s="63" t="s">
         <v>885</v>
       </c>
       <c r="D155" s="11" t="s">
@@ -7228,14 +7229,14 @@
         <v>886</v>
       </c>
       <c r="G155" s="11"/>
-      <c r="H155" s="63" t="s">
+      <c r="H155" s="68" t="s">
         <v>861</v>
       </c>
       <c r="I155" s="9"/>
     </row>
     <row r="156" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="62"/>
-      <c r="C156" s="58"/>
+      <c r="B156" s="74"/>
+      <c r="C156" s="63"/>
       <c r="D156" s="11" t="s">
         <v>889</v>
       </c>
@@ -7246,12 +7247,12 @@
         <v>888</v>
       </c>
       <c r="G156" s="11"/>
-      <c r="H156" s="58"/>
+      <c r="H156" s="63"/>
       <c r="I156" s="9"/>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" s="46"/>
-      <c r="C157" s="58" t="s">
+      <c r="C157" s="63" t="s">
         <v>739</v>
       </c>
       <c r="D157" s="11" t="s">
@@ -7264,14 +7265,14 @@
         <v>747</v>
       </c>
       <c r="G157" s="11"/>
-      <c r="H157" s="58" t="s">
+      <c r="H157" s="63" t="s">
         <v>724</v>
       </c>
       <c r="I157" s="9"/>
     </row>
     <row r="158" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="46"/>
-      <c r="C158" s="59"/>
+      <c r="C158" s="64"/>
       <c r="D158" s="12" t="s">
         <v>745</v>
       </c>
@@ -7282,14 +7283,14 @@
         <v>744</v>
       </c>
       <c r="G158" s="12"/>
-      <c r="H158" s="58"/>
+      <c r="H158" s="63"/>
       <c r="I158" s="9"/>
     </row>
     <row r="159" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="68" t="s">
+      <c r="B159" s="66" t="s">
         <v>329</v>
       </c>
-      <c r="C159" s="63" t="s">
+      <c r="C159" s="68" t="s">
         <v>162</v>
       </c>
       <c r="D159" s="11" t="s">
@@ -7301,17 +7302,17 @@
       <c r="F159" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="G159" s="58" t="s">
+      <c r="G159" s="63" t="s">
         <v>483</v>
       </c>
-      <c r="H159" s="63" t="s">
+      <c r="H159" s="68" t="s">
         <v>565</v>
       </c>
       <c r="I159" s="9"/>
     </row>
     <row r="160" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="69"/>
-      <c r="C160" s="58"/>
+      <c r="B160" s="67"/>
+      <c r="C160" s="63"/>
       <c r="D160" s="11" t="s">
         <v>575</v>
       </c>
@@ -7321,13 +7322,13 @@
       <c r="F160" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G160" s="58"/>
-      <c r="H160" s="58"/>
+      <c r="G160" s="63"/>
+      <c r="H160" s="63"/>
       <c r="I160" s="9"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="11"/>
-      <c r="C161" s="58" t="s">
+      <c r="C161" s="63" t="s">
         <v>164</v>
       </c>
       <c r="D161" s="11" t="s">
@@ -7339,17 +7340,17 @@
       <c r="F161" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="G161" s="58" t="s">
+      <c r="G161" s="63" t="s">
         <v>484</v>
       </c>
-      <c r="H161" s="58" t="s">
+      <c r="H161" s="63" t="s">
         <v>565</v>
       </c>
       <c r="I161" s="9"/>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="11"/>
-      <c r="C162" s="58"/>
+      <c r="C162" s="63"/>
       <c r="D162" s="11" t="s">
         <v>576</v>
       </c>
@@ -7359,13 +7360,13 @@
       <c r="F162" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="G162" s="58"/>
-      <c r="H162" s="58"/>
+      <c r="G162" s="63"/>
+      <c r="H162" s="63"/>
       <c r="I162" s="9"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="11"/>
-      <c r="C163" s="58" t="s">
+      <c r="C163" s="63" t="s">
         <v>96</v>
       </c>
       <c r="D163" s="11" t="s">
@@ -7378,12 +7379,12 @@
         <v>451</v>
       </c>
       <c r="G163" s="11"/>
-      <c r="H163" s="58"/>
+      <c r="H163" s="63"/>
       <c r="I163" s="9"/>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="11"/>
-      <c r="C164" s="58"/>
+      <c r="C164" s="63"/>
       <c r="D164" s="11" t="s">
         <v>81</v>
       </c>
@@ -7394,12 +7395,12 @@
         <v>452</v>
       </c>
       <c r="G164" s="11"/>
-      <c r="H164" s="58"/>
+      <c r="H164" s="63"/>
       <c r="I164" s="9"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="11"/>
-      <c r="C165" s="58" t="s">
+      <c r="C165" s="63" t="s">
         <v>100</v>
       </c>
       <c r="D165" s="11" t="s">
@@ -7412,12 +7413,12 @@
         <v>453</v>
       </c>
       <c r="G165" s="11"/>
-      <c r="H165" s="58"/>
+      <c r="H165" s="63"/>
       <c r="I165" s="9"/>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" s="11"/>
-      <c r="C166" s="58"/>
+      <c r="C166" s="63"/>
       <c r="D166" s="11" t="s">
         <v>73</v>
       </c>
@@ -7428,12 +7429,12 @@
         <v>454</v>
       </c>
       <c r="G166" s="11"/>
-      <c r="H166" s="58"/>
+      <c r="H166" s="63"/>
       <c r="I166" s="9"/>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="11"/>
-      <c r="C167" s="58" t="s">
+      <c r="C167" s="63" t="s">
         <v>107</v>
       </c>
       <c r="D167" s="11" t="s">
@@ -7446,12 +7447,12 @@
         <v>455</v>
       </c>
       <c r="G167" s="11"/>
-      <c r="H167" s="58"/>
+      <c r="H167" s="63"/>
       <c r="I167" s="9"/>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="11"/>
-      <c r="C168" s="58"/>
+      <c r="C168" s="63"/>
       <c r="D168" s="11" t="s">
         <v>17</v>
       </c>
@@ -7462,12 +7463,12 @@
         <v>456</v>
       </c>
       <c r="G168" s="11"/>
-      <c r="H168" s="58"/>
+      <c r="H168" s="63"/>
       <c r="I168" s="9"/>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="11"/>
-      <c r="C169" s="58" t="s">
+      <c r="C169" s="63" t="s">
         <v>105</v>
       </c>
       <c r="D169" s="11" t="s">
@@ -7480,13 +7481,13 @@
         <v>457</v>
       </c>
       <c r="G169" s="11"/>
-      <c r="H169" s="58" t="s">
+      <c r="H169" s="63" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="11"/>
-      <c r="C170" s="58"/>
+      <c r="C170" s="63"/>
       <c r="D170" s="11" t="s">
         <v>938</v>
       </c>
@@ -7497,11 +7498,11 @@
         <v>458</v>
       </c>
       <c r="G170" s="11"/>
-      <c r="H170" s="58"/>
+      <c r="H170" s="63"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="11"/>
-      <c r="C171" s="58" t="s">
+      <c r="C171" s="63" t="s">
         <v>939</v>
       </c>
       <c r="D171" s="11" t="s">
@@ -7514,13 +7515,13 @@
         <v>943</v>
       </c>
       <c r="G171" s="11"/>
-      <c r="H171" s="58" t="s">
+      <c r="H171" s="63" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="11"/>
-      <c r="C172" s="58"/>
+      <c r="C172" s="63"/>
       <c r="D172" s="11" t="s">
         <v>941</v>
       </c>
@@ -7531,11 +7532,11 @@
         <v>942</v>
       </c>
       <c r="G172" s="11"/>
-      <c r="H172" s="58"/>
+      <c r="H172" s="63"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="11"/>
-      <c r="C173" s="58" t="s">
+      <c r="C173" s="63" t="s">
         <v>104</v>
       </c>
       <c r="D173" s="11" t="s">
@@ -7548,11 +7549,11 @@
         <v>459</v>
       </c>
       <c r="G173" s="11"/>
-      <c r="H173" s="58"/>
+      <c r="H173" s="63"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="11"/>
-      <c r="C174" s="58"/>
+      <c r="C174" s="63"/>
       <c r="D174" s="11" t="s">
         <v>32</v>
       </c>
@@ -7563,11 +7564,11 @@
         <v>460</v>
       </c>
       <c r="G174" s="11"/>
-      <c r="H174" s="58"/>
+      <c r="H174" s="63"/>
     </row>
     <row r="175" spans="2:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="11"/>
-      <c r="C175" s="58" t="s">
+      <c r="C175" s="63" t="s">
         <v>959</v>
       </c>
       <c r="D175" s="33" t="s">
@@ -7580,13 +7581,13 @@
         <v>461</v>
       </c>
       <c r="G175" s="11"/>
-      <c r="H175" s="58" t="s">
+      <c r="H175" s="63" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="176" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="11"/>
-      <c r="C176" s="58"/>
+      <c r="C176" s="63"/>
       <c r="D176" s="33" t="s">
         <v>962</v>
       </c>
@@ -7597,11 +7598,11 @@
         <v>462</v>
       </c>
       <c r="G176" s="11"/>
-      <c r="H176" s="58"/>
+      <c r="H176" s="63"/>
     </row>
     <row r="177" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B177" s="11"/>
-      <c r="C177" s="58" t="s">
+      <c r="C177" s="63" t="s">
         <v>963</v>
       </c>
       <c r="D177" s="50" t="s">
@@ -7614,7 +7615,7 @@
         <v>463</v>
       </c>
       <c r="G177" s="11"/>
-      <c r="H177" s="58" t="s">
+      <c r="H177" s="63" t="s">
         <v>960</v>
       </c>
       <c r="I177" s="56" t="s">
@@ -7623,7 +7624,7 @@
     </row>
     <row r="178" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B178" s="11"/>
-      <c r="C178" s="58"/>
+      <c r="C178" s="63"/>
       <c r="D178" s="50" t="s">
         <v>965</v>
       </c>
@@ -7634,11 +7635,11 @@
         <v>464</v>
       </c>
       <c r="G178" s="11"/>
-      <c r="H178" s="58"/>
+      <c r="H178" s="63"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="11"/>
-      <c r="C179" s="58" t="s">
+      <c r="C179" s="63" t="s">
         <v>966</v>
       </c>
       <c r="D179" s="50" t="s">
@@ -7651,13 +7652,13 @@
         <v>969</v>
       </c>
       <c r="G179" s="11"/>
-      <c r="H179" s="58" t="s">
+      <c r="H179" s="63" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" s="11"/>
-      <c r="C180" s="58"/>
+      <c r="C180" s="63"/>
       <c r="D180" s="50" t="s">
         <v>968</v>
       </c>
@@ -7668,11 +7669,11 @@
         <v>970</v>
       </c>
       <c r="G180" s="11"/>
-      <c r="H180" s="58"/>
+      <c r="H180" s="63"/>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" s="11"/>
-      <c r="C181" s="58" t="s">
+      <c r="C181" s="63" t="s">
         <v>114</v>
       </c>
       <c r="D181" s="11" t="s">
@@ -7685,11 +7686,11 @@
         <v>465</v>
       </c>
       <c r="G181" s="11"/>
-      <c r="H181" s="58"/>
+      <c r="H181" s="63"/>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="11"/>
-      <c r="C182" s="58"/>
+      <c r="C182" s="63"/>
       <c r="D182" s="11" t="s">
         <v>28</v>
       </c>
@@ -7700,11 +7701,11 @@
         <v>466</v>
       </c>
       <c r="G182" s="11"/>
-      <c r="H182" s="58"/>
+      <c r="H182" s="63"/>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" s="11"/>
-      <c r="C183" s="58" t="s">
+      <c r="C183" s="63" t="s">
         <v>108</v>
       </c>
       <c r="D183" s="11" t="s">
@@ -7717,13 +7718,13 @@
         <v>467</v>
       </c>
       <c r="G183" s="11"/>
-      <c r="H183" s="58" t="s">
+      <c r="H183" s="63" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" s="11"/>
-      <c r="C184" s="58"/>
+      <c r="C184" s="63"/>
       <c r="D184" s="11" t="s">
         <v>30</v>
       </c>
@@ -7734,11 +7735,11 @@
         <v>468</v>
       </c>
       <c r="G184" s="11"/>
-      <c r="H184" s="58"/>
+      <c r="H184" s="63"/>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B185" s="11"/>
-      <c r="C185" s="58" t="s">
+      <c r="C185" s="63" t="s">
         <v>84</v>
       </c>
       <c r="D185" s="11" t="s">
@@ -7751,11 +7752,11 @@
         <v>469</v>
       </c>
       <c r="G185" s="11"/>
-      <c r="H185" s="58"/>
+      <c r="H185" s="63"/>
     </row>
     <row r="186" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B186" s="12"/>
-      <c r="C186" s="59"/>
+      <c r="C186" s="64"/>
       <c r="D186" s="12" t="s">
         <v>86</v>
       </c>
@@ -7766,13 +7767,13 @@
         <v>470</v>
       </c>
       <c r="G186" s="12"/>
-      <c r="H186" s="59"/>
+      <c r="H186" s="64"/>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B187" s="68" t="s">
+      <c r="B187" s="66" t="s">
         <v>330</v>
       </c>
-      <c r="C187" s="58" t="s">
+      <c r="C187" s="63" t="s">
         <v>20</v>
       </c>
       <c r="D187" s="11" t="s">
@@ -7785,11 +7786,11 @@
         <v>471</v>
       </c>
       <c r="G187" s="11"/>
-      <c r="H187" s="58"/>
+      <c r="H187" s="63"/>
     </row>
     <row r="188" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="69"/>
-      <c r="C188" s="58"/>
+      <c r="B188" s="67"/>
+      <c r="C188" s="63"/>
       <c r="D188" s="11" t="s">
         <v>22</v>
       </c>
@@ -7800,11 +7801,11 @@
         <v>472</v>
       </c>
       <c r="G188" s="11"/>
-      <c r="H188" s="58"/>
+      <c r="H188" s="63"/>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" s="11"/>
-      <c r="C189" s="58" t="s">
+      <c r="C189" s="63" t="s">
         <v>174</v>
       </c>
       <c r="D189" s="11" t="s">
@@ -7817,11 +7818,11 @@
         <v>473</v>
       </c>
       <c r="G189" s="11"/>
-      <c r="H189" s="58"/>
+      <c r="H189" s="63"/>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" s="11"/>
-      <c r="C190" s="58"/>
+      <c r="C190" s="63"/>
       <c r="D190" s="11" t="s">
         <v>176</v>
       </c>
@@ -7832,11 +7833,11 @@
         <v>474</v>
       </c>
       <c r="G190" s="11"/>
-      <c r="H190" s="58"/>
+      <c r="H190" s="63"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" s="11"/>
-      <c r="C191" s="58" t="s">
+      <c r="C191" s="63" t="s">
         <v>106</v>
       </c>
       <c r="D191" s="11" t="s">
@@ -7849,11 +7850,11 @@
         <v>475</v>
       </c>
       <c r="G191" s="11"/>
-      <c r="H191" s="58"/>
+      <c r="H191" s="63"/>
     </row>
     <row r="192" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B192" s="12"/>
-      <c r="C192" s="59"/>
+      <c r="C192" s="64"/>
       <c r="D192" s="12" t="s">
         <v>19</v>
       </c>
@@ -7864,13 +7865,13 @@
         <v>476</v>
       </c>
       <c r="G192" s="12"/>
-      <c r="H192" s="59"/>
+      <c r="H192" s="64"/>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B193" s="68" t="s">
+      <c r="B193" s="66" t="s">
         <v>331</v>
       </c>
-      <c r="C193" s="58" t="s">
+      <c r="C193" s="63" t="s">
         <v>778</v>
       </c>
       <c r="D193" s="11" t="s">
@@ -7881,7 +7882,7 @@
       </c>
       <c r="F193" s="11"/>
       <c r="G193" s="11"/>
-      <c r="H193" s="58" t="s">
+      <c r="H193" s="63" t="s">
         <v>724</v>
       </c>
       <c r="I193" t="s">
@@ -7889,8 +7890,8 @@
       </c>
     </row>
     <row r="194" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="69"/>
-      <c r="C194" s="58"/>
+      <c r="B194" s="67"/>
+      <c r="C194" s="63"/>
       <c r="D194" s="11" t="s">
         <v>733</v>
       </c>
@@ -7899,14 +7900,14 @@
       </c>
       <c r="F194" s="11"/>
       <c r="G194" s="11"/>
-      <c r="H194" s="58"/>
+      <c r="H194" s="63"/>
       <c r="I194" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B195" s="29"/>
-      <c r="C195" s="58" t="s">
+      <c r="C195" s="63" t="s">
         <v>123</v>
       </c>
       <c r="D195" s="11" t="s">
@@ -7919,11 +7920,11 @@
         <v>477</v>
       </c>
       <c r="G195" s="11"/>
-      <c r="H195" s="58"/>
+      <c r="H195" s="63"/>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" s="29"/>
-      <c r="C196" s="58"/>
+      <c r="C196" s="63"/>
       <c r="D196" s="11" t="s">
         <v>124</v>
       </c>
@@ -7934,7 +7935,7 @@
         <v>478</v>
       </c>
       <c r="G196" s="11"/>
-      <c r="H196" s="58"/>
+      <c r="H196" s="63"/>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" s="29"/>
@@ -7943,7 +7944,7 @@
       <c r="E197" s="23"/>
       <c r="F197" s="11"/>
       <c r="G197" s="11"/>
-      <c r="H197" s="58"/>
+      <c r="H197" s="63"/>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" s="29"/>
@@ -7952,11 +7953,11 @@
       <c r="E198" s="23"/>
       <c r="F198" s="11"/>
       <c r="G198" s="11"/>
-      <c r="H198" s="58"/>
+      <c r="H198" s="63"/>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" s="11"/>
-      <c r="C199" s="58"/>
+      <c r="C199" s="63"/>
       <c r="D199" s="11" t="s">
         <v>115</v>
       </c>
@@ -7965,11 +7966,11 @@
       </c>
       <c r="F199" s="11"/>
       <c r="G199" s="11"/>
-      <c r="H199" s="58"/>
+      <c r="H199" s="63"/>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" s="11"/>
-      <c r="C200" s="58"/>
+      <c r="C200" s="63"/>
       <c r="D200" s="11" t="s">
         <v>116</v>
       </c>
@@ -7978,11 +7979,11 @@
       </c>
       <c r="F200" s="11"/>
       <c r="G200" s="11"/>
-      <c r="H200" s="58"/>
+      <c r="H200" s="63"/>
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" s="11"/>
-      <c r="C201" s="58"/>
+      <c r="C201" s="63"/>
       <c r="D201" s="11" t="s">
         <v>115</v>
       </c>
@@ -7991,11 +7992,11 @@
       </c>
       <c r="F201" s="11"/>
       <c r="G201" s="11"/>
-      <c r="H201" s="58"/>
+      <c r="H201" s="63"/>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" s="11"/>
-      <c r="C202" s="58"/>
+      <c r="C202" s="63"/>
       <c r="D202" s="11" t="s">
         <v>116</v>
       </c>
@@ -8004,11 +8005,11 @@
       </c>
       <c r="F202" s="11"/>
       <c r="G202" s="11"/>
-      <c r="H202" s="58"/>
+      <c r="H202" s="63"/>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" s="11"/>
-      <c r="C203" s="58"/>
+      <c r="C203" s="63"/>
       <c r="D203" s="11" t="s">
         <v>115</v>
       </c>
@@ -8017,11 +8018,11 @@
       </c>
       <c r="F203" s="11"/>
       <c r="G203" s="11"/>
-      <c r="H203" s="58"/>
+      <c r="H203" s="63"/>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B204" s="11"/>
-      <c r="C204" s="58"/>
+      <c r="C204" s="63"/>
       <c r="D204" s="11" t="s">
         <v>116</v>
       </c>
@@ -8030,11 +8031,11 @@
       </c>
       <c r="F204" s="11"/>
       <c r="G204" s="11"/>
-      <c r="H204" s="58"/>
+      <c r="H204" s="63"/>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" s="11"/>
-      <c r="C205" s="58"/>
+      <c r="C205" s="63"/>
       <c r="D205" s="11" t="s">
         <v>115</v>
       </c>
@@ -8043,11 +8044,11 @@
       </c>
       <c r="F205" s="11"/>
       <c r="G205" s="11"/>
-      <c r="H205" s="58"/>
+      <c r="H205" s="63"/>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B206" s="11"/>
-      <c r="C206" s="58"/>
+      <c r="C206" s="63"/>
       <c r="D206" s="11" t="s">
         <v>116</v>
       </c>
@@ -8056,11 +8057,11 @@
       </c>
       <c r="F206" s="11"/>
       <c r="G206" s="11"/>
-      <c r="H206" s="58"/>
+      <c r="H206" s="63"/>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B207" s="11"/>
-      <c r="C207" s="58"/>
+      <c r="C207" s="63"/>
       <c r="D207" s="11" t="s">
         <v>115</v>
       </c>
@@ -8069,11 +8070,11 @@
       </c>
       <c r="F207" s="11"/>
       <c r="G207" s="11"/>
-      <c r="H207" s="58"/>
+      <c r="H207" s="63"/>
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B208" s="11"/>
-      <c r="C208" s="58"/>
+      <c r="C208" s="63"/>
       <c r="D208" s="11" t="s">
         <v>116</v>
       </c>
@@ -8082,11 +8083,11 @@
       </c>
       <c r="F208" s="11"/>
       <c r="G208" s="11"/>
-      <c r="H208" s="58"/>
+      <c r="H208" s="63"/>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B209" s="11"/>
-      <c r="C209" s="58"/>
+      <c r="C209" s="63"/>
       <c r="D209" s="11" t="s">
         <v>115</v>
       </c>
@@ -8095,11 +8096,11 @@
       </c>
       <c r="F209" s="11"/>
       <c r="G209" s="11"/>
-      <c r="H209" s="58"/>
+      <c r="H209" s="63"/>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B210" s="11"/>
-      <c r="C210" s="58"/>
+      <c r="C210" s="63"/>
       <c r="D210" s="11" t="s">
         <v>116</v>
       </c>
@@ -8108,11 +8109,11 @@
       </c>
       <c r="F210" s="11"/>
       <c r="G210" s="11"/>
-      <c r="H210" s="58"/>
+      <c r="H210" s="63"/>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" s="11"/>
-      <c r="C211" s="58"/>
+      <c r="C211" s="63"/>
       <c r="D211" s="11" t="s">
         <v>115</v>
       </c>
@@ -8121,11 +8122,11 @@
       </c>
       <c r="F211" s="11"/>
       <c r="G211" s="11"/>
-      <c r="H211" s="58"/>
+      <c r="H211" s="63"/>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B212" s="11"/>
-      <c r="C212" s="58"/>
+      <c r="C212" s="63"/>
       <c r="D212" s="11" t="s">
         <v>116</v>
       </c>
@@ -8134,11 +8135,11 @@
       </c>
       <c r="F212" s="11"/>
       <c r="G212" s="11"/>
-      <c r="H212" s="58"/>
+      <c r="H212" s="63"/>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B213" s="11"/>
-      <c r="C213" s="58"/>
+      <c r="C213" s="63"/>
       <c r="D213" s="11" t="s">
         <v>115</v>
       </c>
@@ -8147,11 +8148,11 @@
       </c>
       <c r="F213" s="11"/>
       <c r="G213" s="11"/>
-      <c r="H213" s="58"/>
+      <c r="H213" s="63"/>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" s="11"/>
-      <c r="C214" s="58"/>
+      <c r="C214" s="63"/>
       <c r="D214" s="11" t="s">
         <v>116</v>
       </c>
@@ -8160,11 +8161,11 @@
       </c>
       <c r="F214" s="11"/>
       <c r="G214" s="11"/>
-      <c r="H214" s="58"/>
+      <c r="H214" s="63"/>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B215" s="11"/>
-      <c r="C215" s="58"/>
+      <c r="C215" s="63"/>
       <c r="D215" s="11" t="s">
         <v>115</v>
       </c>
@@ -8173,11 +8174,11 @@
       </c>
       <c r="F215" s="11"/>
       <c r="G215" s="11"/>
-      <c r="H215" s="58"/>
+      <c r="H215" s="63"/>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B216" s="11"/>
-      <c r="C216" s="58"/>
+      <c r="C216" s="63"/>
       <c r="D216" s="11" t="s">
         <v>116</v>
       </c>
@@ -8186,11 +8187,11 @@
       </c>
       <c r="F216" s="11"/>
       <c r="G216" s="11"/>
-      <c r="H216" s="58"/>
+      <c r="H216" s="63"/>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B217" s="11"/>
-      <c r="C217" s="58"/>
+      <c r="C217" s="63"/>
       <c r="D217" s="11" t="s">
         <v>115</v>
       </c>
@@ -8199,11 +8200,11 @@
       </c>
       <c r="F217" s="11"/>
       <c r="G217" s="11"/>
-      <c r="H217" s="58"/>
+      <c r="H217" s="63"/>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B218" s="11"/>
-      <c r="C218" s="58"/>
+      <c r="C218" s="63"/>
       <c r="D218" s="11" t="s">
         <v>116</v>
       </c>
@@ -8212,11 +8213,11 @@
       </c>
       <c r="F218" s="11"/>
       <c r="G218" s="11"/>
-      <c r="H218" s="58"/>
+      <c r="H218" s="63"/>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B219" s="11"/>
-      <c r="C219" s="58"/>
+      <c r="C219" s="63"/>
       <c r="D219" s="11" t="s">
         <v>115</v>
       </c>
@@ -8225,11 +8226,11 @@
       </c>
       <c r="F219" s="11"/>
       <c r="G219" s="11"/>
-      <c r="H219" s="58"/>
+      <c r="H219" s="63"/>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B220" s="11"/>
-      <c r="C220" s="58"/>
+      <c r="C220" s="63"/>
       <c r="D220" s="11" t="s">
         <v>116</v>
       </c>
@@ -8238,12 +8239,12 @@
       </c>
       <c r="F220" s="11"/>
       <c r="G220" s="11"/>
-      <c r="H220" s="58"/>
+      <c r="H220" s="63"/>
       <c r="I220" s="9"/>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B221" s="11"/>
-      <c r="C221" s="58"/>
+      <c r="C221" s="63"/>
       <c r="D221" s="11" t="s">
         <v>115</v>
       </c>
@@ -8252,12 +8253,12 @@
       </c>
       <c r="F221" s="11"/>
       <c r="G221" s="11"/>
-      <c r="H221" s="58"/>
+      <c r="H221" s="63"/>
       <c r="I221" s="9"/>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B222" s="11"/>
-      <c r="C222" s="58"/>
+      <c r="C222" s="63"/>
       <c r="D222" s="11" t="s">
         <v>116</v>
       </c>
@@ -8266,12 +8267,12 @@
       </c>
       <c r="F222" s="11"/>
       <c r="G222" s="11"/>
-      <c r="H222" s="58"/>
+      <c r="H222" s="63"/>
       <c r="I222" s="9"/>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B223" s="11"/>
-      <c r="C223" s="58"/>
+      <c r="C223" s="63"/>
       <c r="D223" s="11" t="s">
         <v>115</v>
       </c>
@@ -8280,12 +8281,12 @@
       </c>
       <c r="F223" s="11"/>
       <c r="G223" s="11"/>
-      <c r="H223" s="58"/>
+      <c r="H223" s="63"/>
       <c r="I223" s="9"/>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B224" s="11"/>
-      <c r="C224" s="58"/>
+      <c r="C224" s="63"/>
       <c r="D224" s="11" t="s">
         <v>116</v>
       </c>
@@ -8294,12 +8295,12 @@
       </c>
       <c r="F224" s="11"/>
       <c r="G224" s="11"/>
-      <c r="H224" s="58"/>
+      <c r="H224" s="63"/>
       <c r="I224" s="9"/>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B225" s="11"/>
-      <c r="C225" s="58"/>
+      <c r="C225" s="63"/>
       <c r="D225" s="11" t="s">
         <v>115</v>
       </c>
@@ -8308,12 +8309,12 @@
       </c>
       <c r="F225" s="11"/>
       <c r="G225" s="11"/>
-      <c r="H225" s="58"/>
+      <c r="H225" s="63"/>
       <c r="I225" s="9"/>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B226" s="11"/>
-      <c r="C226" s="58"/>
+      <c r="C226" s="63"/>
       <c r="D226" s="11" t="s">
         <v>116</v>
       </c>
@@ -8322,12 +8323,12 @@
       </c>
       <c r="F226" s="11"/>
       <c r="G226" s="11"/>
-      <c r="H226" s="58"/>
+      <c r="H226" s="63"/>
       <c r="I226" s="9"/>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" s="11"/>
-      <c r="C227" s="58"/>
+      <c r="C227" s="63"/>
       <c r="D227" s="11" t="s">
         <v>115</v>
       </c>
@@ -8336,12 +8337,12 @@
       </c>
       <c r="F227" s="11"/>
       <c r="G227" s="11"/>
-      <c r="H227" s="58"/>
+      <c r="H227" s="63"/>
       <c r="I227" s="9"/>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" s="11"/>
-      <c r="C228" s="58"/>
+      <c r="C228" s="63"/>
       <c r="D228" s="11" t="s">
         <v>116</v>
       </c>
@@ -8350,12 +8351,12 @@
       </c>
       <c r="F228" s="11"/>
       <c r="G228" s="11"/>
-      <c r="H228" s="58"/>
+      <c r="H228" s="63"/>
       <c r="I228" s="9"/>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229" s="11"/>
-      <c r="C229" s="58"/>
+      <c r="C229" s="63"/>
       <c r="D229" s="11" t="s">
         <v>115</v>
       </c>
@@ -8364,12 +8365,12 @@
       </c>
       <c r="F229" s="11"/>
       <c r="G229" s="11"/>
-      <c r="H229" s="58"/>
+      <c r="H229" s="63"/>
       <c r="I229" s="9"/>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B230" s="11"/>
-      <c r="C230" s="58"/>
+      <c r="C230" s="63"/>
       <c r="D230" s="11" t="s">
         <v>116</v>
       </c>
@@ -8378,12 +8379,12 @@
       </c>
       <c r="F230" s="11"/>
       <c r="G230" s="11"/>
-      <c r="H230" s="58"/>
+      <c r="H230" s="63"/>
       <c r="I230" s="9"/>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B231" s="11"/>
-      <c r="C231" s="58"/>
+      <c r="C231" s="63"/>
       <c r="D231" s="11" t="s">
         <v>115</v>
       </c>
@@ -8392,11 +8393,11 @@
       </c>
       <c r="F231" s="11"/>
       <c r="G231" s="11"/>
-      <c r="H231" s="58"/>
+      <c r="H231" s="63"/>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B232" s="11"/>
-      <c r="C232" s="58"/>
+      <c r="C232" s="63"/>
       <c r="D232" s="11" t="s">
         <v>116</v>
       </c>
@@ -8405,11 +8406,11 @@
       </c>
       <c r="F232" s="11"/>
       <c r="G232" s="11"/>
-      <c r="H232" s="58"/>
+      <c r="H232" s="63"/>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B233" s="11"/>
-      <c r="C233" s="58"/>
+      <c r="C233" s="63"/>
       <c r="D233" s="11" t="s">
         <v>115</v>
       </c>
@@ -8418,11 +8419,11 @@
       </c>
       <c r="F233" s="11"/>
       <c r="G233" s="11"/>
-      <c r="H233" s="58"/>
+      <c r="H233" s="63"/>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B234" s="11"/>
-      <c r="C234" s="58"/>
+      <c r="C234" s="63"/>
       <c r="D234" s="11" t="s">
         <v>116</v>
       </c>
@@ -8431,11 +8432,11 @@
       </c>
       <c r="F234" s="11"/>
       <c r="G234" s="11"/>
-      <c r="H234" s="58"/>
+      <c r="H234" s="63"/>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B235" s="11"/>
-      <c r="C235" s="58"/>
+      <c r="C235" s="63"/>
       <c r="D235" s="11" t="s">
         <v>115</v>
       </c>
@@ -8444,11 +8445,11 @@
       </c>
       <c r="F235" s="11"/>
       <c r="G235" s="11"/>
-      <c r="H235" s="58"/>
+      <c r="H235" s="63"/>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B236" s="11"/>
-      <c r="C236" s="58"/>
+      <c r="C236" s="63"/>
       <c r="D236" s="11" t="s">
         <v>116</v>
       </c>
@@ -8457,11 +8458,11 @@
       </c>
       <c r="F236" s="11"/>
       <c r="G236" s="11"/>
-      <c r="H236" s="58"/>
+      <c r="H236" s="63"/>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B237" s="11"/>
-      <c r="C237" s="58"/>
+      <c r="C237" s="63"/>
       <c r="D237" s="11" t="s">
         <v>115</v>
       </c>
@@ -8470,11 +8471,11 @@
       </c>
       <c r="F237" s="11"/>
       <c r="G237" s="11"/>
-      <c r="H237" s="58"/>
+      <c r="H237" s="63"/>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B238" s="11"/>
-      <c r="C238" s="58"/>
+      <c r="C238" s="63"/>
       <c r="D238" s="11" t="s">
         <v>116</v>
       </c>
@@ -8483,11 +8484,11 @@
       </c>
       <c r="F238" s="11"/>
       <c r="G238" s="11"/>
-      <c r="H238" s="58"/>
+      <c r="H238" s="63"/>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B239" s="11"/>
-      <c r="C239" s="58"/>
+      <c r="C239" s="63"/>
       <c r="D239" s="11" t="s">
         <v>115</v>
       </c>
@@ -8496,11 +8497,11 @@
       </c>
       <c r="F239" s="11"/>
       <c r="G239" s="11"/>
-      <c r="H239" s="58"/>
+      <c r="H239" s="63"/>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B240" s="11"/>
-      <c r="C240" s="58"/>
+      <c r="C240" s="63"/>
       <c r="D240" s="11" t="s">
         <v>116</v>
       </c>
@@ -8509,11 +8510,11 @@
       </c>
       <c r="F240" s="11"/>
       <c r="G240" s="11"/>
-      <c r="H240" s="58"/>
+      <c r="H240" s="63"/>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="11"/>
-      <c r="C241" s="58"/>
+      <c r="C241" s="63"/>
       <c r="D241" s="11" t="s">
         <v>115</v>
       </c>
@@ -8522,11 +8523,11 @@
       </c>
       <c r="F241" s="11"/>
       <c r="G241" s="11"/>
-      <c r="H241" s="58"/>
+      <c r="H241" s="63"/>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="11"/>
-      <c r="C242" s="58"/>
+      <c r="C242" s="63"/>
       <c r="D242" s="11" t="s">
         <v>116</v>
       </c>
@@ -8535,11 +8536,11 @@
       </c>
       <c r="F242" s="11"/>
       <c r="G242" s="11"/>
-      <c r="H242" s="58"/>
+      <c r="H242" s="63"/>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="11"/>
-      <c r="C243" s="58"/>
+      <c r="C243" s="63"/>
       <c r="D243" s="11" t="s">
         <v>115</v>
       </c>
@@ -8548,11 +8549,11 @@
       </c>
       <c r="F243" s="11"/>
       <c r="G243" s="11"/>
-      <c r="H243" s="58"/>
+      <c r="H243" s="63"/>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" s="11"/>
-      <c r="C244" s="58"/>
+      <c r="C244" s="63"/>
       <c r="D244" s="11" t="s">
         <v>116</v>
       </c>
@@ -8561,11 +8562,11 @@
       </c>
       <c r="F244" s="11"/>
       <c r="G244" s="11"/>
-      <c r="H244" s="58"/>
+      <c r="H244" s="63"/>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="11"/>
-      <c r="C245" s="58"/>
+      <c r="C245" s="63"/>
       <c r="D245" s="11" t="s">
         <v>115</v>
       </c>
@@ -8574,11 +8575,11 @@
       </c>
       <c r="F245" s="11"/>
       <c r="G245" s="11"/>
-      <c r="H245" s="58"/>
+      <c r="H245" s="63"/>
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="11"/>
-      <c r="C246" s="58"/>
+      <c r="C246" s="63"/>
       <c r="D246" s="11" t="s">
         <v>116</v>
       </c>
@@ -8587,11 +8588,11 @@
       </c>
       <c r="F246" s="11"/>
       <c r="G246" s="11"/>
-      <c r="H246" s="58"/>
+      <c r="H246" s="63"/>
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" s="11"/>
-      <c r="C247" s="58"/>
+      <c r="C247" s="63"/>
       <c r="D247" s="11" t="s">
         <v>115</v>
       </c>
@@ -8600,11 +8601,11 @@
       </c>
       <c r="F247" s="11"/>
       <c r="G247" s="11"/>
-      <c r="H247" s="58"/>
+      <c r="H247" s="63"/>
     </row>
     <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" s="11"/>
-      <c r="C248" s="58"/>
+      <c r="C248" s="63"/>
       <c r="D248" s="11" t="s">
         <v>116</v>
       </c>
@@ -8613,11 +8614,11 @@
       </c>
       <c r="F248" s="11"/>
       <c r="G248" s="11"/>
-      <c r="H248" s="58"/>
+      <c r="H248" s="63"/>
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" s="11"/>
-      <c r="C249" s="58"/>
+      <c r="C249" s="63"/>
       <c r="D249" s="11" t="s">
         <v>115</v>
       </c>
@@ -8626,11 +8627,11 @@
       </c>
       <c r="F249" s="11"/>
       <c r="G249" s="11"/>
-      <c r="H249" s="58"/>
+      <c r="H249" s="63"/>
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" s="11"/>
-      <c r="C250" s="58"/>
+      <c r="C250" s="63"/>
       <c r="D250" s="11" t="s">
         <v>116</v>
       </c>
@@ -8639,11 +8640,11 @@
       </c>
       <c r="F250" s="11"/>
       <c r="G250" s="11"/>
-      <c r="H250" s="58"/>
+      <c r="H250" s="63"/>
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" s="11"/>
-      <c r="C251" s="58"/>
+      <c r="C251" s="63"/>
       <c r="D251" s="11" t="s">
         <v>115</v>
       </c>
@@ -8652,11 +8653,11 @@
       </c>
       <c r="F251" s="11"/>
       <c r="G251" s="11"/>
-      <c r="H251" s="58"/>
+      <c r="H251" s="63"/>
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" s="11"/>
-      <c r="C252" s="58"/>
+      <c r="C252" s="63"/>
       <c r="D252" s="11" t="s">
         <v>116</v>
       </c>
@@ -8665,11 +8666,11 @@
       </c>
       <c r="F252" s="11"/>
       <c r="G252" s="11"/>
-      <c r="H252" s="58"/>
+      <c r="H252" s="63"/>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" s="11"/>
-      <c r="C253" s="58"/>
+      <c r="C253" s="63"/>
       <c r="D253" s="11" t="s">
         <v>115</v>
       </c>
@@ -8678,11 +8679,11 @@
       </c>
       <c r="F253" s="11"/>
       <c r="G253" s="11"/>
-      <c r="H253" s="58"/>
+      <c r="H253" s="63"/>
     </row>
     <row r="254" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B254" s="12"/>
-      <c r="C254" s="59"/>
+      <c r="C254" s="64"/>
       <c r="D254" s="12" t="s">
         <v>116</v>
       </c>
@@ -8691,13 +8692,264 @@
       </c>
       <c r="F254" s="12"/>
       <c r="G254" s="12"/>
-      <c r="H254" s="59"/>
+      <c r="H254" s="64"/>
     </row>
   </sheetData>
-  <sortState ref="C2:C156">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C156">
     <sortCondition ref="C2"/>
   </sortState>
   <mergeCells count="275">
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="C241:C242"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="H203:H204"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="H167:H168"/>
+    <mergeCell ref="H169:H170"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="H175:H176"/>
+    <mergeCell ref="H181:H182"/>
+    <mergeCell ref="H177:H178"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="H197:H198"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="H179:H180"/>
+    <mergeCell ref="H247:H248"/>
+    <mergeCell ref="H249:H250"/>
+    <mergeCell ref="H251:H252"/>
+    <mergeCell ref="H253:H254"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="H223:H224"/>
+    <mergeCell ref="H225:H226"/>
+    <mergeCell ref="H227:H228"/>
+    <mergeCell ref="H229:H230"/>
+    <mergeCell ref="H231:H232"/>
+    <mergeCell ref="H233:H234"/>
+    <mergeCell ref="H235:H236"/>
+    <mergeCell ref="H237:H238"/>
+    <mergeCell ref="H239:H240"/>
+    <mergeCell ref="H205:H206"/>
+    <mergeCell ref="H207:H208"/>
     <mergeCell ref="G159:G160"/>
     <mergeCell ref="G161:G162"/>
     <mergeCell ref="G19:G20"/>
@@ -8722,257 +8974,6 @@
     <mergeCell ref="H193:H194"/>
     <mergeCell ref="H199:H200"/>
     <mergeCell ref="H201:H202"/>
-    <mergeCell ref="H247:H248"/>
-    <mergeCell ref="H249:H250"/>
-    <mergeCell ref="H251:H252"/>
-    <mergeCell ref="H253:H254"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="H223:H224"/>
-    <mergeCell ref="H225:H226"/>
-    <mergeCell ref="H227:H228"/>
-    <mergeCell ref="H229:H230"/>
-    <mergeCell ref="H231:H232"/>
-    <mergeCell ref="H233:H234"/>
-    <mergeCell ref="H235:H236"/>
-    <mergeCell ref="H237:H238"/>
-    <mergeCell ref="H239:H240"/>
-    <mergeCell ref="H205:H206"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="H203:H204"/>
-    <mergeCell ref="H163:H164"/>
-    <mergeCell ref="H165:H166"/>
-    <mergeCell ref="H167:H168"/>
-    <mergeCell ref="H169:H170"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="H175:H176"/>
-    <mergeCell ref="H181:H182"/>
-    <mergeCell ref="H177:H178"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="H197:H198"/>
-    <mergeCell ref="H171:H172"/>
-    <mergeCell ref="H179:H180"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="C241:C242"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="H153:H154"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="H113:H114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8980,11 +8981,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J172"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8994,20 +8995,20 @@
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
     <col min="7" max="7" width="34.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J3" t="s">
@@ -9035,10 +9036,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="68" t="s">
         <v>281</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -9050,7 +9051,7 @@
       <c r="F5" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="68" t="s">
         <v>565</v>
       </c>
       <c r="J5" t="s">
@@ -9058,8 +9059,8 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="69"/>
-      <c r="C6" s="59"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="17" t="s">
         <v>573</v>
       </c>
@@ -9069,16 +9070,16 @@
       <c r="F6" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="G6" s="59"/>
+      <c r="G6" s="64"/>
       <c r="J6" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="68" t="s">
         <v>676</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -9090,13 +9091,13 @@
       <c r="F7" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="68" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="69"/>
-      <c r="C8" s="58"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="9" t="s">
         <v>670</v>
       </c>
@@ -9106,11 +9107,11 @@
       <c r="F8" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="63" t="s">
         <v>215</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -9122,13 +9123,13 @@
       <c r="F9" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
-      <c r="C10" s="58"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="9" t="s">
         <v>679</v>
       </c>
@@ -9138,11 +9139,11 @@
       <c r="F10" s="30" t="s">
         <v>680</v>
       </c>
-      <c r="G10" s="58"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="63" t="s">
         <v>216</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -9154,13 +9155,13 @@
       <c r="F11" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="58"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="9" t="s">
         <v>218</v>
       </c>
@@ -9170,11 +9171,11 @@
       <c r="F12" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="G12" s="58"/>
+      <c r="G12" s="63"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="63" t="s">
         <v>257</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -9186,11 +9187,11 @@
       <c r="F13" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G13" s="58"/>
+      <c r="G13" s="63"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
-      <c r="C14" s="58"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="9" t="s">
         <v>261</v>
       </c>
@@ -9200,11 +9201,11 @@
       <c r="F14" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G14" s="58"/>
+      <c r="G14" s="63"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="63" t="s">
         <v>687</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -9216,13 +9217,13 @@
       <c r="F15" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
-      <c r="C16" s="58"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="9" t="s">
         <v>689</v>
       </c>
@@ -9232,11 +9233,11 @@
       <c r="F16" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="G16" s="58"/>
+      <c r="G16" s="63"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="63" t="s">
         <v>779</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -9246,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="30"/>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="63" t="s">
         <v>706</v>
       </c>
       <c r="H17" t="s">
@@ -9255,7 +9256,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="58"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="9" t="s">
         <v>715</v>
       </c>
@@ -9263,14 +9264,14 @@
         <v>2</v>
       </c>
       <c r="F18" s="30"/>
-      <c r="G18" s="58"/>
+      <c r="G18" s="63"/>
       <c r="H18" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="63" t="s">
         <v>780</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -9280,7 +9281,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="63" t="s">
         <v>606</v>
       </c>
       <c r="H19" s="40" t="s">
@@ -9289,7 +9290,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
-      <c r="C20" s="58"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="9" t="s">
         <v>648</v>
       </c>
@@ -9297,14 +9298,14 @@
         <v>2</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="58"/>
+      <c r="G20" s="63"/>
       <c r="H20" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="63" t="s">
         <v>654</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -9316,13 +9317,13 @@
       <c r="F21" s="30" t="s">
         <v>657</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
-      <c r="C22" s="58"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="9" t="s">
         <v>656</v>
       </c>
@@ -9332,11 +9333,11 @@
       <c r="F22" s="30" t="s">
         <v>658</v>
       </c>
-      <c r="G22" s="58"/>
+      <c r="G22" s="63"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="63" t="s">
         <v>782</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -9348,7 +9349,7 @@
       <c r="F23" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="63" t="s">
         <v>565</v>
       </c>
       <c r="H23" t="s">
@@ -9357,7 +9358,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
-      <c r="C24" s="58"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="9" t="s">
         <v>313</v>
       </c>
@@ -9367,14 +9368,14 @@
       <c r="F24" s="38" t="s">
         <v>494</v>
       </c>
-      <c r="G24" s="58"/>
+      <c r="G24" s="63"/>
       <c r="H24" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="63" t="s">
         <v>188</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -9386,11 +9387,11 @@
       <c r="F25" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="G25" s="58"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
-      <c r="C26" s="59"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="17" t="s">
         <v>190</v>
       </c>
@@ -9400,13 +9401,13 @@
       <c r="F26" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="G26" s="59"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="63" t="s">
         <v>692</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -9418,13 +9419,13 @@
       <c r="F27" s="30" t="s">
         <v>694</v>
       </c>
-      <c r="G27" s="58" t="s">
+      <c r="G27" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69"/>
-      <c r="C28" s="58"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="9" t="s">
         <v>695</v>
       </c>
@@ -9434,11 +9435,11 @@
       <c r="F28" s="30" t="s">
         <v>696</v>
       </c>
-      <c r="G28" s="58"/>
+      <c r="G28" s="63"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="29"/>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="63" t="s">
         <v>197</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -9450,11 +9451,11 @@
       <c r="F29" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="G29" s="58"/>
+      <c r="G29" s="63"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="29"/>
-      <c r="C30" s="58"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="9" t="s">
         <v>199</v>
       </c>
@@ -9464,11 +9465,11 @@
       <c r="F30" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="G30" s="58"/>
+      <c r="G30" s="63"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="63" t="s">
         <v>244</v>
       </c>
       <c r="D31" s="9" t="s">
@@ -9480,11 +9481,11 @@
       <c r="F31" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="G31" s="58"/>
+      <c r="G31" s="63"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
-      <c r="C32" s="58"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="9" t="s">
         <v>246</v>
       </c>
@@ -9494,11 +9495,11 @@
       <c r="F32" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="G32" s="58"/>
+      <c r="G32" s="63"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="63" t="s">
         <v>649</v>
       </c>
       <c r="D33" s="9" t="s">
@@ -9510,13 +9511,13 @@
       <c r="F33" s="30" t="s">
         <v>651</v>
       </c>
-      <c r="G33" s="58" t="s">
+      <c r="G33" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
-      <c r="C34" s="58"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="9" t="s">
         <v>652</v>
       </c>
@@ -9526,11 +9527,11 @@
       <c r="F34" s="30" t="s">
         <v>653</v>
       </c>
-      <c r="G34" s="58"/>
+      <c r="G34" s="63"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="63" t="s">
         <v>336</v>
       </c>
       <c r="D35" t="s">
@@ -9542,13 +9543,13 @@
       <c r="F35" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="63" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
-      <c r="C36" s="58"/>
+      <c r="C36" s="63"/>
       <c r="D36" t="s">
         <v>856</v>
       </c>
@@ -9558,11 +9559,11 @@
       <c r="F36" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="G36" s="58"/>
+      <c r="G36" s="63"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="63" t="s">
         <v>209</v>
       </c>
       <c r="D37" s="9" t="s">
@@ -9574,13 +9575,13 @@
       <c r="F37" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="G37" s="58" t="s">
+      <c r="G37" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
-      <c r="C38" s="58"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="9" t="s">
         <v>211</v>
       </c>
@@ -9590,11 +9591,11 @@
       <c r="F38" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="G38" s="58"/>
+      <c r="G38" s="63"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="63" t="s">
         <v>799</v>
       </c>
       <c r="D39" s="40" t="s">
@@ -9606,13 +9607,13 @@
       <c r="F39" s="40" t="s">
         <v>800</v>
       </c>
-      <c r="G39" s="58" t="s">
+      <c r="G39" s="63" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
-      <c r="C40" s="58"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="40" t="s">
         <v>798</v>
       </c>
@@ -9622,11 +9623,11 @@
       <c r="F40" s="40" t="s">
         <v>801</v>
       </c>
-      <c r="G40" s="58"/>
+      <c r="G40" s="63"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="63" t="s">
         <v>101</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -9638,13 +9639,13 @@
       <c r="F41" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="G41" s="58" t="s">
+      <c r="G41" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
-      <c r="C42" s="58"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="9" t="s">
         <v>697</v>
       </c>
@@ -9654,11 +9655,11 @@
       <c r="F42" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="G42" s="58"/>
+      <c r="G42" s="63"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="63" t="s">
         <v>708</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -9668,13 +9669,13 @@
         <v>1</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="58" t="s">
+      <c r="G43" s="63" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
-      <c r="C44" s="58"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="9" t="s">
         <v>710</v>
       </c>
@@ -9682,11 +9683,11 @@
         <v>2</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="G44" s="58"/>
+      <c r="G44" s="63"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="63" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="9" t="s">
@@ -9698,11 +9699,11 @@
       <c r="F45" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="G45" s="58"/>
+      <c r="G45" s="63"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
-      <c r="C46" s="58"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="9" t="s">
         <v>268</v>
       </c>
@@ -9712,11 +9713,11 @@
       <c r="F46" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="G46" s="58"/>
+      <c r="G46" s="63"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="63" t="s">
         <v>203</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -9728,11 +9729,11 @@
       <c r="F47" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="G47" s="58"/>
+      <c r="G47" s="63"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
-      <c r="C48" s="58"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="9" t="s">
         <v>205</v>
       </c>
@@ -9742,11 +9743,11 @@
       <c r="F48" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="G48" s="58"/>
+      <c r="G48" s="63"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="11"/>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="63" t="s">
         <v>219</v>
       </c>
       <c r="D49" s="9" t="s">
@@ -9758,11 +9759,11 @@
       <c r="F49" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="G49" s="58"/>
+      <c r="G49" s="63"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="12"/>
-      <c r="C50" s="59"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="17" t="s">
         <v>221</v>
       </c>
@@ -9772,13 +9773,13 @@
       <c r="F50" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="G50" s="59"/>
+      <c r="G50" s="64"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="63" t="s">
         <v>301</v>
       </c>
       <c r="D51" s="9" t="s">
@@ -9790,13 +9791,13 @@
       <c r="F51" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="G51" s="58" t="s">
+      <c r="G51" s="63" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="69"/>
-      <c r="C52" s="58"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="9" t="s">
         <v>566</v>
       </c>
@@ -9806,11 +9807,11 @@
       <c r="F52" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="G52" s="58"/>
+      <c r="G52" s="63"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="63" t="s">
         <v>303</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -9822,13 +9823,13 @@
       <c r="F53" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="G53" s="58" t="s">
+      <c r="G53" s="63" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="11"/>
-      <c r="C54" s="58"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="9" t="s">
         <v>305</v>
       </c>
@@ -9838,11 +9839,11 @@
       <c r="F54" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="G54" s="58"/>
+      <c r="G54" s="63"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="11"/>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="63" t="s">
         <v>306</v>
       </c>
       <c r="D55" s="9" t="s">
@@ -9854,13 +9855,13 @@
       <c r="F55" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="G55" s="58" t="s">
+      <c r="G55" s="63" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="11"/>
-      <c r="C56" s="58"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="9" t="s">
         <v>569</v>
       </c>
@@ -9870,11 +9871,11 @@
       <c r="F56" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="G56" s="58"/>
+      <c r="G56" s="63"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="11"/>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="63" t="s">
         <v>308</v>
       </c>
       <c r="D57" s="9" t="s">
@@ -9886,13 +9887,13 @@
       <c r="F57" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="G57" s="58" t="s">
+      <c r="G57" s="63" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="12"/>
-      <c r="C58" s="59"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="17" t="s">
         <v>570</v>
       </c>
@@ -9902,13 +9903,13 @@
       <c r="F58" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="G58" s="59"/>
+      <c r="G58" s="64"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="66" t="s">
         <v>320</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="68" t="s">
         <v>247</v>
       </c>
       <c r="D59" s="18" t="s">
@@ -9920,11 +9921,11 @@
       <c r="F59" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="G59" s="63"/>
+      <c r="G59" s="68"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="69"/>
-      <c r="C60" s="58"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="11" t="s">
         <v>249</v>
       </c>
@@ -9934,11 +9935,11 @@
       <c r="F60" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="G60" s="58"/>
+      <c r="G60" s="63"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="28"/>
-      <c r="C61" s="58" t="s">
+      <c r="C61" s="63" t="s">
         <v>792</v>
       </c>
       <c r="D61" s="9" t="s">
@@ -9950,13 +9951,13 @@
       <c r="F61" s="30" t="s">
         <v>644</v>
       </c>
-      <c r="G61" s="58" t="s">
+      <c r="G61" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="28"/>
-      <c r="C62" s="58"/>
+      <c r="C62" s="63"/>
       <c r="D62" s="9" t="s">
         <v>645</v>
       </c>
@@ -9966,11 +9967,11 @@
       <c r="F62" s="30" t="s">
         <v>646</v>
       </c>
-      <c r="G62" s="58"/>
+      <c r="G62" s="63"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="28"/>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="63" t="s">
         <v>638</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -9982,13 +9983,13 @@
       <c r="F63" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="G63" s="58" t="s">
+      <c r="G63" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="28"/>
-      <c r="C64" s="59"/>
+      <c r="C64" s="64"/>
       <c r="D64" s="17" t="s">
         <v>640</v>
       </c>
@@ -9998,13 +9999,13 @@
       <c r="F64" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="G64" s="59"/>
+      <c r="G64" s="64"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="68" t="s">
+      <c r="B65" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="C65" s="63" t="s">
+      <c r="C65" s="68" t="s">
         <v>591</v>
       </c>
       <c r="D65" s="9" t="s">
@@ -10016,13 +10017,13 @@
       <c r="F65" s="30" t="s">
         <v>590</v>
       </c>
-      <c r="G65" s="58" t="s">
+      <c r="G65" s="63" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="69"/>
-      <c r="C66" s="59"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="64"/>
       <c r="D66" s="9" t="s">
         <v>588</v>
       </c>
@@ -10032,13 +10033,13 @@
       <c r="F66" s="30" t="s">
         <v>589</v>
       </c>
-      <c r="G66" s="59"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="68" t="s">
+      <c r="G66" s="64"/>
+    </row>
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="C67" s="63" t="s">
+      <c r="C67" s="68" t="s">
         <v>285</v>
       </c>
       <c r="D67" s="18" t="s">
@@ -10050,16 +10051,16 @@
       <c r="F67" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="G67" s="63" t="s">
+      <c r="G67" s="68" t="s">
         <v>666</v>
       </c>
-      <c r="H67" s="60" t="s">
+      <c r="H67" s="75" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="69"/>
-      <c r="C68" s="59"/>
+    <row r="68" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="67"/>
+      <c r="C68" s="64"/>
       <c r="D68" s="17" t="s">
         <v>665</v>
       </c>
@@ -10069,14 +10070,14 @@
       <c r="F68" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="G68" s="59"/>
-      <c r="H68" s="60"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="75"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="68" t="s">
+      <c r="B69" s="66" t="s">
         <v>323</v>
       </c>
-      <c r="C69" s="58" t="s">
+      <c r="C69" s="63" t="s">
         <v>270</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -10088,11 +10089,11 @@
       <c r="F69" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="G69" s="58"/>
+      <c r="G69" s="63"/>
     </row>
     <row r="70" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="69"/>
-      <c r="C70" s="58"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="63"/>
       <c r="D70" s="9" t="s">
         <v>272</v>
       </c>
@@ -10102,11 +10103,11 @@
       <c r="F70" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="G70" s="58"/>
+      <c r="G70" s="63"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="11"/>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="63" t="s">
         <v>239</v>
       </c>
       <c r="D71" s="9" t="s">
@@ -10118,11 +10119,11 @@
       <c r="F71" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="G71" s="58"/>
+      <c r="G71" s="63"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="11"/>
-      <c r="C72" s="58"/>
+      <c r="C72" s="63"/>
       <c r="D72" s="9" t="s">
         <v>241</v>
       </c>
@@ -10132,11 +10133,11 @@
       <c r="F72" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="G72" s="58"/>
+      <c r="G72" s="63"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="11"/>
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="63" t="s">
         <v>262</v>
       </c>
       <c r="D73" s="9" t="s">
@@ -10148,13 +10149,13 @@
       <c r="F73" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="G73" s="58" t="s">
+      <c r="G73" s="63" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="11"/>
-      <c r="C74" s="58"/>
+      <c r="C74" s="63"/>
       <c r="D74" s="9" t="s">
         <v>264</v>
       </c>
@@ -10164,11 +10165,11 @@
       <c r="F74" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="G74" s="58"/>
+      <c r="G74" s="63"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="11"/>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="63" t="s">
         <v>300</v>
       </c>
       <c r="D75" s="9" t="s">
@@ -10180,13 +10181,13 @@
       <c r="F75" s="30" t="s">
         <v>595</v>
       </c>
-      <c r="G75" s="58" t="s">
+      <c r="G75" s="63" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="11"/>
-      <c r="C76" s="58"/>
+      <c r="C76" s="63"/>
       <c r="D76" s="9" t="s">
         <v>593</v>
       </c>
@@ -10196,11 +10197,11 @@
       <c r="F76" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="G76" s="58"/>
+      <c r="G76" s="63"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="11"/>
-      <c r="C77" s="58" t="s">
+      <c r="C77" s="63" t="s">
         <v>788</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -10212,13 +10213,13 @@
       <c r="F77" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="G77" s="58" t="s">
+      <c r="G77" s="63" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="12"/>
-      <c r="C78" s="59"/>
+      <c r="C78" s="64"/>
       <c r="D78" s="17" t="s">
         <v>598</v>
       </c>
@@ -10228,13 +10229,13 @@
       <c r="F78" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="G78" s="59"/>
+      <c r="G78" s="64"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="68" t="s">
+      <c r="B79" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="63" t="s">
         <v>250</v>
       </c>
       <c r="D79" s="9" t="s">
@@ -10246,11 +10247,11 @@
       <c r="F79" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="G79" s="58"/>
+      <c r="G79" s="63"/>
     </row>
     <row r="80" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="69"/>
-      <c r="C80" s="58"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="63"/>
       <c r="D80" s="9" t="s">
         <v>252</v>
       </c>
@@ -10260,11 +10261,11 @@
       <c r="F80" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="G80" s="58"/>
+      <c r="G80" s="63"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="11"/>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="63" t="s">
         <v>297</v>
       </c>
       <c r="D81" s="9" t="s">
@@ -10276,13 +10277,13 @@
       <c r="F81" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="G81" s="58" t="s">
+      <c r="G81" s="63" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="11"/>
-      <c r="C82" s="58"/>
+      <c r="C82" s="63"/>
       <c r="D82" s="9" t="s">
         <v>299</v>
       </c>
@@ -10292,11 +10293,11 @@
       <c r="F82" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="G82" s="58"/>
+      <c r="G82" s="63"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="11"/>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="63" t="s">
         <v>294</v>
       </c>
       <c r="D83" s="9" t="s">
@@ -10308,13 +10309,13 @@
       <c r="F83" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="G83" s="58" t="s">
+      <c r="G83" s="63" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="11"/>
-      <c r="C84" s="58"/>
+      <c r="C84" s="63"/>
       <c r="D84" s="9" t="s">
         <v>296</v>
       </c>
@@ -10324,11 +10325,11 @@
       <c r="F84" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="G84" s="58"/>
+      <c r="G84" s="63"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="11"/>
-      <c r="C85" s="58" t="s">
+      <c r="C85" s="63" t="s">
         <v>601</v>
       </c>
       <c r="D85" s="9" t="s">
@@ -10340,13 +10341,13 @@
       <c r="F85" s="30" t="s">
         <v>603</v>
       </c>
-      <c r="G85" s="58" t="s">
+      <c r="G85" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="11"/>
-      <c r="C86" s="58"/>
+      <c r="C86" s="63"/>
       <c r="D86" s="9" t="s">
         <v>604</v>
       </c>
@@ -10356,11 +10357,11 @@
       <c r="F86" s="30" t="s">
         <v>605</v>
       </c>
-      <c r="G86" s="58"/>
+      <c r="G86" s="63"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="11"/>
-      <c r="C87" s="58" t="s">
+      <c r="C87" s="63" t="s">
         <v>180</v>
       </c>
       <c r="D87" s="9" t="s">
@@ -10372,11 +10373,11 @@
       <c r="F87" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="G87" s="58"/>
+      <c r="G87" s="63"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="11"/>
-      <c r="C88" s="58"/>
+      <c r="C88" s="63"/>
       <c r="D88" s="9" t="s">
         <v>182</v>
       </c>
@@ -10386,11 +10387,11 @@
       <c r="F88" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="G88" s="58"/>
+      <c r="G88" s="63"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="11"/>
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="63" t="s">
         <v>200</v>
       </c>
       <c r="D89" s="9" t="s">
@@ -10402,11 +10403,11 @@
       <c r="F89" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="G89" s="58"/>
+      <c r="G89" s="63"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="11"/>
-      <c r="C90" s="58"/>
+      <c r="C90" s="63"/>
       <c r="D90" s="9" t="s">
         <v>202</v>
       </c>
@@ -10416,11 +10417,11 @@
       <c r="F90" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="G90" s="58"/>
+      <c r="G90" s="63"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="11"/>
-      <c r="C91" s="58" t="s">
+      <c r="C91" s="63" t="s">
         <v>181</v>
       </c>
       <c r="D91" s="9" t="s">
@@ -10432,11 +10433,11 @@
       <c r="F91" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="G91" s="58"/>
+      <c r="G91" s="63"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="11"/>
-      <c r="C92" s="58"/>
+      <c r="C92" s="63"/>
       <c r="D92" s="9" t="s">
         <v>184</v>
       </c>
@@ -10446,11 +10447,11 @@
       <c r="F92" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="G92" s="58"/>
+      <c r="G92" s="63"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="11"/>
-      <c r="C93" s="58" t="s">
+      <c r="C93" s="63" t="s">
         <v>222</v>
       </c>
       <c r="D93" s="9" t="s">
@@ -10462,11 +10463,11 @@
       <c r="F93" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="G93" s="58"/>
+      <c r="G93" s="63"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="11"/>
-      <c r="C94" s="58"/>
+      <c r="C94" s="63"/>
       <c r="D94" s="9" t="s">
         <v>224</v>
       </c>
@@ -10476,11 +10477,11 @@
       <c r="F94" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="G94" s="58"/>
+      <c r="G94" s="63"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="11"/>
-      <c r="C95" s="58" t="s">
+      <c r="C95" s="63" t="s">
         <v>954</v>
       </c>
       <c r="D95" s="9" t="s">
@@ -10492,13 +10493,13 @@
       <c r="F95" s="30" t="s">
         <v>957</v>
       </c>
-      <c r="G95" s="58" t="s">
+      <c r="G95" s="63" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="11"/>
-      <c r="C96" s="58"/>
+      <c r="C96" s="63"/>
       <c r="D96" s="9" t="s">
         <v>956</v>
       </c>
@@ -10508,11 +10509,11 @@
       <c r="F96" s="30" t="s">
         <v>958</v>
       </c>
-      <c r="G96" s="58"/>
+      <c r="G96" s="63"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="11"/>
-      <c r="C97" s="58" t="s">
+      <c r="C97" s="63" t="s">
         <v>659</v>
       </c>
       <c r="D97" s="9" t="s">
@@ -10524,13 +10525,13 @@
       <c r="F97" s="30" t="s">
         <v>660</v>
       </c>
-      <c r="G97" s="58" t="s">
+      <c r="G97" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="11"/>
-      <c r="C98" s="58"/>
+      <c r="C98" s="63"/>
       <c r="D98" s="9" t="s">
         <v>662</v>
       </c>
@@ -10540,11 +10541,11 @@
       <c r="F98" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="G98" s="58"/>
+      <c r="G98" s="63"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="11"/>
-      <c r="C99" s="58" t="s">
+      <c r="C99" s="63" t="s">
         <v>291</v>
       </c>
       <c r="D99" s="9" t="s">
@@ -10556,11 +10557,11 @@
       <c r="F99" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="G99" s="58"/>
+      <c r="G99" s="63"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="11"/>
-      <c r="C100" s="58"/>
+      <c r="C100" s="63"/>
       <c r="D100" s="9" t="s">
         <v>293</v>
       </c>
@@ -10570,11 +10571,11 @@
       <c r="F100" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="G100" s="58"/>
+      <c r="G100" s="63"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="11"/>
-      <c r="C101" s="58" t="s">
+      <c r="C101" s="63" t="s">
         <v>288</v>
       </c>
       <c r="D101" s="9" t="s">
@@ -10586,11 +10587,11 @@
       <c r="F101" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="G101" s="58"/>
+      <c r="G101" s="63"/>
     </row>
     <row r="102" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="12"/>
-      <c r="C102" s="59"/>
+      <c r="C102" s="64"/>
       <c r="D102" s="17" t="s">
         <v>290</v>
       </c>
@@ -10600,13 +10601,13 @@
       <c r="F102" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="G102" s="59"/>
+      <c r="G102" s="64"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="68" t="s">
+      <c r="B103" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="C103" s="63" t="s">
+      <c r="C103" s="68" t="s">
         <v>206</v>
       </c>
       <c r="D103" s="18" t="s">
@@ -10618,11 +10619,11 @@
       <c r="F103" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="G103" s="63"/>
+      <c r="G103" s="68"/>
     </row>
     <row r="104" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="69"/>
-      <c r="C104" s="59"/>
+      <c r="B104" s="67"/>
+      <c r="C104" s="64"/>
       <c r="D104" s="17" t="s">
         <v>208</v>
       </c>
@@ -10632,13 +10633,13 @@
       <c r="F104" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="G104" s="59"/>
+      <c r="G104" s="64"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="68" t="s">
+      <c r="B105" s="66" t="s">
         <v>325</v>
       </c>
-      <c r="C105" s="58" t="s">
+      <c r="C105" s="63" t="s">
         <v>783</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -10650,7 +10651,7 @@
       <c r="F105" s="38" t="s">
         <v>755</v>
       </c>
-      <c r="G105" s="58" t="s">
+      <c r="G105" s="63" t="s">
         <v>565</v>
       </c>
       <c r="H105" t="s">
@@ -10658,8 +10659,8 @@
       </c>
     </row>
     <row r="106" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="69"/>
-      <c r="C106" s="58"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="63"/>
       <c r="D106" s="9" t="s">
         <v>571</v>
       </c>
@@ -10669,14 +10670,14 @@
       <c r="F106" s="38" t="s">
         <v>756</v>
       </c>
-      <c r="G106" s="58"/>
+      <c r="G106" s="63"/>
       <c r="H106" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="11"/>
-      <c r="C107" s="58" t="s">
+      <c r="C107" s="63" t="s">
         <v>225</v>
       </c>
       <c r="D107" s="9" t="s">
@@ -10688,11 +10689,11 @@
       <c r="F107" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G107" s="58"/>
+      <c r="G107" s="63"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="11"/>
-      <c r="C108" s="58"/>
+      <c r="C108" s="63"/>
       <c r="D108" s="9" t="s">
         <v>227</v>
       </c>
@@ -10702,11 +10703,11 @@
       <c r="F108" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G108" s="58"/>
+      <c r="G108" s="63"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="11"/>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="63" t="s">
         <v>558</v>
       </c>
       <c r="D109" s="9" t="s">
@@ -10718,13 +10719,13 @@
       <c r="F109" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="G109" s="72" t="s">
+      <c r="G109" s="76" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="11"/>
-      <c r="C110" s="58"/>
+      <c r="C110" s="63"/>
       <c r="D110" s="9" t="s">
         <v>567</v>
       </c>
@@ -10734,11 +10735,11 @@
       <c r="F110" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="G110" s="72"/>
+      <c r="G110" s="76"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="11"/>
-      <c r="C111" s="58" t="s">
+      <c r="C111" s="63" t="s">
         <v>559</v>
       </c>
       <c r="D111" s="9" t="s">
@@ -10750,11 +10751,11 @@
       <c r="F111" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="G111" s="58"/>
+      <c r="G111" s="63"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="11"/>
-      <c r="C112" s="58"/>
+      <c r="C112" s="63"/>
       <c r="D112" s="9" t="s">
         <v>760</v>
       </c>
@@ -10764,11 +10765,11 @@
       <c r="F112" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="G112" s="58"/>
+      <c r="G112" s="63"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="11"/>
-      <c r="C113" s="58" t="s">
+      <c r="C113" s="63" t="s">
         <v>242</v>
       </c>
       <c r="D113" s="9" t="s">
@@ -10780,13 +10781,13 @@
       <c r="F113" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="G113" s="58" t="s">
+      <c r="G113" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="114" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="12"/>
-      <c r="C114" s="59"/>
+      <c r="C114" s="64"/>
       <c r="D114" s="17" t="s">
         <v>668</v>
       </c>
@@ -10796,13 +10797,13 @@
       <c r="F114" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="G114" s="59"/>
+      <c r="G114" s="64"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="68" t="s">
+      <c r="B115" s="66" t="s">
         <v>326</v>
       </c>
-      <c r="C115" s="58" t="s">
+      <c r="C115" s="63" t="s">
         <v>612</v>
       </c>
       <c r="D115" s="9" t="s">
@@ -10814,11 +10815,11 @@
       <c r="F115" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="G115" s="58"/>
+      <c r="G115" s="63"/>
     </row>
     <row r="116" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="69"/>
-      <c r="C116" s="58"/>
+      <c r="B116" s="67"/>
+      <c r="C116" s="63"/>
       <c r="D116" s="9" t="s">
         <v>615</v>
       </c>
@@ -10828,11 +10829,11 @@
       <c r="F116" t="s">
         <v>762</v>
       </c>
-      <c r="G116" s="58"/>
+      <c r="G116" s="63"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="11"/>
-      <c r="C117" s="58" t="s">
+      <c r="C117" s="63" t="s">
         <v>613</v>
       </c>
       <c r="D117" s="9" t="s">
@@ -10844,11 +10845,11 @@
       <c r="F117" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="G117" s="58"/>
+      <c r="G117" s="63"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="11"/>
-      <c r="C118" s="58"/>
+      <c r="C118" s="63"/>
       <c r="D118" s="9" t="s">
         <v>617</v>
       </c>
@@ -10858,11 +10859,11 @@
       <c r="F118" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="G118" s="58"/>
+      <c r="G118" s="63"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="11"/>
-      <c r="C119" s="58" t="s">
+      <c r="C119" s="63" t="s">
         <v>621</v>
       </c>
       <c r="D119" s="9" t="s">
@@ -10874,13 +10875,13 @@
       <c r="F119" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="G119" s="58" t="s">
+      <c r="G119" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="11"/>
-      <c r="C120" s="58"/>
+      <c r="C120" s="63"/>
       <c r="D120" s="9" t="s">
         <v>622</v>
       </c>
@@ -10890,11 +10891,11 @@
       <c r="F120" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="G120" s="58"/>
+      <c r="G120" s="63"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="11"/>
-      <c r="C121" s="58" t="s">
+      <c r="C121" s="63" t="s">
         <v>623</v>
       </c>
       <c r="D121" s="9" t="s">
@@ -10906,13 +10907,13 @@
       <c r="F121" s="30" t="s">
         <v>626</v>
       </c>
-      <c r="G121" s="58" t="s">
+      <c r="G121" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="11"/>
-      <c r="C122" s="58"/>
+      <c r="C122" s="63"/>
       <c r="D122" s="9" t="s">
         <v>625</v>
       </c>
@@ -10922,11 +10923,11 @@
       <c r="F122" s="30" t="s">
         <v>627</v>
       </c>
-      <c r="G122" s="58"/>
+      <c r="G122" s="63"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="11"/>
-      <c r="C123" s="58" t="s">
+      <c r="C123" s="63" t="s">
         <v>212</v>
       </c>
       <c r="D123" s="9" t="s">
@@ -10938,11 +10939,11 @@
       <c r="F123" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="G123" s="58"/>
+      <c r="G123" s="63"/>
     </row>
     <row r="124" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="12"/>
-      <c r="C124" s="59"/>
+      <c r="C124" s="64"/>
       <c r="D124" s="17" t="s">
         <v>214</v>
       </c>
@@ -10952,13 +10953,13 @@
       <c r="F124" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="G124" s="59"/>
+      <c r="G124" s="64"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="68" t="s">
+      <c r="B125" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="C125" s="63" t="s">
+      <c r="C125" s="68" t="s">
         <v>191</v>
       </c>
       <c r="D125" s="18" t="s">
@@ -10970,11 +10971,11 @@
       <c r="F125" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="G125" s="63"/>
+      <c r="G125" s="68"/>
     </row>
     <row r="126" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="69"/>
-      <c r="C126" s="58"/>
+      <c r="B126" s="67"/>
+      <c r="C126" s="63"/>
       <c r="D126" s="11" t="s">
         <v>193</v>
       </c>
@@ -10984,12 +10985,12 @@
       <c r="F126" s="11" t="s">
         <v>768</v>
       </c>
-      <c r="G126" s="71"/>
+      <c r="G126" s="77"/>
       <c r="H126" s="9"/>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="28"/>
-      <c r="C127" s="58" t="s">
+      <c r="C127" s="63" t="s">
         <v>607</v>
       </c>
       <c r="D127" s="9" t="s">
@@ -11001,14 +11002,14 @@
       <c r="F127" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="G127" s="58" t="s">
+      <c r="G127" s="63" t="s">
         <v>606</v>
       </c>
       <c r="H127" s="9"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="67"/>
-      <c r="C128" s="58"/>
+      <c r="B128" s="71"/>
+      <c r="C128" s="63"/>
       <c r="D128" s="11" t="s">
         <v>610</v>
       </c>
@@ -11018,12 +11019,12 @@
       <c r="F128" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="G128" s="58"/>
+      <c r="G128" s="63"/>
       <c r="H128" s="9"/>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="67"/>
-      <c r="C129" s="58" t="s">
+      <c r="B129" s="71"/>
+      <c r="C129" s="63" t="s">
         <v>784</v>
       </c>
       <c r="D129" s="39" t="s">
@@ -11035,7 +11036,7 @@
       <c r="F129" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="G129" s="58" t="s">
+      <c r="G129" s="63" t="s">
         <v>606</v>
       </c>
       <c r="H129" s="32" t="s">
@@ -11046,8 +11047,8 @@
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="67"/>
-      <c r="C130" s="58"/>
+      <c r="B130" s="71"/>
+      <c r="C130" s="63"/>
       <c r="D130" s="39" t="s">
         <v>672</v>
       </c>
@@ -11057,14 +11058,14 @@
       <c r="F130" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="G130" s="58"/>
+      <c r="G130" s="63"/>
       <c r="H130" s="32" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="67"/>
-      <c r="C131" s="58" t="s">
+      <c r="B131" s="71"/>
+      <c r="C131" s="63" t="s">
         <v>633</v>
       </c>
       <c r="D131" s="11" t="s">
@@ -11076,14 +11077,14 @@
       <c r="F131" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="G131" s="58" t="s">
+      <c r="G131" s="63" t="s">
         <v>606</v>
       </c>
       <c r="H131" s="9"/>
     </row>
     <row r="132" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="25"/>
-      <c r="C132" s="59"/>
+      <c r="C132" s="64"/>
       <c r="D132" s="12" t="s">
         <v>634</v>
       </c>
@@ -11093,14 +11094,14 @@
       <c r="F132" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="G132" s="59"/>
+      <c r="G132" s="64"/>
       <c r="I132" s="3"/>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="68" t="s">
+      <c r="B133" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="C133" s="58" t="s">
+      <c r="C133" s="63" t="s">
         <v>236</v>
       </c>
       <c r="D133" s="9" t="s">
@@ -11112,11 +11113,11 @@
       <c r="F133" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="G133" s="58"/>
+      <c r="G133" s="63"/>
     </row>
     <row r="134" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="69"/>
-      <c r="C134" s="58"/>
+      <c r="B134" s="67"/>
+      <c r="C134" s="63"/>
       <c r="D134" s="9" t="s">
         <v>238</v>
       </c>
@@ -11126,11 +11127,11 @@
       <c r="F134" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="G134" s="58"/>
+      <c r="G134" s="63"/>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="29"/>
-      <c r="C135" s="58" t="s">
+      <c r="C135" s="63" t="s">
         <v>236</v>
       </c>
       <c r="D135" s="9" t="s">
@@ -11142,13 +11143,13 @@
       <c r="F135" s="35" t="s">
         <v>722</v>
       </c>
-      <c r="G135" s="58" t="s">
+      <c r="G135" s="63" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="29"/>
-      <c r="C136" s="58"/>
+      <c r="C136" s="63"/>
       <c r="D136" s="9" t="s">
         <v>717</v>
       </c>
@@ -11158,11 +11159,11 @@
       <c r="F136" s="35" t="s">
         <v>723</v>
       </c>
-      <c r="G136" s="58"/>
+      <c r="G136" s="63"/>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="11"/>
-      <c r="C137" s="58" t="s">
+      <c r="C137" s="63" t="s">
         <v>194</v>
       </c>
       <c r="D137" s="9" t="s">
@@ -11174,11 +11175,11 @@
       <c r="F137" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="G137" s="58"/>
+      <c r="G137" s="63"/>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="11"/>
-      <c r="C138" s="58"/>
+      <c r="C138" s="63"/>
       <c r="D138" s="9" t="s">
         <v>196</v>
       </c>
@@ -11188,11 +11189,11 @@
       <c r="F138" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="G138" s="58"/>
+      <c r="G138" s="63"/>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="11"/>
-      <c r="C139" s="58" t="s">
+      <c r="C139" s="63" t="s">
         <v>273</v>
       </c>
       <c r="D139" s="9" t="s">
@@ -11204,11 +11205,11 @@
       <c r="F139" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G139" s="58"/>
+      <c r="G139" s="63"/>
     </row>
     <row r="140" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="12"/>
-      <c r="C140" s="59"/>
+      <c r="C140" s="64"/>
       <c r="D140" s="17" t="s">
         <v>275</v>
       </c>
@@ -11218,13 +11219,13 @@
       <c r="F140" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="G140" s="59"/>
+      <c r="G140" s="64"/>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="68" t="s">
+      <c r="B141" s="66" t="s">
         <v>628</v>
       </c>
-      <c r="C141" s="58" t="s">
+      <c r="C141" s="63" t="s">
         <v>806</v>
       </c>
       <c r="D141" t="s">
@@ -11236,13 +11237,13 @@
       <c r="F141" t="s">
         <v>804</v>
       </c>
-      <c r="G141" s="63" t="s">
+      <c r="G141" s="68" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="142" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="69"/>
-      <c r="C142" s="58"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="63"/>
       <c r="D142" t="s">
         <v>803</v>
       </c>
@@ -11252,11 +11253,11 @@
       <c r="F142" t="s">
         <v>805</v>
       </c>
-      <c r="G142" s="58"/>
+      <c r="G142" s="63"/>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="13"/>
-      <c r="C143" s="58" t="s">
+      <c r="C143" s="63" t="s">
         <v>739</v>
       </c>
       <c r="D143" s="9" t="s">
@@ -11268,13 +11269,13 @@
       <c r="F143" s="30" t="s">
         <v>743</v>
       </c>
-      <c r="G143" s="58" t="s">
+      <c r="G143" s="63" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="11"/>
-      <c r="C144" s="58"/>
+      <c r="C144" s="63"/>
       <c r="D144" s="11" t="s">
         <v>741</v>
       </c>
@@ -11284,11 +11285,11 @@
       <c r="F144" s="11" t="s">
         <v>740</v>
       </c>
-      <c r="G144" s="58"/>
+      <c r="G144" s="63"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="42"/>
-      <c r="C145" s="58" t="s">
+      <c r="C145" s="63" t="s">
         <v>629</v>
       </c>
       <c r="D145" s="9" t="s">
@@ -11300,13 +11301,13 @@
       <c r="F145" s="30" t="s">
         <v>773</v>
       </c>
-      <c r="G145" s="58" t="s">
+      <c r="G145" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="42"/>
-      <c r="C146" s="58"/>
+      <c r="C146" s="63"/>
       <c r="D146" s="11" t="s">
         <v>631</v>
       </c>
@@ -11316,29 +11317,29 @@
       <c r="F146" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="G146" s="58"/>
+      <c r="G146" s="63"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="42"/>
-      <c r="C147" s="58"/>
+      <c r="C147" s="63"/>
       <c r="D147" s="9"/>
       <c r="E147" s="23"/>
       <c r="F147" s="3"/>
-      <c r="G147" s="58"/>
+      <c r="G147" s="63"/>
     </row>
     <row r="148" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="41"/>
-      <c r="C148" s="59"/>
+      <c r="C148" s="64"/>
       <c r="D148" s="17"/>
       <c r="E148" s="22"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="59"/>
+      <c r="G148" s="64"/>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="68" t="s">
+      <c r="B149" s="66" t="s">
         <v>329</v>
       </c>
-      <c r="C149" s="58" t="s">
+      <c r="C149" s="63" t="s">
         <v>310</v>
       </c>
       <c r="D149" s="9" t="s">
@@ -11350,13 +11351,13 @@
       <c r="F149" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="G149" s="58" t="s">
+      <c r="G149" s="63" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="150" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="69"/>
-      <c r="C150" s="58"/>
+      <c r="B150" s="67"/>
+      <c r="C150" s="63"/>
       <c r="D150" s="9" t="s">
         <v>568</v>
       </c>
@@ -11366,11 +11367,11 @@
       <c r="F150" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="G150" s="58"/>
+      <c r="G150" s="63"/>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="29"/>
-      <c r="C151" s="58" t="s">
+      <c r="C151" s="63" t="s">
         <v>681</v>
       </c>
       <c r="D151" s="9" t="s">
@@ -11382,13 +11383,13 @@
       <c r="F151" s="30" t="s">
         <v>686</v>
       </c>
-      <c r="G151" s="58" t="s">
+      <c r="G151" s="63" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="29"/>
-      <c r="C152" s="58"/>
+      <c r="C152" s="63"/>
       <c r="D152" s="9" t="s">
         <v>684</v>
       </c>
@@ -11398,11 +11399,11 @@
       <c r="F152" s="30" t="s">
         <v>685</v>
       </c>
-      <c r="G152" s="58"/>
+      <c r="G152" s="63"/>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" s="11"/>
-      <c r="C153" s="58" t="s">
+      <c r="C153" s="63" t="s">
         <v>110</v>
       </c>
       <c r="D153" s="9" t="s">
@@ -11414,13 +11415,13 @@
       <c r="F153" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="G153" s="58" t="s">
+      <c r="G153" s="63" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="11"/>
-      <c r="C154" s="58"/>
+      <c r="C154" s="63"/>
       <c r="D154" s="9" t="s">
         <v>600</v>
       </c>
@@ -11430,11 +11431,11 @@
       <c r="F154" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="G154" s="58"/>
+      <c r="G154" s="63"/>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="11"/>
-      <c r="C155" s="58" t="s">
+      <c r="C155" s="63" t="s">
         <v>786</v>
       </c>
       <c r="D155" s="9" t="s">
@@ -11446,7 +11447,7 @@
       <c r="F155" s="38" t="s">
         <v>552</v>
       </c>
-      <c r="G155" s="58" t="s">
+      <c r="G155" s="63" t="s">
         <v>565</v>
       </c>
       <c r="H155" t="s">
@@ -11455,7 +11456,7 @@
     </row>
     <row r="156" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B156" s="11"/>
-      <c r="C156" s="58"/>
+      <c r="C156" s="63"/>
       <c r="D156" s="9" t="s">
         <v>572</v>
       </c>
@@ -11465,16 +11466,16 @@
       <c r="F156" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="G156" s="58"/>
+      <c r="G156" s="63"/>
       <c r="H156" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B157" s="68" t="s">
+      <c r="B157" s="66" t="s">
         <v>330</v>
       </c>
-      <c r="C157" s="63" t="s">
+      <c r="C157" s="68" t="s">
         <v>185</v>
       </c>
       <c r="D157" s="18" t="s">
@@ -11486,11 +11487,11 @@
       <c r="F157" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="G157" s="63"/>
+      <c r="G157" s="68"/>
     </row>
     <row r="158" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="69"/>
-      <c r="C158" s="59"/>
+      <c r="B158" s="67"/>
+      <c r="C158" s="64"/>
       <c r="D158" s="17" t="s">
         <v>187</v>
       </c>
@@ -11500,13 +11501,13 @@
       <c r="F158" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="G158" s="59"/>
+      <c r="G158" s="64"/>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B159" s="68" t="s">
+      <c r="B159" s="66" t="s">
         <v>331</v>
       </c>
-      <c r="C159" s="58" t="s">
+      <c r="C159" s="63" t="s">
         <v>253</v>
       </c>
       <c r="D159" s="9" t="s">
@@ -11518,11 +11519,11 @@
       <c r="F159" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="G159" s="58"/>
+      <c r="G159" s="63"/>
     </row>
     <row r="160" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="69"/>
-      <c r="C160" s="58"/>
+      <c r="B160" s="67"/>
+      <c r="C160" s="63"/>
       <c r="D160" s="9" t="s">
         <v>255</v>
       </c>
@@ -11532,11 +11533,11 @@
       <c r="F160" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="G160" s="58"/>
+      <c r="G160" s="63"/>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="11"/>
-      <c r="C161" s="58"/>
+      <c r="C161" s="63"/>
       <c r="D161" s="9" t="s">
         <v>179</v>
       </c>
@@ -11544,11 +11545,11 @@
         <v>1</v>
       </c>
       <c r="F161" s="3"/>
-      <c r="G161" s="58"/>
+      <c r="G161" s="63"/>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="11"/>
-      <c r="C162" s="58"/>
+      <c r="C162" s="63"/>
       <c r="D162" s="9" t="s">
         <v>178</v>
       </c>
@@ -11556,11 +11557,11 @@
         <v>2</v>
       </c>
       <c r="F162" s="3"/>
-      <c r="G162" s="58"/>
+      <c r="G162" s="63"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="11"/>
-      <c r="C163" s="58"/>
+      <c r="C163" s="63"/>
       <c r="D163" s="9" t="s">
         <v>179</v>
       </c>
@@ -11568,11 +11569,11 @@
         <v>1</v>
       </c>
       <c r="F163" s="3"/>
-      <c r="G163" s="58"/>
+      <c r="G163" s="63"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="11"/>
-      <c r="C164" s="58"/>
+      <c r="C164" s="63"/>
       <c r="D164" s="9" t="s">
         <v>178</v>
       </c>
@@ -11580,11 +11581,11 @@
         <v>2</v>
       </c>
       <c r="F164" s="3"/>
-      <c r="G164" s="58"/>
+      <c r="G164" s="63"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="11"/>
-      <c r="C165" s="58"/>
+      <c r="C165" s="63"/>
       <c r="D165" s="9" t="s">
         <v>179</v>
       </c>
@@ -11592,11 +11593,11 @@
         <v>1</v>
       </c>
       <c r="F165" s="3"/>
-      <c r="G165" s="58"/>
+      <c r="G165" s="63"/>
     </row>
     <row r="166" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="12"/>
-      <c r="C166" s="59"/>
+      <c r="C166" s="64"/>
       <c r="D166" s="17" t="s">
         <v>178</v>
       </c>
@@ -11604,7 +11605,7 @@
         <v>2</v>
       </c>
       <c r="F166" s="4"/>
-      <c r="G166" s="59"/>
+      <c r="G166" s="64"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H171" s="55"/>
@@ -11613,66 +11614,109 @@
       <c r="H172" s="55"/>
     </row>
   </sheetData>
-  <sortState ref="C2:C106">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C106">
     <sortCondition ref="C2"/>
   </sortState>
   <mergeCells count="183">
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="B128:B131"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="G103:G104"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="B105:B106"/>
@@ -11697,109 +11741,66 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="G91:G92"/>
     <mergeCell ref="C95:C96"/>
     <mergeCell ref="G95:G96"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="G39:G40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11807,10 +11808,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -11828,17 +11829,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="83" t="s">
         <v>807</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="52"/>
@@ -11852,16 +11853,16 @@
       <c r="E4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="58" t="s">
         <v>418</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="61" t="s">
         <v>976</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="61" t="s">
         <v>977</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="61" t="s">
         <v>981</v>
       </c>
       <c r="J4" s="16" t="s">
@@ -11869,46 +11870,46 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="68" t="s">
         <v>796</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="85" t="s">
         <v>794</v>
       </c>
-      <c r="E5" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="80" t="s">
+      <c r="E5" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="87" t="s">
         <v>795</v>
       </c>
-      <c r="G5" s="84">
+      <c r="G5" s="81">
         <v>69</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="74" t="s">
+      <c r="H5" s="81"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="84" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="69"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="70"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="63" t="s">
         <v>822</v>
       </c>
       <c r="D7" s="40" t="s">
@@ -11923,17 +11924,17 @@
       <c r="G7" s="45">
         <v>61</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="80">
         <v>64</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="65" t="s">
+      <c r="I7" s="80"/>
+      <c r="J7" s="69" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="69"/>
-      <c r="C8" s="58"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="40" t="s">
         <v>815</v>
       </c>
@@ -11946,13 +11947,13 @@
       <c r="G8" s="45">
         <v>61</v>
       </c>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="65"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="69"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="63" t="s">
         <v>825</v>
       </c>
       <c r="D9" s="40" t="s">
@@ -11967,17 +11968,17 @@
       <c r="G9" s="45">
         <v>58</v>
       </c>
-      <c r="H9" s="88">
+      <c r="H9" s="78">
         <v>61</v>
       </c>
-      <c r="I9" s="88"/>
-      <c r="J9" s="65" t="s">
+      <c r="I9" s="78"/>
+      <c r="J9" s="69" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
-      <c r="C10" s="58"/>
+      <c r="C10" s="63"/>
       <c r="D10" t="s">
         <v>824</v>
       </c>
@@ -11990,13 +11991,13 @@
       <c r="G10" s="45">
         <v>60</v>
       </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="65"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="63" t="s">
         <v>828</v>
       </c>
       <c r="D11" t="s">
@@ -12015,13 +12016,13 @@
         <v>978</v>
       </c>
       <c r="I11" s="45"/>
-      <c r="J11" s="65" t="s">
+      <c r="J11" s="69" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
-      <c r="C12" s="59"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="51" t="s">
         <v>851</v>
       </c>
@@ -12036,13 +12037,13 @@
         <v>979</v>
       </c>
       <c r="I12" s="57"/>
-      <c r="J12" s="66"/>
+      <c r="J12" s="70"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="66" t="s">
         <v>323</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="63" t="s">
         <v>810</v>
       </c>
       <c r="D13" s="40" t="s">
@@ -12054,22 +12055,22 @@
       <c r="F13" s="40" t="s">
         <v>818</v>
       </c>
-      <c r="G13" s="87">
+      <c r="G13" s="62">
         <v>64</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="81">
         <v>67</v>
       </c>
-      <c r="I13" s="84"/>
-      <c r="J13" s="65" t="s">
+      <c r="I13" s="81"/>
+      <c r="J13" s="69" t="s">
         <v>565</v>
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="69"/>
-      <c r="C14" s="58"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="63"/>
       <c r="D14" t="s">
         <v>809</v>
       </c>
@@ -12082,13 +12083,13 @@
       <c r="G14" s="45">
         <v>64</v>
       </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="65"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="69"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="63" t="s">
         <v>813</v>
       </c>
       <c r="D15" t="s">
@@ -12103,17 +12104,17 @@
       <c r="G15" s="45">
         <v>61</v>
       </c>
-      <c r="H15" s="88">
+      <c r="H15" s="78">
         <v>64</v>
       </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="65" t="s">
+      <c r="I15" s="78"/>
+      <c r="J15" s="69" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
-      <c r="C16" s="59"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="17" t="s">
         <v>812</v>
       </c>
@@ -12126,16 +12127,16 @@
       <c r="G16" s="57">
         <v>62</v>
       </c>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="66"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="70"/>
       <c r="L16" s="40"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="73" t="s">
         <v>325</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="63" t="s">
         <v>849</v>
       </c>
       <c r="D17" t="s">
@@ -12150,18 +12151,18 @@
       <c r="G17" s="45">
         <v>60</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="80">
         <v>63</v>
       </c>
-      <c r="I17" s="77"/>
-      <c r="J17" s="65" t="s">
+      <c r="I17" s="80"/>
+      <c r="J17" s="69" t="s">
         <v>565</v>
       </c>
       <c r="L17" s="40"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="62"/>
-      <c r="C18" s="58"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="63"/>
       <c r="D18" t="s">
         <v>847</v>
       </c>
@@ -12174,14 +12175,14 @@
       <c r="G18" s="45">
         <v>63</v>
       </c>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="65"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="69"/>
       <c r="L18" s="40"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="63" t="s">
         <v>850</v>
       </c>
       <c r="D19" s="47" t="s">
@@ -12194,18 +12195,18 @@
         <v>851</v>
       </c>
       <c r="G19" s="45"/>
-      <c r="H19" s="88" t="s">
+      <c r="H19" s="78" t="s">
         <v>980</v>
       </c>
-      <c r="I19" s="88"/>
-      <c r="J19" s="65" t="s">
+      <c r="I19" s="78"/>
+      <c r="J19" s="69" t="s">
         <v>565</v>
       </c>
       <c r="L19" s="40"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
-      <c r="C20" s="59"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="17" t="s">
         <v>848</v>
       </c>
@@ -12218,17 +12219,17 @@
       <c r="G20" s="57">
         <v>61</v>
       </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="66"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="70"/>
       <c r="L20" s="40"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="73" t="s">
         <v>329</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="63" t="s">
         <v>837</v>
       </c>
       <c r="D21" s="40" t="s">
@@ -12243,18 +12244,18 @@
       <c r="G21" s="45">
         <v>61</v>
       </c>
-      <c r="H21" s="77">
+      <c r="H21" s="80">
         <v>63</v>
       </c>
-      <c r="I21" s="77"/>
-      <c r="J21" s="65" t="s">
+      <c r="I21" s="80"/>
+      <c r="J21" s="69" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="52"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="58"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="40" t="s">
         <v>832</v>
       </c>
@@ -12267,13 +12268,13 @@
       <c r="G22" s="45">
         <v>60</v>
       </c>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="65"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="63" t="s">
         <v>840</v>
       </c>
       <c r="D23" s="40" t="s">
@@ -12288,17 +12289,17 @@
       <c r="G23" s="45">
         <v>61</v>
       </c>
-      <c r="H23" s="88">
+      <c r="H23" s="78">
         <v>64</v>
       </c>
-      <c r="I23" s="88"/>
-      <c r="J23" s="65" t="s">
+      <c r="I23" s="78"/>
+      <c r="J23" s="69" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="C24" s="58"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="40" t="s">
         <v>834</v>
       </c>
@@ -12311,13 +12312,13 @@
       <c r="G24" s="45">
         <v>62</v>
       </c>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="65"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="69"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="63" t="s">
         <v>841</v>
       </c>
       <c r="D25" s="40" t="s">
@@ -12332,18 +12333,18 @@
       <c r="G25" s="45">
         <v>62</v>
       </c>
-      <c r="H25" s="88">
+      <c r="H25" s="78">
         <v>65</v>
       </c>
-      <c r="I25" s="88"/>
-      <c r="J25" s="65" t="s">
+      <c r="I25" s="78"/>
+      <c r="J25" s="69" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="52"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="59"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="53" t="s">
         <v>836</v>
       </c>
@@ -12356,31 +12357,28 @@
       <c r="G26" s="57">
         <v>62</v>
       </c>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="66"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="J23:J24"/>
     <mergeCell ref="J25:J26"/>
@@ -12397,22 +12395,25 @@
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="H17:H18"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12420,7 +12421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Bases de datos/Primers RT-qPCR (prev).xlsx
+++ b/Bases de datos/Primers RT-qPCR (prev).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACE6329-4C56-4F05-BEB9-8DEC5A163A84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BCE94D-C1EB-468F-95E9-2FE30A2947FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11850" yWindow="2190" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Human" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1010">
   <si>
     <t>Gen</t>
   </si>
@@ -3732,12 +3732,234 @@
   <si>
     <t>Amplicon</t>
   </si>
+  <si>
+    <t>mDHCR24_fw4</t>
+  </si>
+  <si>
+    <t>mDHCR24_rv4</t>
+  </si>
+  <si>
+    <t>mDHCR24_fw5</t>
+  </si>
+  <si>
+    <t>mDHCR24_rv5</t>
+  </si>
+  <si>
+    <t>mDHCR24_fw6</t>
+  </si>
+  <si>
+    <t>mDHCR24_rv6</t>
+  </si>
+  <si>
+    <t>mDHCR24-4</t>
+  </si>
+  <si>
+    <t>mDHCR24-5</t>
+  </si>
+  <si>
+    <t>mDHCR24-6</t>
+  </si>
+  <si>
+    <r>
+      <t>5'- CCC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CTCGAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AACAGCTGAGTCCAGACAGG -3'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5'- CCC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GCGGCCGC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CCAGAACCACAGGGACATGA -3'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5'- CCC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CTCGAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GGAATCAGGTTCTGGAAGGC -3'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5'- CCC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GCGGCCGC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GAGTAGGCACAGTGCCTGAG -3'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5'- CCC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CTCGAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GTCCTCTCTGCCATCTTCGG -3'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5'- CCC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GCGGCCGC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AATCACACAGCACACATCGC -3'</t>
+    </r>
+  </si>
+  <si>
+    <t>822pb</t>
+  </si>
+  <si>
+    <t>~1100pb</t>
+  </si>
+  <si>
+    <t>1482pb</t>
+  </si>
+  <si>
+    <t>2268pb</t>
+  </si>
+  <si>
+    <t>1947pb (rojo)</t>
+  </si>
+  <si>
+    <t>1162pb (verde)</t>
+  </si>
+  <si>
+    <t>1608pb (azul claro)</t>
+  </si>
+  <si>
+    <t>1200pb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2229pb (casi entero) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2192pb (Casi entero) </t>
+  </si>
+  <si>
+    <t>852pb</t>
+  </si>
+  <si>
+    <t>749pb</t>
+  </si>
+  <si>
+    <t>1843pb</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3852,6 +4074,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -3903,7 +4131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -4045,12 +4273,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4160,9 +4399,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -4176,16 +4412,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4194,16 +4430,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4215,38 +4454,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4260,14 +4481,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4571,15 +4828,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="74" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
@@ -4612,10 +4869,10 @@
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="72" t="s">
         <v>316</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="62" t="s">
         <v>339</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -4628,7 +4885,7 @@
         <v>337</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="62" t="s">
         <v>789</v>
       </c>
       <c r="I5" s="34"/>
@@ -4637,8 +4894,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="64"/>
-      <c r="C6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="11" t="s">
         <v>342</v>
       </c>
@@ -4649,7 +4906,7 @@
         <v>338</v>
       </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="63"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="9"/>
       <c r="K6" s="31" t="s">
         <v>787</v>
@@ -4657,7 +4914,7 @@
     </row>
     <row r="7" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>340</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -4670,7 +4927,7 @@
         <v>345</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="63"/>
+      <c r="H7" s="62"/>
       <c r="I7" s="9"/>
       <c r="K7" t="s">
         <v>790</v>
@@ -4678,7 +4935,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="63"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="11" t="s">
         <v>344</v>
       </c>
@@ -4689,7 +4946,7 @@
         <v>346</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="63"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="9"/>
       <c r="K8" t="s">
         <v>791</v>
@@ -4697,7 +4954,7 @@
     </row>
     <row r="9" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="62" t="s">
         <v>256</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -4710,7 +4967,7 @@
         <v>347</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="63"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="9"/>
       <c r="K9" t="s">
         <v>971</v>
@@ -4718,7 +4975,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
-      <c r="C10" s="63"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="11" t="s">
         <v>259</v>
       </c>
@@ -4729,12 +4986,12 @@
         <v>348</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="63"/>
+      <c r="H10" s="62"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="62" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -4747,12 +5004,12 @@
         <v>349</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="63"/>
+      <c r="H11" s="62"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="63"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="11" t="s">
         <v>128</v>
       </c>
@@ -4763,12 +5020,12 @@
         <v>350</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="63"/>
+      <c r="H12" s="62"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="62" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -4781,12 +5038,12 @@
         <v>351</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="63"/>
+      <c r="H13" s="62"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
-      <c r="C14" s="63"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="11" t="s">
         <v>44</v>
       </c>
@@ -4797,12 +5054,12 @@
         <v>352</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="63"/>
+      <c r="H14" s="62"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="62" t="s">
         <v>132</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -4815,12 +5072,12 @@
         <v>353</v>
       </c>
       <c r="G15" s="11"/>
-      <c r="H15" s="63"/>
+      <c r="H15" s="62"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
-      <c r="C16" s="63"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="11" t="s">
         <v>134</v>
       </c>
@@ -4831,12 +5088,12 @@
         <v>354</v>
       </c>
       <c r="G16" s="11"/>
-      <c r="H16" s="63"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="62" t="s">
         <v>135</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -4849,12 +5106,12 @@
         <v>355</v>
       </c>
       <c r="G17" s="11"/>
-      <c r="H17" s="63"/>
+      <c r="H17" s="62"/>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="63"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="11" t="s">
         <v>137</v>
       </c>
@@ -4865,12 +5122,12 @@
         <v>356</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="63"/>
+      <c r="H18" s="62"/>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="62" t="s">
         <v>167</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -4882,17 +5139,17 @@
       <c r="F19" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="62" t="s">
         <v>486</v>
       </c>
-      <c r="H19" s="63" t="s">
+      <c r="H19" s="62" t="s">
         <v>565</v>
       </c>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
-      <c r="C20" s="64"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="12" t="s">
         <v>578</v>
       </c>
@@ -4902,15 +5159,15 @@
       <c r="F20" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="62" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -4923,12 +5180,12 @@
         <v>359</v>
       </c>
       <c r="G21" s="11"/>
-      <c r="H21" s="63"/>
+      <c r="H21" s="62"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="67"/>
-      <c r="C22" s="63"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="11" t="s">
         <v>53</v>
       </c>
@@ -4939,12 +5196,12 @@
         <v>360</v>
       </c>
       <c r="G22" s="11"/>
-      <c r="H22" s="63"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="62" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -4957,12 +5214,12 @@
         <v>361</v>
       </c>
       <c r="G23" s="11"/>
-      <c r="H23" s="63"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
-      <c r="C24" s="63"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="11" t="s">
         <v>47</v>
       </c>
@@ -4973,12 +5230,12 @@
         <v>364</v>
       </c>
       <c r="G24" s="11"/>
-      <c r="H24" s="63"/>
+      <c r="H24" s="62"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="62" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -4991,12 +5248,12 @@
         <v>365</v>
       </c>
       <c r="G25" s="11"/>
-      <c r="H25" s="63"/>
+      <c r="H25" s="62"/>
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
-      <c r="C26" s="63"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="11" t="s">
         <v>50</v>
       </c>
@@ -5007,12 +5264,12 @@
         <v>362</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="H26" s="63"/>
+      <c r="H26" s="62"/>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="62" t="s">
         <v>170</v>
       </c>
       <c r="D27" t="s">
@@ -5025,7 +5282,7 @@
         <v>363</v>
       </c>
       <c r="G27" s="11"/>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="62" t="s">
         <v>565</v>
       </c>
       <c r="I27" s="3"/>
@@ -5035,7 +5292,7 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
-      <c r="C28" s="63"/>
+      <c r="C28" s="62"/>
       <c r="D28" t="s">
         <v>858</v>
       </c>
@@ -5046,11 +5303,11 @@
         <v>366</v>
       </c>
       <c r="G28" s="11"/>
-      <c r="H28" s="63"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="62" t="s">
         <v>171</v>
       </c>
       <c r="D29" t="s">
@@ -5063,13 +5320,13 @@
         <v>367</v>
       </c>
       <c r="G29" s="11"/>
-      <c r="H29" s="63" t="s">
+      <c r="H29" s="62" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
-      <c r="C30" s="63"/>
+      <c r="C30" s="62"/>
       <c r="D30" t="s">
         <v>860</v>
       </c>
@@ -5080,11 +5337,11 @@
         <v>368</v>
       </c>
       <c r="G30" s="11"/>
-      <c r="H30" s="63"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="62" t="s">
         <v>101</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -5097,11 +5354,11 @@
         <v>369</v>
       </c>
       <c r="G31" s="11"/>
-      <c r="H31" s="63"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
-      <c r="C32" s="63"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="11" t="s">
         <v>71</v>
       </c>
@@ -5112,11 +5369,11 @@
         <v>370</v>
       </c>
       <c r="G32" s="11"/>
-      <c r="H32" s="63"/>
+      <c r="H32" s="62"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="62" t="s">
         <v>949</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -5129,13 +5386,13 @@
         <v>948</v>
       </c>
       <c r="G33" s="11"/>
-      <c r="H33" s="63" t="s">
+      <c r="H33" s="62" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
-      <c r="C34" s="63"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="11" t="s">
         <v>951</v>
       </c>
@@ -5146,11 +5403,11 @@
         <v>953</v>
       </c>
       <c r="G34" s="11"/>
-      <c r="H34" s="63"/>
+      <c r="H34" s="62"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="62" t="s">
         <v>944</v>
       </c>
       <c r="D35" s="11" t="s">
@@ -5163,13 +5420,13 @@
         <v>952</v>
       </c>
       <c r="G35" s="11"/>
-      <c r="H35" s="63" t="s">
+      <c r="H35" s="62" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
-      <c r="C36" s="63"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="11" t="s">
         <v>946</v>
       </c>
@@ -5180,11 +5437,11 @@
         <v>947</v>
       </c>
       <c r="G36" s="11"/>
-      <c r="H36" s="63"/>
+      <c r="H36" s="62"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="62" t="s">
         <v>874</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -5197,13 +5454,13 @@
         <v>878</v>
       </c>
       <c r="G37" s="11"/>
-      <c r="H37" s="63" t="s">
+      <c r="H37" s="62" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
-      <c r="C38" s="63"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="11" t="s">
         <v>875</v>
       </c>
@@ -5214,11 +5471,11 @@
         <v>876</v>
       </c>
       <c r="G38" s="11"/>
-      <c r="H38" s="63"/>
+      <c r="H38" s="62"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="62" t="s">
         <v>890</v>
       </c>
       <c r="D39" s="11" t="s">
@@ -5231,13 +5488,13 @@
         <v>893</v>
       </c>
       <c r="G39" s="11"/>
-      <c r="H39" s="63" t="s">
+      <c r="H39" s="62" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
-      <c r="C40" s="63"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="11" t="s">
         <v>891</v>
       </c>
@@ -5248,11 +5505,11 @@
         <v>894</v>
       </c>
       <c r="G40" s="11"/>
-      <c r="H40" s="63"/>
+      <c r="H40" s="62"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="62" t="s">
         <v>95</v>
       </c>
       <c r="D41" s="11" t="s">
@@ -5265,11 +5522,11 @@
         <v>371</v>
       </c>
       <c r="G41" s="11"/>
-      <c r="H41" s="63"/>
+      <c r="H41" s="62"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
-      <c r="C42" s="63"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="11" t="s">
         <v>83</v>
       </c>
@@ -5280,11 +5537,11 @@
         <v>372</v>
       </c>
       <c r="G42" s="11"/>
-      <c r="H42" s="63"/>
+      <c r="H42" s="62"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="62" t="s">
         <v>99</v>
       </c>
       <c r="D43" s="11" t="s">
@@ -5297,11 +5554,11 @@
         <v>373</v>
       </c>
       <c r="G43" s="11"/>
-      <c r="H43" s="63"/>
+      <c r="H43" s="62"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
-      <c r="C44" s="63"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="11" t="s">
         <v>75</v>
       </c>
@@ -5312,11 +5569,11 @@
         <v>374</v>
       </c>
       <c r="G44" s="11"/>
-      <c r="H44" s="63"/>
+      <c r="H44" s="62"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="62" t="s">
         <v>141</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -5329,11 +5586,11 @@
         <v>375</v>
       </c>
       <c r="G45" s="11"/>
-      <c r="H45" s="63"/>
+      <c r="H45" s="62"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
-      <c r="C46" s="63"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="11" t="s">
         <v>143</v>
       </c>
@@ -5344,11 +5601,11 @@
         <v>376</v>
       </c>
       <c r="G46" s="11"/>
-      <c r="H46" s="63"/>
+      <c r="H46" s="62"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="62" t="s">
         <v>138</v>
       </c>
       <c r="D47" s="11" t="s">
@@ -5361,11 +5618,11 @@
         <v>377</v>
       </c>
       <c r="G47" s="11"/>
-      <c r="H47" s="63"/>
+      <c r="H47" s="62"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
-      <c r="C48" s="63"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="11" t="s">
         <v>140</v>
       </c>
@@ -5376,11 +5633,11 @@
         <v>378</v>
       </c>
       <c r="G48" s="11"/>
-      <c r="H48" s="63"/>
+      <c r="H48" s="62"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="11"/>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="62" t="s">
         <v>36</v>
       </c>
       <c r="D49" s="11" t="s">
@@ -5393,11 +5650,11 @@
         <v>379</v>
       </c>
       <c r="G49" s="69"/>
-      <c r="H49" s="63"/>
+      <c r="H49" s="62"/>
     </row>
     <row r="50" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="12"/>
-      <c r="C50" s="64"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="12" t="s">
         <v>38</v>
       </c>
@@ -5408,13 +5665,13 @@
         <v>380</v>
       </c>
       <c r="G50" s="70"/>
-      <c r="H50" s="64"/>
+      <c r="H50" s="63"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="C51" s="63" t="s">
+      <c r="C51" s="62" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="11" t="s">
@@ -5426,12 +5683,12 @@
       <c r="F51" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
     </row>
     <row r="52" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="67"/>
-      <c r="C52" s="63"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="11" t="s">
         <v>15</v>
       </c>
@@ -5441,12 +5698,12 @@
       <c r="F52" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="G52" s="63"/>
-      <c r="H52" s="63"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="62" t="s">
         <v>166</v>
       </c>
       <c r="D53" s="11" t="s">
@@ -5458,16 +5715,16 @@
       <c r="F53" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="G53" s="63" t="s">
+      <c r="G53" s="62" t="s">
         <v>485</v>
       </c>
-      <c r="H53" s="63" t="s">
+      <c r="H53" s="62" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="11"/>
-      <c r="C54" s="63"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="11" t="s">
         <v>574</v>
       </c>
@@ -5477,12 +5734,12 @@
       <c r="F54" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="11"/>
-      <c r="C55" s="63" t="s">
+      <c r="C55" s="62" t="s">
         <v>159</v>
       </c>
       <c r="D55" s="11" t="s">
@@ -5495,13 +5752,13 @@
         <v>385</v>
       </c>
       <c r="G55" s="11"/>
-      <c r="H55" s="63" t="s">
+      <c r="H55" s="62" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="11"/>
-      <c r="C56" s="63"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="11" t="s">
         <v>161</v>
       </c>
@@ -5512,11 +5769,11 @@
         <v>386</v>
       </c>
       <c r="G56" s="11"/>
-      <c r="H56" s="63"/>
+      <c r="H56" s="62"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="11"/>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="62" t="s">
         <v>87</v>
       </c>
       <c r="D57" s="11" t="s">
@@ -5529,11 +5786,11 @@
         <v>387</v>
       </c>
       <c r="G57" s="11"/>
-      <c r="H57" s="63"/>
+      <c r="H57" s="62"/>
     </row>
     <row r="58" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="12"/>
-      <c r="C58" s="64"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="12" t="s">
         <v>89</v>
       </c>
@@ -5544,13 +5801,13 @@
         <v>388</v>
       </c>
       <c r="G58" s="12"/>
-      <c r="H58" s="64"/>
+      <c r="H58" s="63"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="72" t="s">
         <v>320</v>
       </c>
-      <c r="C59" s="68" t="s">
+      <c r="C59" s="67" t="s">
         <v>62</v>
       </c>
       <c r="D59" s="13" t="s">
@@ -5563,11 +5820,11 @@
         <v>63</v>
       </c>
       <c r="G59" s="13"/>
-      <c r="H59" s="68"/>
+      <c r="H59" s="67"/>
     </row>
     <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="67"/>
-      <c r="C60" s="63"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="11" t="s">
         <v>66</v>
       </c>
@@ -5578,11 +5835,11 @@
         <v>64</v>
       </c>
       <c r="G60" s="11"/>
-      <c r="H60" s="63"/>
+      <c r="H60" s="62"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="29"/>
-      <c r="C61" s="63" t="s">
+      <c r="C61" s="62" t="s">
         <v>793</v>
       </c>
       <c r="D61" s="11" t="s">
@@ -5593,7 +5850,7 @@
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="63" t="s">
+      <c r="H61" s="62" t="s">
         <v>706</v>
       </c>
       <c r="I61" t="s">
@@ -5602,7 +5859,7 @@
     </row>
     <row r="62" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
-      <c r="C62" s="64"/>
+      <c r="C62" s="63"/>
       <c r="D62" s="12" t="s">
         <v>707</v>
       </c>
@@ -5611,16 +5868,16 @@
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
-      <c r="H62" s="64"/>
+      <c r="H62" s="63"/>
       <c r="I62" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="72" t="s">
         <v>321</v>
       </c>
-      <c r="C63" s="63" t="s">
+      <c r="C63" s="62" t="s">
         <v>591</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -5633,16 +5890,16 @@
         <v>389</v>
       </c>
       <c r="G63" s="11"/>
-      <c r="H63" s="63" t="s">
+      <c r="H63" s="62" t="s">
         <v>700</v>
       </c>
-      <c r="I63" s="72" t="s">
+      <c r="I63" s="68" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="67"/>
-      <c r="C64" s="63"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="62"/>
       <c r="D64" s="11" t="s">
         <v>586</v>
       </c>
@@ -5653,12 +5910,12 @@
         <v>390</v>
       </c>
       <c r="G64" s="11"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="72"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="68"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="28"/>
-      <c r="C65" s="63" t="s">
+      <c r="C65" s="62" t="s">
         <v>592</v>
       </c>
       <c r="D65" s="11" t="s">
@@ -5671,13 +5928,13 @@
         <v>582</v>
       </c>
       <c r="G65" s="11"/>
-      <c r="H65" s="63" t="s">
+      <c r="H65" s="62" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="28"/>
-      <c r="C66" s="63"/>
+      <c r="C66" s="62"/>
       <c r="D66" s="11" t="s">
         <v>583</v>
       </c>
@@ -5688,11 +5945,11 @@
         <v>584</v>
       </c>
       <c r="G66" s="11"/>
-      <c r="H66" s="63"/>
+      <c r="H66" s="62"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="11"/>
-      <c r="C67" s="63" t="s">
+      <c r="C67" s="62" t="s">
         <v>144</v>
       </c>
       <c r="D67" s="11" t="s">
@@ -5705,11 +5962,11 @@
         <v>391</v>
       </c>
       <c r="G67" s="11"/>
-      <c r="H67" s="63"/>
+      <c r="H67" s="62"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="11"/>
-      <c r="C68" s="63"/>
+      <c r="C68" s="62"/>
       <c r="D68" s="11" t="s">
         <v>146</v>
       </c>
@@ -5720,11 +5977,11 @@
         <v>392</v>
       </c>
       <c r="G68" s="11"/>
-      <c r="H68" s="63"/>
+      <c r="H68" s="62"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="11"/>
-      <c r="C69" s="63" t="s">
+      <c r="C69" s="62" t="s">
         <v>54</v>
       </c>
       <c r="D69" s="11" t="s">
@@ -5737,11 +5994,11 @@
         <v>393</v>
       </c>
       <c r="G69" s="11"/>
-      <c r="H69" s="63"/>
+      <c r="H69" s="62"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="11"/>
-      <c r="C70" s="63"/>
+      <c r="C70" s="62"/>
       <c r="D70" s="11" t="s">
         <v>55</v>
       </c>
@@ -5752,11 +6009,11 @@
         <v>394</v>
       </c>
       <c r="G70" s="11"/>
-      <c r="H70" s="63"/>
+      <c r="H70" s="62"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="11"/>
-      <c r="C71" s="63" t="s">
+      <c r="C71" s="62" t="s">
         <v>912</v>
       </c>
       <c r="D71" s="11" t="s">
@@ -5769,13 +6026,13 @@
         <v>917</v>
       </c>
       <c r="G71" s="11"/>
-      <c r="H71" s="63" t="s">
+      <c r="H71" s="62" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="11"/>
-      <c r="C72" s="63"/>
+      <c r="C72" s="62"/>
       <c r="D72" s="11" t="s">
         <v>914</v>
       </c>
@@ -5786,11 +6043,11 @@
         <v>915</v>
       </c>
       <c r="G72" s="11"/>
-      <c r="H72" s="63"/>
+      <c r="H72" s="62"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="11"/>
-      <c r="C73" s="63" t="s">
+      <c r="C73" s="62" t="s">
         <v>913</v>
       </c>
       <c r="D73" s="11" t="s">
@@ -5803,13 +6060,13 @@
         <v>906</v>
       </c>
       <c r="G73" s="11"/>
-      <c r="H73" s="63" t="s">
+      <c r="H73" s="62" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="12"/>
-      <c r="C74" s="64"/>
+      <c r="C74" s="63"/>
       <c r="D74" s="12" t="s">
         <v>909</v>
       </c>
@@ -5820,13 +6077,13 @@
         <v>908</v>
       </c>
       <c r="G74" s="12"/>
-      <c r="H74" s="64"/>
+      <c r="H74" s="63"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="66" t="s">
+      <c r="B75" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="C75" s="63" t="s">
+      <c r="C75" s="62" t="s">
         <v>972</v>
       </c>
       <c r="D75" s="11" t="s">
@@ -5839,16 +6096,16 @@
         <v>395</v>
       </c>
       <c r="G75" s="11"/>
-      <c r="H75" s="63" t="s">
+      <c r="H75" s="62" t="s">
         <v>861</v>
       </c>
-      <c r="I75" s="75" t="s">
+      <c r="I75" s="64" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="67"/>
-      <c r="C76" s="63"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="11" t="s">
         <v>902</v>
       </c>
@@ -5859,12 +6116,12 @@
         <v>396</v>
       </c>
       <c r="G76" s="11"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="75"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="64"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="11"/>
-      <c r="C77" s="63" t="s">
+      <c r="C77" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D77" s="11" t="s">
@@ -5877,13 +6134,13 @@
         <v>397</v>
       </c>
       <c r="G77" s="11"/>
-      <c r="H77" s="63" t="s">
+      <c r="H77" s="62" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="11"/>
-      <c r="C78" s="63"/>
+      <c r="C78" s="62"/>
       <c r="D78" s="11" t="s">
         <v>903</v>
       </c>
@@ -5894,7 +6151,7 @@
         <v>398</v>
       </c>
       <c r="G78" s="11"/>
-      <c r="H78" s="63"/>
+      <c r="H78" s="62"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="11"/>
@@ -5911,7 +6168,7 @@
         <v>399</v>
       </c>
       <c r="G79" s="11"/>
-      <c r="H79" s="63" t="s">
+      <c r="H79" s="62" t="s">
         <v>565</v>
       </c>
     </row>
@@ -5928,11 +6185,11 @@
         <v>400</v>
       </c>
       <c r="G80" s="11"/>
-      <c r="H80" s="63"/>
+      <c r="H80" s="62"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="11"/>
-      <c r="C81" s="63" t="s">
+      <c r="C81" s="62" t="s">
         <v>156</v>
       </c>
       <c r="D81" s="11" t="s">
@@ -5945,11 +6202,11 @@
         <v>401</v>
       </c>
       <c r="G81" s="11"/>
-      <c r="H81" s="63"/>
+      <c r="H81" s="62"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="11"/>
-      <c r="C82" s="63"/>
+      <c r="C82" s="62"/>
       <c r="D82" s="11" t="s">
         <v>158</v>
       </c>
@@ -5960,11 +6217,11 @@
         <v>402</v>
       </c>
       <c r="G82" s="11"/>
-      <c r="H82" s="63"/>
+      <c r="H82" s="62"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="11"/>
-      <c r="C83" s="63" t="s">
+      <c r="C83" s="62" t="s">
         <v>734</v>
       </c>
       <c r="D83" s="11" t="s">
@@ -5977,13 +6234,13 @@
         <v>737</v>
       </c>
       <c r="G83" s="11"/>
-      <c r="H83" s="63" t="s">
+      <c r="H83" s="62" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="11"/>
-      <c r="C84" s="63"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="11" t="s">
         <v>736</v>
       </c>
@@ -5994,11 +6251,11 @@
         <v>738</v>
       </c>
       <c r="G84" s="11"/>
-      <c r="H84" s="63"/>
+      <c r="H84" s="62"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="11"/>
-      <c r="C85" s="63" t="s">
+      <c r="C85" s="62" t="s">
         <v>869</v>
       </c>
       <c r="D85" s="11" t="s">
@@ -6011,13 +6268,13 @@
         <v>871</v>
       </c>
       <c r="G85" s="11"/>
-      <c r="H85" s="63" t="s">
+      <c r="H85" s="62" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="11"/>
-      <c r="C86" s="63"/>
+      <c r="C86" s="62"/>
       <c r="D86" s="11" t="s">
         <v>872</v>
       </c>
@@ -6028,11 +6285,11 @@
         <v>873</v>
       </c>
       <c r="G86" s="11"/>
-      <c r="H86" s="63"/>
+      <c r="H86" s="62"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="11"/>
-      <c r="C87" s="63" t="s">
+      <c r="C87" s="62" t="s">
         <v>90</v>
       </c>
       <c r="D87" s="11" t="s">
@@ -6045,12 +6302,12 @@
         <v>403</v>
       </c>
       <c r="G87" s="11"/>
-      <c r="H87" s="63"/>
+      <c r="H87" s="62"/>
       <c r="I87" s="9"/>
     </row>
     <row r="88" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="12"/>
-      <c r="C88" s="64"/>
+      <c r="C88" s="63"/>
       <c r="D88" s="12" t="s">
         <v>92</v>
       </c>
@@ -6061,14 +6318,14 @@
         <v>404</v>
       </c>
       <c r="G88" s="12"/>
-      <c r="H88" s="64"/>
+      <c r="H88" s="63"/>
       <c r="I88" s="9"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="66" t="s">
+      <c r="B89" s="72" t="s">
         <v>323</v>
       </c>
-      <c r="C89" s="63" t="s">
+      <c r="C89" s="62" t="s">
         <v>98</v>
       </c>
       <c r="D89" s="11" t="s">
@@ -6081,12 +6338,12 @@
         <v>406</v>
       </c>
       <c r="G89" s="11"/>
-      <c r="H89" s="63"/>
+      <c r="H89" s="62"/>
       <c r="I89" s="9"/>
     </row>
     <row r="90" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="67"/>
-      <c r="C90" s="63"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="62"/>
       <c r="D90" s="11" t="s">
         <v>77</v>
       </c>
@@ -6097,12 +6354,12 @@
         <v>407</v>
       </c>
       <c r="G90" s="11"/>
-      <c r="H90" s="63"/>
+      <c r="H90" s="62"/>
       <c r="I90" s="9"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="11"/>
-      <c r="C91" s="63" t="s">
+      <c r="C91" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D91" s="11" t="s">
@@ -6115,12 +6372,12 @@
         <v>408</v>
       </c>
       <c r="G91" s="11"/>
-      <c r="H91" s="63"/>
+      <c r="H91" s="62"/>
       <c r="I91" s="9"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="11"/>
-      <c r="C92" s="63"/>
+      <c r="C92" s="62"/>
       <c r="D92" s="11" t="s">
         <v>41</v>
       </c>
@@ -6131,12 +6388,12 @@
         <v>409</v>
       </c>
       <c r="G92" s="11"/>
-      <c r="H92" s="63"/>
+      <c r="H92" s="62"/>
       <c r="I92" s="9"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="11"/>
-      <c r="C93" s="63" t="s">
+      <c r="C93" s="62" t="s">
         <v>129</v>
       </c>
       <c r="D93" s="11" t="s">
@@ -6149,12 +6406,12 @@
         <v>410</v>
       </c>
       <c r="G93" s="11"/>
-      <c r="H93" s="63"/>
+      <c r="H93" s="62"/>
       <c r="I93" s="9"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="11"/>
-      <c r="C94" s="63"/>
+      <c r="C94" s="62"/>
       <c r="D94" s="11" t="s">
         <v>131</v>
       </c>
@@ -6165,12 +6422,12 @@
         <v>411</v>
       </c>
       <c r="G94" s="11"/>
-      <c r="H94" s="63"/>
+      <c r="H94" s="62"/>
       <c r="I94" s="9"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="11"/>
-      <c r="C95" s="63" t="s">
+      <c r="C95" s="62" t="s">
         <v>405</v>
       </c>
       <c r="D95" s="11" t="s">
@@ -6183,14 +6440,14 @@
         <v>412</v>
       </c>
       <c r="G95" s="11"/>
-      <c r="H95" s="63" t="s">
+      <c r="H95" s="62" t="s">
         <v>724</v>
       </c>
       <c r="I95" s="9"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="11"/>
-      <c r="C96" s="63"/>
+      <c r="C96" s="62"/>
       <c r="D96" s="11" t="s">
         <v>749</v>
       </c>
@@ -6201,12 +6458,12 @@
         <v>413</v>
       </c>
       <c r="G96" s="11"/>
-      <c r="H96" s="63"/>
+      <c r="H96" s="62"/>
       <c r="I96" s="9"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="11"/>
-      <c r="C97" s="63" t="s">
+      <c r="C97" s="62" t="s">
         <v>300</v>
       </c>
       <c r="D97" s="11" t="s">
@@ -6219,14 +6476,14 @@
         <v>753</v>
       </c>
       <c r="G97" s="11"/>
-      <c r="H97" s="63" t="s">
+      <c r="H97" s="62" t="s">
         <v>724</v>
       </c>
       <c r="I97" s="9"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="11"/>
-      <c r="C98" s="63"/>
+      <c r="C98" s="62"/>
       <c r="D98" s="11" t="s">
         <v>750</v>
       </c>
@@ -6237,12 +6494,12 @@
         <v>751</v>
       </c>
       <c r="G98" s="11"/>
-      <c r="H98" s="63"/>
+      <c r="H98" s="62"/>
       <c r="I98" s="9"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="11"/>
-      <c r="C99" s="63" t="s">
+      <c r="C99" s="62" t="s">
         <v>774</v>
       </c>
       <c r="D99" s="11" t="s">
@@ -6255,7 +6512,7 @@
         <v>683</v>
       </c>
       <c r="G99" s="11"/>
-      <c r="H99" s="63" t="s">
+      <c r="H99" s="62" t="s">
         <v>702</v>
       </c>
       <c r="I99" s="9" t="s">
@@ -6264,7 +6521,7 @@
     </row>
     <row r="100" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="11"/>
-      <c r="C100" s="64"/>
+      <c r="C100" s="63"/>
       <c r="D100" s="12" t="s">
         <v>704</v>
       </c>
@@ -6275,36 +6532,36 @@
         <v>701</v>
       </c>
       <c r="G100" s="12"/>
-      <c r="H100" s="64"/>
+      <c r="H100" s="63"/>
       <c r="I100" s="9" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="66" t="s">
+      <c r="B101" s="72" t="s">
         <v>324</v>
       </c>
-      <c r="C101" s="63"/>
+      <c r="C101" s="62"/>
       <c r="D101" s="11"/>
       <c r="E101" s="23"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
-      <c r="H101" s="63"/>
+      <c r="H101" s="62"/>
       <c r="I101" s="9"/>
     </row>
     <row r="102" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="67"/>
-      <c r="C102" s="63"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="62"/>
       <c r="D102" s="11"/>
       <c r="E102" s="23"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
-      <c r="H102" s="63"/>
+      <c r="H102" s="62"/>
       <c r="I102" s="9"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="29"/>
-      <c r="C103" s="63" t="s">
+      <c r="C103" s="62" t="s">
         <v>775</v>
       </c>
       <c r="D103" s="11" t="s">
@@ -6315,7 +6572,7 @@
       </c>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
-      <c r="H103" s="63" t="s">
+      <c r="H103" s="62" t="s">
         <v>724</v>
       </c>
       <c r="I103" s="9" t="s">
@@ -6324,7 +6581,7 @@
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="29"/>
-      <c r="C104" s="63"/>
+      <c r="C104" s="62"/>
       <c r="D104" s="11" t="s">
         <v>730</v>
       </c>
@@ -6333,14 +6590,14 @@
       </c>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
-      <c r="H104" s="63"/>
+      <c r="H104" s="62"/>
       <c r="I104" s="9" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="29"/>
-      <c r="C105" s="63" t="s">
+      <c r="C105" s="62" t="s">
         <v>776</v>
       </c>
       <c r="D105" s="11" t="s">
@@ -6351,7 +6608,7 @@
       </c>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
-      <c r="H105" s="63" t="s">
+      <c r="H105" s="62" t="s">
         <v>724</v>
       </c>
       <c r="I105" s="9" t="s">
@@ -6360,7 +6617,7 @@
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="29"/>
-      <c r="C106" s="63"/>
+      <c r="C106" s="62"/>
       <c r="D106" s="11" t="s">
         <v>728</v>
       </c>
@@ -6369,14 +6626,14 @@
       </c>
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
-      <c r="H106" s="63"/>
+      <c r="H106" s="62"/>
       <c r="I106" s="9" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="29"/>
-      <c r="C107" s="63" t="s">
+      <c r="C107" s="62" t="s">
         <v>112</v>
       </c>
       <c r="D107" s="11" t="s">
@@ -6389,12 +6646,12 @@
         <v>414</v>
       </c>
       <c r="G107" s="11"/>
-      <c r="H107" s="63"/>
+      <c r="H107" s="62"/>
       <c r="I107" s="9"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="29"/>
-      <c r="C108" s="63"/>
+      <c r="C108" s="62"/>
       <c r="D108" s="11" t="s">
         <v>11</v>
       </c>
@@ -6405,12 +6662,12 @@
         <v>415</v>
       </c>
       <c r="G108" s="11"/>
-      <c r="H108" s="63"/>
+      <c r="H108" s="62"/>
       <c r="I108" s="9"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="29"/>
-      <c r="C109" s="63" t="s">
+      <c r="C109" s="62" t="s">
         <v>111</v>
       </c>
       <c r="D109" s="11" t="s">
@@ -6423,12 +6680,12 @@
         <v>416</v>
       </c>
       <c r="G109" s="11"/>
-      <c r="H109" s="63"/>
+      <c r="H109" s="62"/>
       <c r="I109" s="9"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="29"/>
-      <c r="C110" s="63"/>
+      <c r="C110" s="62"/>
       <c r="D110" s="11" t="s">
         <v>13</v>
       </c>
@@ -6439,12 +6696,12 @@
         <v>417</v>
       </c>
       <c r="G110" s="11"/>
-      <c r="H110" s="63"/>
+      <c r="H110" s="62"/>
       <c r="I110" s="9"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="11"/>
-      <c r="C111" s="63" t="s">
+      <c r="C111" s="62" t="s">
         <v>777</v>
       </c>
       <c r="D111" s="11" t="s">
@@ -6455,7 +6712,7 @@
       </c>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
-      <c r="H111" s="63" t="s">
+      <c r="H111" s="62" t="s">
         <v>724</v>
       </c>
       <c r="I111" s="9" t="s">
@@ -6464,7 +6721,7 @@
     </row>
     <row r="112" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="12"/>
-      <c r="C112" s="64"/>
+      <c r="C112" s="63"/>
       <c r="D112" s="12" t="s">
         <v>725</v>
       </c>
@@ -6473,16 +6730,16 @@
       </c>
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
-      <c r="H112" s="64"/>
+      <c r="H112" s="63"/>
       <c r="I112" s="9" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="66" t="s">
+      <c r="B113" s="72" t="s">
         <v>325</v>
       </c>
-      <c r="C113" s="63" t="s">
+      <c r="C113" s="62" t="s">
         <v>113</v>
       </c>
       <c r="D113" s="11" t="s">
@@ -6495,14 +6752,14 @@
         <v>420</v>
       </c>
       <c r="G113" s="11"/>
-      <c r="H113" s="63" t="s">
+      <c r="H113" s="62" t="s">
         <v>565</v>
       </c>
       <c r="I113" s="9"/>
     </row>
     <row r="114" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="67"/>
-      <c r="C114" s="63"/>
+      <c r="B114" s="73"/>
+      <c r="C114" s="62"/>
       <c r="D114" s="11" t="s">
         <v>577</v>
       </c>
@@ -6513,12 +6770,12 @@
         <v>421</v>
       </c>
       <c r="G114" s="11"/>
-      <c r="H114" s="63"/>
+      <c r="H114" s="62"/>
       <c r="I114" s="9"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="11"/>
-      <c r="C115" s="63" t="s">
+      <c r="C115" s="62" t="s">
         <v>152</v>
       </c>
       <c r="D115" s="11" t="s">
@@ -6531,12 +6788,12 @@
         <v>425</v>
       </c>
       <c r="G115" s="11"/>
-      <c r="H115" s="63"/>
+      <c r="H115" s="62"/>
       <c r="I115" s="9"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="11"/>
-      <c r="C116" s="63"/>
+      <c r="C116" s="62"/>
       <c r="D116" s="11" t="s">
         <v>154</v>
       </c>
@@ -6547,12 +6804,12 @@
         <v>424</v>
       </c>
       <c r="G116" s="11"/>
-      <c r="H116" s="63"/>
+      <c r="H116" s="62"/>
       <c r="I116" s="9"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="11"/>
-      <c r="C117" s="63" t="s">
+      <c r="C117" s="62" t="s">
         <v>67</v>
       </c>
       <c r="D117" s="11" t="s">
@@ -6565,12 +6822,12 @@
         <v>423</v>
       </c>
       <c r="G117" s="11"/>
-      <c r="H117" s="63"/>
+      <c r="H117" s="62"/>
       <c r="I117" s="9"/>
     </row>
     <row r="118" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="12"/>
-      <c r="C118" s="64"/>
+      <c r="C118" s="63"/>
       <c r="D118" s="12" t="s">
         <v>69</v>
       </c>
@@ -6581,14 +6838,14 @@
         <v>422</v>
       </c>
       <c r="G118" s="12"/>
-      <c r="H118" s="64"/>
+      <c r="H118" s="63"/>
       <c r="I118" s="9"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="66" t="s">
+      <c r="B119" s="72" t="s">
         <v>326</v>
       </c>
-      <c r="C119" s="63" t="s">
+      <c r="C119" s="62" t="s">
         <v>97</v>
       </c>
       <c r="D119" s="11" t="s">
@@ -6601,12 +6858,12 @@
         <v>426</v>
       </c>
       <c r="G119" s="11"/>
-      <c r="H119" s="63"/>
+      <c r="H119" s="62"/>
       <c r="I119" s="9"/>
     </row>
     <row r="120" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="67"/>
-      <c r="C120" s="63"/>
+      <c r="B120" s="73"/>
+      <c r="C120" s="62"/>
       <c r="D120" s="11" t="s">
         <v>79</v>
       </c>
@@ -6617,12 +6874,12 @@
         <v>427</v>
       </c>
       <c r="G120" s="11"/>
-      <c r="H120" s="63"/>
+      <c r="H120" s="62"/>
       <c r="I120" s="9"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="44"/>
-      <c r="C121" s="63" t="s">
+      <c r="C121" s="62" t="s">
         <v>933</v>
       </c>
       <c r="D121" s="11" t="s">
@@ -6635,14 +6892,14 @@
         <v>935</v>
       </c>
       <c r="G121" s="11"/>
-      <c r="H121" s="63" t="s">
+      <c r="H121" s="62" t="s">
         <v>861</v>
       </c>
       <c r="I121" s="9"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="44"/>
-      <c r="C122" s="63"/>
+      <c r="C122" s="62"/>
       <c r="D122" s="11" t="s">
         <v>936</v>
       </c>
@@ -6653,12 +6910,12 @@
         <v>937</v>
       </c>
       <c r="G122" s="11"/>
-      <c r="H122" s="63"/>
+      <c r="H122" s="62"/>
       <c r="I122" s="9"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="11"/>
-      <c r="C123" s="63" t="s">
+      <c r="C123" s="62" t="s">
         <v>93</v>
       </c>
       <c r="D123" s="11" t="s">
@@ -6671,12 +6928,12 @@
         <v>428</v>
       </c>
       <c r="G123" s="11"/>
-      <c r="H123" s="63"/>
+      <c r="H123" s="62"/>
       <c r="I123" s="9"/>
     </row>
     <row r="124" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="12"/>
-      <c r="C124" s="64"/>
+      <c r="C124" s="63"/>
       <c r="D124" s="12" t="s">
         <v>173</v>
       </c>
@@ -6687,14 +6944,14 @@
         <v>429</v>
       </c>
       <c r="G124" s="12"/>
-      <c r="H124" s="64"/>
+      <c r="H124" s="63"/>
       <c r="I124" s="9"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" s="66" t="s">
+      <c r="B125" s="72" t="s">
         <v>327</v>
       </c>
-      <c r="C125" s="63" t="s">
+      <c r="C125" s="62" t="s">
         <v>23</v>
       </c>
       <c r="D125" s="11" t="s">
@@ -6707,12 +6964,12 @@
         <v>431</v>
       </c>
       <c r="G125" s="11"/>
-      <c r="H125" s="63"/>
+      <c r="H125" s="62"/>
       <c r="I125" s="9"/>
     </row>
     <row r="126" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="67"/>
-      <c r="C126" s="63"/>
+      <c r="B126" s="73"/>
+      <c r="C126" s="62"/>
       <c r="D126" s="11" t="s">
         <v>26</v>
       </c>
@@ -6723,12 +6980,12 @@
         <v>432</v>
       </c>
       <c r="G126" s="11"/>
-      <c r="H126" s="63"/>
+      <c r="H126" s="62"/>
       <c r="I126" s="9"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="11"/>
-      <c r="C127" s="63" t="s">
+      <c r="C127" s="62" t="s">
         <v>117</v>
       </c>
       <c r="D127" s="11" t="s">
@@ -6741,12 +6998,12 @@
         <v>433</v>
       </c>
       <c r="G127" s="11"/>
-      <c r="H127" s="63"/>
+      <c r="H127" s="62"/>
       <c r="I127" s="9"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="11"/>
-      <c r="C128" s="63"/>
+      <c r="C128" s="62"/>
       <c r="D128" s="11" t="s">
         <v>119</v>
       </c>
@@ -6757,12 +7014,12 @@
         <v>434</v>
       </c>
       <c r="G128" s="11"/>
-      <c r="H128" s="63"/>
+      <c r="H128" s="62"/>
       <c r="I128" s="9"/>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="11"/>
-      <c r="C129" s="63" t="s">
+      <c r="C129" s="62" t="s">
         <v>120</v>
       </c>
       <c r="D129" s="11" t="s">
@@ -6775,12 +7032,12 @@
         <v>435</v>
       </c>
       <c r="G129" s="11"/>
-      <c r="H129" s="63"/>
+      <c r="H129" s="62"/>
       <c r="I129" s="9"/>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="11"/>
-      <c r="C130" s="63"/>
+      <c r="C130" s="62"/>
       <c r="D130" s="11" t="s">
         <v>122</v>
       </c>
@@ -6791,12 +7048,12 @@
         <v>436</v>
       </c>
       <c r="G130" s="11"/>
-      <c r="H130" s="63"/>
+      <c r="H130" s="62"/>
       <c r="I130" s="9"/>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="11"/>
-      <c r="C131" s="63" t="s">
+      <c r="C131" s="62" t="s">
         <v>94</v>
       </c>
       <c r="D131" s="11" t="s">
@@ -6809,12 +7066,12 @@
         <v>437</v>
       </c>
       <c r="G131" s="11"/>
-      <c r="H131" s="63"/>
+      <c r="H131" s="62"/>
       <c r="I131" s="9"/>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="11"/>
-      <c r="C132" s="63"/>
+      <c r="C132" s="62"/>
       <c r="D132" s="11" t="s">
         <v>7</v>
       </c>
@@ -6825,12 +7082,12 @@
         <v>438</v>
       </c>
       <c r="G132" s="11"/>
-      <c r="H132" s="63"/>
+      <c r="H132" s="62"/>
       <c r="I132" s="9"/>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="11"/>
-      <c r="C133" s="63" t="s">
+      <c r="C133" s="62" t="s">
         <v>430</v>
       </c>
       <c r="D133" s="11" t="s">
@@ -6843,12 +7100,12 @@
         <v>439</v>
       </c>
       <c r="G133" s="11"/>
-      <c r="H133" s="63"/>
+      <c r="H133" s="62"/>
       <c r="I133" s="9"/>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="11"/>
-      <c r="C134" s="63"/>
+      <c r="C134" s="62"/>
       <c r="D134" s="11" t="s">
         <v>9</v>
       </c>
@@ -6859,12 +7116,12 @@
         <v>440</v>
       </c>
       <c r="G134" s="11"/>
-      <c r="H134" s="63"/>
+      <c r="H134" s="62"/>
       <c r="I134" s="9"/>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="11"/>
-      <c r="C135" s="63" t="s">
+      <c r="C135" s="62" t="s">
         <v>35</v>
       </c>
       <c r="D135" s="11" t="s">
@@ -6877,12 +7134,12 @@
         <v>441</v>
       </c>
       <c r="G135" s="11"/>
-      <c r="H135" s="63"/>
+      <c r="H135" s="62"/>
       <c r="I135" s="9"/>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="11"/>
-      <c r="C136" s="63"/>
+      <c r="C136" s="62"/>
       <c r="D136" s="11" t="s">
         <v>480</v>
       </c>
@@ -6893,12 +7150,12 @@
         <v>442</v>
       </c>
       <c r="G136" s="11"/>
-      <c r="H136" s="63"/>
+      <c r="H136" s="62"/>
       <c r="I136" s="9"/>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="11"/>
-      <c r="C137" s="63" t="s">
+      <c r="C137" s="62" t="s">
         <v>102</v>
       </c>
       <c r="D137" s="11" t="s">
@@ -6911,12 +7168,12 @@
         <v>443</v>
       </c>
       <c r="G137" s="11"/>
-      <c r="H137" s="63"/>
+      <c r="H137" s="62"/>
       <c r="I137" s="9"/>
     </row>
     <row r="138" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="12"/>
-      <c r="C138" s="64"/>
+      <c r="C138" s="63"/>
       <c r="D138" s="12" t="s">
         <v>482</v>
       </c>
@@ -6927,14 +7184,14 @@
         <v>444</v>
       </c>
       <c r="G138" s="12"/>
-      <c r="H138" s="64"/>
+      <c r="H138" s="63"/>
       <c r="I138" s="9"/>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="66" t="s">
+      <c r="B139" s="72" t="s">
         <v>328</v>
       </c>
-      <c r="C139" s="63" t="s">
+      <c r="C139" s="62" t="s">
         <v>57</v>
       </c>
       <c r="D139" s="11" t="s">
@@ -6947,14 +7204,14 @@
         <v>58</v>
       </c>
       <c r="G139" s="11"/>
-      <c r="H139" s="63" t="s">
+      <c r="H139" s="62" t="s">
         <v>861</v>
       </c>
       <c r="I139" s="9"/>
     </row>
     <row r="140" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="67"/>
-      <c r="C140" s="63"/>
+      <c r="B140" s="73"/>
+      <c r="C140" s="62"/>
       <c r="D140" s="11" t="s">
         <v>61</v>
       </c>
@@ -6965,12 +7222,12 @@
         <v>59</v>
       </c>
       <c r="G140" s="11"/>
-      <c r="H140" s="63"/>
+      <c r="H140" s="62"/>
       <c r="I140" s="9"/>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="11"/>
-      <c r="C141" s="63" t="s">
+      <c r="C141" s="62" t="s">
         <v>147</v>
       </c>
       <c r="D141" s="11" t="s">
@@ -6983,12 +7240,12 @@
         <v>148</v>
       </c>
       <c r="G141" s="11"/>
-      <c r="H141" s="63"/>
+      <c r="H141" s="62"/>
       <c r="I141" s="9"/>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="11"/>
-      <c r="C142" s="63"/>
+      <c r="C142" s="62"/>
       <c r="D142" s="11" t="s">
         <v>151</v>
       </c>
@@ -6999,12 +7256,12 @@
         <v>149</v>
       </c>
       <c r="G142" s="11"/>
-      <c r="H142" s="63"/>
+      <c r="H142" s="62"/>
       <c r="I142" s="9"/>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="11"/>
-      <c r="C143" s="63" t="s">
+      <c r="C143" s="62" t="s">
         <v>895</v>
       </c>
       <c r="D143" s="9" t="s">
@@ -7017,14 +7274,14 @@
         <v>897</v>
       </c>
       <c r="G143" s="3"/>
-      <c r="H143" s="63" t="s">
+      <c r="H143" s="62" t="s">
         <v>861</v>
       </c>
       <c r="I143" s="9"/>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="11"/>
-      <c r="C144" s="63"/>
+      <c r="C144" s="62"/>
       <c r="D144" s="9" t="s">
         <v>898</v>
       </c>
@@ -7035,12 +7292,12 @@
         <v>899</v>
       </c>
       <c r="G144" s="3"/>
-      <c r="H144" s="63"/>
+      <c r="H144" s="62"/>
       <c r="I144" s="9"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="11"/>
-      <c r="C145" s="63" t="s">
+      <c r="C145" s="62" t="s">
         <v>866</v>
       </c>
       <c r="D145" s="9"/>
@@ -7049,14 +7306,14 @@
       </c>
       <c r="F145" s="11"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="63" t="s">
+      <c r="H145" s="62" t="s">
         <v>861</v>
       </c>
       <c r="I145" s="9"/>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="11"/>
-      <c r="C146" s="63"/>
+      <c r="C146" s="62"/>
       <c r="D146" s="9" t="s">
         <v>868</v>
       </c>
@@ -7067,12 +7324,12 @@
         <v>867</v>
       </c>
       <c r="G146" s="3"/>
-      <c r="H146" s="63"/>
+      <c r="H146" s="62"/>
       <c r="I146" s="9"/>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="11"/>
-      <c r="C147" s="63" t="s">
+      <c r="C147" s="62" t="s">
         <v>973</v>
       </c>
       <c r="D147" s="9" t="s">
@@ -7085,16 +7342,16 @@
         <v>911</v>
       </c>
       <c r="G147" s="3"/>
-      <c r="H147" s="63" t="s">
+      <c r="H147" s="62" t="s">
         <v>861</v>
       </c>
-      <c r="I147" s="75" t="s">
+      <c r="I147" s="64" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="11"/>
-      <c r="C148" s="63"/>
+      <c r="C148" s="62"/>
       <c r="D148" s="9" t="s">
         <v>924</v>
       </c>
@@ -7105,12 +7362,12 @@
         <v>910</v>
       </c>
       <c r="G148" s="3"/>
-      <c r="H148" s="63"/>
-      <c r="I148" s="75"/>
+      <c r="H148" s="62"/>
+      <c r="I148" s="64"/>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="11"/>
-      <c r="C149" s="63" t="s">
+      <c r="C149" s="62" t="s">
         <v>930</v>
       </c>
       <c r="D149" s="9" t="s">
@@ -7123,14 +7380,14 @@
         <v>928</v>
       </c>
       <c r="G149" s="3"/>
-      <c r="H149" s="63" t="s">
+      <c r="H149" s="62" t="s">
         <v>861</v>
       </c>
       <c r="I149" s="43"/>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="11"/>
-      <c r="C150" s="63"/>
+      <c r="C150" s="62"/>
       <c r="D150" s="9" t="s">
         <v>932</v>
       </c>
@@ -7141,12 +7398,12 @@
         <v>929</v>
       </c>
       <c r="G150" s="3"/>
-      <c r="H150" s="63"/>
+      <c r="H150" s="62"/>
       <c r="I150" s="43"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" s="11"/>
-      <c r="C151" s="63" t="s">
+      <c r="C151" s="62" t="s">
         <v>236</v>
       </c>
       <c r="D151" s="9" t="s">
@@ -7158,14 +7415,14 @@
       <c r="F151" s="36" t="s">
         <v>718</v>
       </c>
-      <c r="H151" s="63" t="s">
+      <c r="H151" s="62" t="s">
         <v>706</v>
       </c>
       <c r="I151" s="9"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" s="11"/>
-      <c r="C152" s="63"/>
+      <c r="C152" s="62"/>
       <c r="D152" s="9" t="s">
         <v>721</v>
       </c>
@@ -7175,12 +7432,12 @@
       <c r="F152" s="36" t="s">
         <v>719</v>
       </c>
-      <c r="H152" s="63"/>
+      <c r="H152" s="62"/>
       <c r="I152" s="9"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" s="11"/>
-      <c r="C153" s="63" t="s">
+      <c r="C153" s="62" t="s">
         <v>103</v>
       </c>
       <c r="D153" s="11" t="s">
@@ -7193,12 +7450,12 @@
         <v>445</v>
       </c>
       <c r="G153" s="11"/>
-      <c r="H153" s="63"/>
+      <c r="H153" s="62"/>
       <c r="I153" s="9"/>
     </row>
     <row r="154" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B154" s="12"/>
-      <c r="C154" s="64"/>
+      <c r="C154" s="63"/>
       <c r="D154" s="12" t="s">
         <v>34</v>
       </c>
@@ -7209,14 +7466,14 @@
         <v>446</v>
       </c>
       <c r="G154" s="12"/>
-      <c r="H154" s="64"/>
+      <c r="H154" s="63"/>
       <c r="I154" s="9"/>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B155" s="73" t="s">
+      <c r="B155" s="65" t="s">
         <v>628</v>
       </c>
-      <c r="C155" s="63" t="s">
+      <c r="C155" s="62" t="s">
         <v>885</v>
       </c>
       <c r="D155" s="11" t="s">
@@ -7229,14 +7486,14 @@
         <v>886</v>
       </c>
       <c r="G155" s="11"/>
-      <c r="H155" s="68" t="s">
+      <c r="H155" s="67" t="s">
         <v>861</v>
       </c>
       <c r="I155" s="9"/>
     </row>
     <row r="156" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="74"/>
-      <c r="C156" s="63"/>
+      <c r="B156" s="66"/>
+      <c r="C156" s="62"/>
       <c r="D156" s="11" t="s">
         <v>889</v>
       </c>
@@ -7247,12 +7504,12 @@
         <v>888</v>
       </c>
       <c r="G156" s="11"/>
-      <c r="H156" s="63"/>
+      <c r="H156" s="62"/>
       <c r="I156" s="9"/>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" s="46"/>
-      <c r="C157" s="63" t="s">
+      <c r="C157" s="62" t="s">
         <v>739</v>
       </c>
       <c r="D157" s="11" t="s">
@@ -7265,14 +7522,14 @@
         <v>747</v>
       </c>
       <c r="G157" s="11"/>
-      <c r="H157" s="63" t="s">
+      <c r="H157" s="62" t="s">
         <v>724</v>
       </c>
       <c r="I157" s="9"/>
     </row>
     <row r="158" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="46"/>
-      <c r="C158" s="64"/>
+      <c r="C158" s="63"/>
       <c r="D158" s="12" t="s">
         <v>745</v>
       </c>
@@ -7283,14 +7540,14 @@
         <v>744</v>
       </c>
       <c r="G158" s="12"/>
-      <c r="H158" s="63"/>
+      <c r="H158" s="62"/>
       <c r="I158" s="9"/>
     </row>
     <row r="159" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="66" t="s">
+      <c r="B159" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="C159" s="68" t="s">
+      <c r="C159" s="67" t="s">
         <v>162</v>
       </c>
       <c r="D159" s="11" t="s">
@@ -7302,17 +7559,17 @@
       <c r="F159" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="G159" s="63" t="s">
+      <c r="G159" s="62" t="s">
         <v>483</v>
       </c>
-      <c r="H159" s="68" t="s">
+      <c r="H159" s="67" t="s">
         <v>565</v>
       </c>
       <c r="I159" s="9"/>
     </row>
     <row r="160" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="67"/>
-      <c r="C160" s="63"/>
+      <c r="B160" s="73"/>
+      <c r="C160" s="62"/>
       <c r="D160" s="11" t="s">
         <v>575</v>
       </c>
@@ -7322,13 +7579,13 @@
       <c r="F160" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G160" s="63"/>
-      <c r="H160" s="63"/>
+      <c r="G160" s="62"/>
+      <c r="H160" s="62"/>
       <c r="I160" s="9"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="11"/>
-      <c r="C161" s="63" t="s">
+      <c r="C161" s="62" t="s">
         <v>164</v>
       </c>
       <c r="D161" s="11" t="s">
@@ -7340,17 +7597,17 @@
       <c r="F161" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="G161" s="63" t="s">
+      <c r="G161" s="62" t="s">
         <v>484</v>
       </c>
-      <c r="H161" s="63" t="s">
+      <c r="H161" s="62" t="s">
         <v>565</v>
       </c>
       <c r="I161" s="9"/>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="11"/>
-      <c r="C162" s="63"/>
+      <c r="C162" s="62"/>
       <c r="D162" s="11" t="s">
         <v>576</v>
       </c>
@@ -7360,13 +7617,13 @@
       <c r="F162" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="G162" s="63"/>
-      <c r="H162" s="63"/>
+      <c r="G162" s="62"/>
+      <c r="H162" s="62"/>
       <c r="I162" s="9"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="11"/>
-      <c r="C163" s="63" t="s">
+      <c r="C163" s="62" t="s">
         <v>96</v>
       </c>
       <c r="D163" s="11" t="s">
@@ -7379,12 +7636,12 @@
         <v>451</v>
       </c>
       <c r="G163" s="11"/>
-      <c r="H163" s="63"/>
+      <c r="H163" s="62"/>
       <c r="I163" s="9"/>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="11"/>
-      <c r="C164" s="63"/>
+      <c r="C164" s="62"/>
       <c r="D164" s="11" t="s">
         <v>81</v>
       </c>
@@ -7395,12 +7652,12 @@
         <v>452</v>
       </c>
       <c r="G164" s="11"/>
-      <c r="H164" s="63"/>
+      <c r="H164" s="62"/>
       <c r="I164" s="9"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="11"/>
-      <c r="C165" s="63" t="s">
+      <c r="C165" s="62" t="s">
         <v>100</v>
       </c>
       <c r="D165" s="11" t="s">
@@ -7413,12 +7670,12 @@
         <v>453</v>
       </c>
       <c r="G165" s="11"/>
-      <c r="H165" s="63"/>
+      <c r="H165" s="62"/>
       <c r="I165" s="9"/>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" s="11"/>
-      <c r="C166" s="63"/>
+      <c r="C166" s="62"/>
       <c r="D166" s="11" t="s">
         <v>73</v>
       </c>
@@ -7429,12 +7686,12 @@
         <v>454</v>
       </c>
       <c r="G166" s="11"/>
-      <c r="H166" s="63"/>
+      <c r="H166" s="62"/>
       <c r="I166" s="9"/>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="11"/>
-      <c r="C167" s="63" t="s">
+      <c r="C167" s="62" t="s">
         <v>107</v>
       </c>
       <c r="D167" s="11" t="s">
@@ -7447,12 +7704,12 @@
         <v>455</v>
       </c>
       <c r="G167" s="11"/>
-      <c r="H167" s="63"/>
+      <c r="H167" s="62"/>
       <c r="I167" s="9"/>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="11"/>
-      <c r="C168" s="63"/>
+      <c r="C168" s="62"/>
       <c r="D168" s="11" t="s">
         <v>17</v>
       </c>
@@ -7463,12 +7720,12 @@
         <v>456</v>
       </c>
       <c r="G168" s="11"/>
-      <c r="H168" s="63"/>
+      <c r="H168" s="62"/>
       <c r="I168" s="9"/>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="11"/>
-      <c r="C169" s="63" t="s">
+      <c r="C169" s="62" t="s">
         <v>105</v>
       </c>
       <c r="D169" s="11" t="s">
@@ -7481,13 +7738,13 @@
         <v>457</v>
       </c>
       <c r="G169" s="11"/>
-      <c r="H169" s="63" t="s">
+      <c r="H169" s="62" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="11"/>
-      <c r="C170" s="63"/>
+      <c r="C170" s="62"/>
       <c r="D170" s="11" t="s">
         <v>938</v>
       </c>
@@ -7498,11 +7755,11 @@
         <v>458</v>
       </c>
       <c r="G170" s="11"/>
-      <c r="H170" s="63"/>
+      <c r="H170" s="62"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="11"/>
-      <c r="C171" s="63" t="s">
+      <c r="C171" s="62" t="s">
         <v>939</v>
       </c>
       <c r="D171" s="11" t="s">
@@ -7515,13 +7772,13 @@
         <v>943</v>
       </c>
       <c r="G171" s="11"/>
-      <c r="H171" s="63" t="s">
+      <c r="H171" s="62" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="11"/>
-      <c r="C172" s="63"/>
+      <c r="C172" s="62"/>
       <c r="D172" s="11" t="s">
         <v>941</v>
       </c>
@@ -7532,11 +7789,11 @@
         <v>942</v>
       </c>
       <c r="G172" s="11"/>
-      <c r="H172" s="63"/>
+      <c r="H172" s="62"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="11"/>
-      <c r="C173" s="63" t="s">
+      <c r="C173" s="62" t="s">
         <v>104</v>
       </c>
       <c r="D173" s="11" t="s">
@@ -7549,11 +7806,11 @@
         <v>459</v>
       </c>
       <c r="G173" s="11"/>
-      <c r="H173" s="63"/>
+      <c r="H173" s="62"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="11"/>
-      <c r="C174" s="63"/>
+      <c r="C174" s="62"/>
       <c r="D174" s="11" t="s">
         <v>32</v>
       </c>
@@ -7564,11 +7821,11 @@
         <v>460</v>
       </c>
       <c r="G174" s="11"/>
-      <c r="H174" s="63"/>
+      <c r="H174" s="62"/>
     </row>
     <row r="175" spans="2:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="11"/>
-      <c r="C175" s="63" t="s">
+      <c r="C175" s="62" t="s">
         <v>959</v>
       </c>
       <c r="D175" s="33" t="s">
@@ -7581,13 +7838,13 @@
         <v>461</v>
       </c>
       <c r="G175" s="11"/>
-      <c r="H175" s="63" t="s">
+      <c r="H175" s="62" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="176" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="11"/>
-      <c r="C176" s="63"/>
+      <c r="C176" s="62"/>
       <c r="D176" s="33" t="s">
         <v>962</v>
       </c>
@@ -7598,11 +7855,11 @@
         <v>462</v>
       </c>
       <c r="G176" s="11"/>
-      <c r="H176" s="63"/>
+      <c r="H176" s="62"/>
     </row>
     <row r="177" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B177" s="11"/>
-      <c r="C177" s="63" t="s">
+      <c r="C177" s="62" t="s">
         <v>963</v>
       </c>
       <c r="D177" s="50" t="s">
@@ -7615,16 +7872,16 @@
         <v>463</v>
       </c>
       <c r="G177" s="11"/>
-      <c r="H177" s="63" t="s">
+      <c r="H177" s="62" t="s">
         <v>960</v>
       </c>
-      <c r="I177" s="56" t="s">
+      <c r="I177" s="55" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="178" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B178" s="11"/>
-      <c r="C178" s="63"/>
+      <c r="C178" s="62"/>
       <c r="D178" s="50" t="s">
         <v>965</v>
       </c>
@@ -7635,11 +7892,11 @@
         <v>464</v>
       </c>
       <c r="G178" s="11"/>
-      <c r="H178" s="63"/>
+      <c r="H178" s="62"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="11"/>
-      <c r="C179" s="63" t="s">
+      <c r="C179" s="62" t="s">
         <v>966</v>
       </c>
       <c r="D179" s="50" t="s">
@@ -7652,13 +7909,13 @@
         <v>969</v>
       </c>
       <c r="G179" s="11"/>
-      <c r="H179" s="63" t="s">
+      <c r="H179" s="62" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" s="11"/>
-      <c r="C180" s="63"/>
+      <c r="C180" s="62"/>
       <c r="D180" s="50" t="s">
         <v>968</v>
       </c>
@@ -7669,11 +7926,11 @@
         <v>970</v>
       </c>
       <c r="G180" s="11"/>
-      <c r="H180" s="63"/>
+      <c r="H180" s="62"/>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" s="11"/>
-      <c r="C181" s="63" t="s">
+      <c r="C181" s="62" t="s">
         <v>114</v>
       </c>
       <c r="D181" s="11" t="s">
@@ -7686,11 +7943,11 @@
         <v>465</v>
       </c>
       <c r="G181" s="11"/>
-      <c r="H181" s="63"/>
+      <c r="H181" s="62"/>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="11"/>
-      <c r="C182" s="63"/>
+      <c r="C182" s="62"/>
       <c r="D182" s="11" t="s">
         <v>28</v>
       </c>
@@ -7701,11 +7958,11 @@
         <v>466</v>
       </c>
       <c r="G182" s="11"/>
-      <c r="H182" s="63"/>
+      <c r="H182" s="62"/>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" s="11"/>
-      <c r="C183" s="63" t="s">
+      <c r="C183" s="62" t="s">
         <v>108</v>
       </c>
       <c r="D183" s="11" t="s">
@@ -7718,13 +7975,13 @@
         <v>467</v>
       </c>
       <c r="G183" s="11"/>
-      <c r="H183" s="63" t="s">
+      <c r="H183" s="62" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" s="11"/>
-      <c r="C184" s="63"/>
+      <c r="C184" s="62"/>
       <c r="D184" s="11" t="s">
         <v>30</v>
       </c>
@@ -7735,11 +7992,11 @@
         <v>468</v>
       </c>
       <c r="G184" s="11"/>
-      <c r="H184" s="63"/>
+      <c r="H184" s="62"/>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B185" s="11"/>
-      <c r="C185" s="63" t="s">
+      <c r="C185" s="62" t="s">
         <v>84</v>
       </c>
       <c r="D185" s="11" t="s">
@@ -7752,11 +8009,11 @@
         <v>469</v>
       </c>
       <c r="G185" s="11"/>
-      <c r="H185" s="63"/>
+      <c r="H185" s="62"/>
     </row>
     <row r="186" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B186" s="12"/>
-      <c r="C186" s="64"/>
+      <c r="C186" s="63"/>
       <c r="D186" s="12" t="s">
         <v>86</v>
       </c>
@@ -7767,13 +8024,13 @@
         <v>470</v>
       </c>
       <c r="G186" s="12"/>
-      <c r="H186" s="64"/>
+      <c r="H186" s="63"/>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B187" s="66" t="s">
+      <c r="B187" s="72" t="s">
         <v>330</v>
       </c>
-      <c r="C187" s="63" t="s">
+      <c r="C187" s="62" t="s">
         <v>20</v>
       </c>
       <c r="D187" s="11" t="s">
@@ -7786,11 +8043,11 @@
         <v>471</v>
       </c>
       <c r="G187" s="11"/>
-      <c r="H187" s="63"/>
+      <c r="H187" s="62"/>
     </row>
     <row r="188" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="67"/>
-      <c r="C188" s="63"/>
+      <c r="B188" s="73"/>
+      <c r="C188" s="62"/>
       <c r="D188" s="11" t="s">
         <v>22</v>
       </c>
@@ -7801,11 +8058,11 @@
         <v>472</v>
       </c>
       <c r="G188" s="11"/>
-      <c r="H188" s="63"/>
+      <c r="H188" s="62"/>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" s="11"/>
-      <c r="C189" s="63" t="s">
+      <c r="C189" s="62" t="s">
         <v>174</v>
       </c>
       <c r="D189" s="11" t="s">
@@ -7818,11 +8075,11 @@
         <v>473</v>
       </c>
       <c r="G189" s="11"/>
-      <c r="H189" s="63"/>
+      <c r="H189" s="62"/>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" s="11"/>
-      <c r="C190" s="63"/>
+      <c r="C190" s="62"/>
       <c r="D190" s="11" t="s">
         <v>176</v>
       </c>
@@ -7833,11 +8090,11 @@
         <v>474</v>
       </c>
       <c r="G190" s="11"/>
-      <c r="H190" s="63"/>
+      <c r="H190" s="62"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" s="11"/>
-      <c r="C191" s="63" t="s">
+      <c r="C191" s="62" t="s">
         <v>106</v>
       </c>
       <c r="D191" s="11" t="s">
@@ -7850,11 +8107,11 @@
         <v>475</v>
       </c>
       <c r="G191" s="11"/>
-      <c r="H191" s="63"/>
+      <c r="H191" s="62"/>
     </row>
     <row r="192" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B192" s="12"/>
-      <c r="C192" s="64"/>
+      <c r="C192" s="63"/>
       <c r="D192" s="12" t="s">
         <v>19</v>
       </c>
@@ -7865,13 +8122,13 @@
         <v>476</v>
       </c>
       <c r="G192" s="12"/>
-      <c r="H192" s="64"/>
+      <c r="H192" s="63"/>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B193" s="66" t="s">
+      <c r="B193" s="72" t="s">
         <v>331</v>
       </c>
-      <c r="C193" s="63" t="s">
+      <c r="C193" s="62" t="s">
         <v>778</v>
       </c>
       <c r="D193" s="11" t="s">
@@ -7882,7 +8139,7 @@
       </c>
       <c r="F193" s="11"/>
       <c r="G193" s="11"/>
-      <c r="H193" s="63" t="s">
+      <c r="H193" s="62" t="s">
         <v>724</v>
       </c>
       <c r="I193" t="s">
@@ -7890,8 +8147,8 @@
       </c>
     </row>
     <row r="194" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="67"/>
-      <c r="C194" s="63"/>
+      <c r="B194" s="73"/>
+      <c r="C194" s="62"/>
       <c r="D194" s="11" t="s">
         <v>733</v>
       </c>
@@ -7900,14 +8157,14 @@
       </c>
       <c r="F194" s="11"/>
       <c r="G194" s="11"/>
-      <c r="H194" s="63"/>
+      <c r="H194" s="62"/>
       <c r="I194" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B195" s="29"/>
-      <c r="C195" s="63" t="s">
+      <c r="C195" s="62" t="s">
         <v>123</v>
       </c>
       <c r="D195" s="11" t="s">
@@ -7920,11 +8177,11 @@
         <v>477</v>
       </c>
       <c r="G195" s="11"/>
-      <c r="H195" s="63"/>
+      <c r="H195" s="62"/>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" s="29"/>
-      <c r="C196" s="63"/>
+      <c r="C196" s="62"/>
       <c r="D196" s="11" t="s">
         <v>124</v>
       </c>
@@ -7935,7 +8192,7 @@
         <v>478</v>
       </c>
       <c r="G196" s="11"/>
-      <c r="H196" s="63"/>
+      <c r="H196" s="62"/>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" s="29"/>
@@ -7944,7 +8201,7 @@
       <c r="E197" s="23"/>
       <c r="F197" s="11"/>
       <c r="G197" s="11"/>
-      <c r="H197" s="63"/>
+      <c r="H197" s="62"/>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" s="29"/>
@@ -7953,11 +8210,11 @@
       <c r="E198" s="23"/>
       <c r="F198" s="11"/>
       <c r="G198" s="11"/>
-      <c r="H198" s="63"/>
+      <c r="H198" s="62"/>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" s="11"/>
-      <c r="C199" s="63"/>
+      <c r="C199" s="62"/>
       <c r="D199" s="11" t="s">
         <v>115</v>
       </c>
@@ -7966,11 +8223,11 @@
       </c>
       <c r="F199" s="11"/>
       <c r="G199" s="11"/>
-      <c r="H199" s="63"/>
+      <c r="H199" s="62"/>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" s="11"/>
-      <c r="C200" s="63"/>
+      <c r="C200" s="62"/>
       <c r="D200" s="11" t="s">
         <v>116</v>
       </c>
@@ -7979,11 +8236,11 @@
       </c>
       <c r="F200" s="11"/>
       <c r="G200" s="11"/>
-      <c r="H200" s="63"/>
+      <c r="H200" s="62"/>
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" s="11"/>
-      <c r="C201" s="63"/>
+      <c r="C201" s="62"/>
       <c r="D201" s="11" t="s">
         <v>115</v>
       </c>
@@ -7992,11 +8249,11 @@
       </c>
       <c r="F201" s="11"/>
       <c r="G201" s="11"/>
-      <c r="H201" s="63"/>
+      <c r="H201" s="62"/>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" s="11"/>
-      <c r="C202" s="63"/>
+      <c r="C202" s="62"/>
       <c r="D202" s="11" t="s">
         <v>116</v>
       </c>
@@ -8005,11 +8262,11 @@
       </c>
       <c r="F202" s="11"/>
       <c r="G202" s="11"/>
-      <c r="H202" s="63"/>
+      <c r="H202" s="62"/>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" s="11"/>
-      <c r="C203" s="63"/>
+      <c r="C203" s="62"/>
       <c r="D203" s="11" t="s">
         <v>115</v>
       </c>
@@ -8018,11 +8275,11 @@
       </c>
       <c r="F203" s="11"/>
       <c r="G203" s="11"/>
-      <c r="H203" s="63"/>
+      <c r="H203" s="62"/>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B204" s="11"/>
-      <c r="C204" s="63"/>
+      <c r="C204" s="62"/>
       <c r="D204" s="11" t="s">
         <v>116</v>
       </c>
@@ -8031,11 +8288,11 @@
       </c>
       <c r="F204" s="11"/>
       <c r="G204" s="11"/>
-      <c r="H204" s="63"/>
+      <c r="H204" s="62"/>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" s="11"/>
-      <c r="C205" s="63"/>
+      <c r="C205" s="62"/>
       <c r="D205" s="11" t="s">
         <v>115</v>
       </c>
@@ -8044,11 +8301,11 @@
       </c>
       <c r="F205" s="11"/>
       <c r="G205" s="11"/>
-      <c r="H205" s="63"/>
+      <c r="H205" s="62"/>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B206" s="11"/>
-      <c r="C206" s="63"/>
+      <c r="C206" s="62"/>
       <c r="D206" s="11" t="s">
         <v>116</v>
       </c>
@@ -8057,11 +8314,11 @@
       </c>
       <c r="F206" s="11"/>
       <c r="G206" s="11"/>
-      <c r="H206" s="63"/>
+      <c r="H206" s="62"/>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B207" s="11"/>
-      <c r="C207" s="63"/>
+      <c r="C207" s="62"/>
       <c r="D207" s="11" t="s">
         <v>115</v>
       </c>
@@ -8070,11 +8327,11 @@
       </c>
       <c r="F207" s="11"/>
       <c r="G207" s="11"/>
-      <c r="H207" s="63"/>
+      <c r="H207" s="62"/>
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B208" s="11"/>
-      <c r="C208" s="63"/>
+      <c r="C208" s="62"/>
       <c r="D208" s="11" t="s">
         <v>116</v>
       </c>
@@ -8083,11 +8340,11 @@
       </c>
       <c r="F208" s="11"/>
       <c r="G208" s="11"/>
-      <c r="H208" s="63"/>
+      <c r="H208" s="62"/>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B209" s="11"/>
-      <c r="C209" s="63"/>
+      <c r="C209" s="62"/>
       <c r="D209" s="11" t="s">
         <v>115</v>
       </c>
@@ -8096,11 +8353,11 @@
       </c>
       <c r="F209" s="11"/>
       <c r="G209" s="11"/>
-      <c r="H209" s="63"/>
+      <c r="H209" s="62"/>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B210" s="11"/>
-      <c r="C210" s="63"/>
+      <c r="C210" s="62"/>
       <c r="D210" s="11" t="s">
         <v>116</v>
       </c>
@@ -8109,11 +8366,11 @@
       </c>
       <c r="F210" s="11"/>
       <c r="G210" s="11"/>
-      <c r="H210" s="63"/>
+      <c r="H210" s="62"/>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" s="11"/>
-      <c r="C211" s="63"/>
+      <c r="C211" s="62"/>
       <c r="D211" s="11" t="s">
         <v>115</v>
       </c>
@@ -8122,11 +8379,11 @@
       </c>
       <c r="F211" s="11"/>
       <c r="G211" s="11"/>
-      <c r="H211" s="63"/>
+      <c r="H211" s="62"/>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B212" s="11"/>
-      <c r="C212" s="63"/>
+      <c r="C212" s="62"/>
       <c r="D212" s="11" t="s">
         <v>116</v>
       </c>
@@ -8135,11 +8392,11 @@
       </c>
       <c r="F212" s="11"/>
       <c r="G212" s="11"/>
-      <c r="H212" s="63"/>
+      <c r="H212" s="62"/>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B213" s="11"/>
-      <c r="C213" s="63"/>
+      <c r="C213" s="62"/>
       <c r="D213" s="11" t="s">
         <v>115</v>
       </c>
@@ -8148,11 +8405,11 @@
       </c>
       <c r="F213" s="11"/>
       <c r="G213" s="11"/>
-      <c r="H213" s="63"/>
+      <c r="H213" s="62"/>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" s="11"/>
-      <c r="C214" s="63"/>
+      <c r="C214" s="62"/>
       <c r="D214" s="11" t="s">
         <v>116</v>
       </c>
@@ -8161,11 +8418,11 @@
       </c>
       <c r="F214" s="11"/>
       <c r="G214" s="11"/>
-      <c r="H214" s="63"/>
+      <c r="H214" s="62"/>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B215" s="11"/>
-      <c r="C215" s="63"/>
+      <c r="C215" s="62"/>
       <c r="D215" s="11" t="s">
         <v>115</v>
       </c>
@@ -8174,11 +8431,11 @@
       </c>
       <c r="F215" s="11"/>
       <c r="G215" s="11"/>
-      <c r="H215" s="63"/>
+      <c r="H215" s="62"/>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B216" s="11"/>
-      <c r="C216" s="63"/>
+      <c r="C216" s="62"/>
       <c r="D216" s="11" t="s">
         <v>116</v>
       </c>
@@ -8187,11 +8444,11 @@
       </c>
       <c r="F216" s="11"/>
       <c r="G216" s="11"/>
-      <c r="H216" s="63"/>
+      <c r="H216" s="62"/>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B217" s="11"/>
-      <c r="C217" s="63"/>
+      <c r="C217" s="62"/>
       <c r="D217" s="11" t="s">
         <v>115</v>
       </c>
@@ -8200,11 +8457,11 @@
       </c>
       <c r="F217" s="11"/>
       <c r="G217" s="11"/>
-      <c r="H217" s="63"/>
+      <c r="H217" s="62"/>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B218" s="11"/>
-      <c r="C218" s="63"/>
+      <c r="C218" s="62"/>
       <c r="D218" s="11" t="s">
         <v>116</v>
       </c>
@@ -8213,11 +8470,11 @@
       </c>
       <c r="F218" s="11"/>
       <c r="G218" s="11"/>
-      <c r="H218" s="63"/>
+      <c r="H218" s="62"/>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B219" s="11"/>
-      <c r="C219" s="63"/>
+      <c r="C219" s="62"/>
       <c r="D219" s="11" t="s">
         <v>115</v>
       </c>
@@ -8226,11 +8483,11 @@
       </c>
       <c r="F219" s="11"/>
       <c r="G219" s="11"/>
-      <c r="H219" s="63"/>
+      <c r="H219" s="62"/>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B220" s="11"/>
-      <c r="C220" s="63"/>
+      <c r="C220" s="62"/>
       <c r="D220" s="11" t="s">
         <v>116</v>
       </c>
@@ -8239,12 +8496,12 @@
       </c>
       <c r="F220" s="11"/>
       <c r="G220" s="11"/>
-      <c r="H220" s="63"/>
+      <c r="H220" s="62"/>
       <c r="I220" s="9"/>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B221" s="11"/>
-      <c r="C221" s="63"/>
+      <c r="C221" s="62"/>
       <c r="D221" s="11" t="s">
         <v>115</v>
       </c>
@@ -8253,12 +8510,12 @@
       </c>
       <c r="F221" s="11"/>
       <c r="G221" s="11"/>
-      <c r="H221" s="63"/>
+      <c r="H221" s="62"/>
       <c r="I221" s="9"/>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B222" s="11"/>
-      <c r="C222" s="63"/>
+      <c r="C222" s="62"/>
       <c r="D222" s="11" t="s">
         <v>116</v>
       </c>
@@ -8267,12 +8524,12 @@
       </c>
       <c r="F222" s="11"/>
       <c r="G222" s="11"/>
-      <c r="H222" s="63"/>
+      <c r="H222" s="62"/>
       <c r="I222" s="9"/>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B223" s="11"/>
-      <c r="C223" s="63"/>
+      <c r="C223" s="62"/>
       <c r="D223" s="11" t="s">
         <v>115</v>
       </c>
@@ -8281,12 +8538,12 @@
       </c>
       <c r="F223" s="11"/>
       <c r="G223" s="11"/>
-      <c r="H223" s="63"/>
+      <c r="H223" s="62"/>
       <c r="I223" s="9"/>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B224" s="11"/>
-      <c r="C224" s="63"/>
+      <c r="C224" s="62"/>
       <c r="D224" s="11" t="s">
         <v>116</v>
       </c>
@@ -8295,12 +8552,12 @@
       </c>
       <c r="F224" s="11"/>
       <c r="G224" s="11"/>
-      <c r="H224" s="63"/>
+      <c r="H224" s="62"/>
       <c r="I224" s="9"/>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B225" s="11"/>
-      <c r="C225" s="63"/>
+      <c r="C225" s="62"/>
       <c r="D225" s="11" t="s">
         <v>115</v>
       </c>
@@ -8309,12 +8566,12 @@
       </c>
       <c r="F225" s="11"/>
       <c r="G225" s="11"/>
-      <c r="H225" s="63"/>
+      <c r="H225" s="62"/>
       <c r="I225" s="9"/>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B226" s="11"/>
-      <c r="C226" s="63"/>
+      <c r="C226" s="62"/>
       <c r="D226" s="11" t="s">
         <v>116</v>
       </c>
@@ -8323,12 +8580,12 @@
       </c>
       <c r="F226" s="11"/>
       <c r="G226" s="11"/>
-      <c r="H226" s="63"/>
+      <c r="H226" s="62"/>
       <c r="I226" s="9"/>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" s="11"/>
-      <c r="C227" s="63"/>
+      <c r="C227" s="62"/>
       <c r="D227" s="11" t="s">
         <v>115</v>
       </c>
@@ -8337,12 +8594,12 @@
       </c>
       <c r="F227" s="11"/>
       <c r="G227" s="11"/>
-      <c r="H227" s="63"/>
+      <c r="H227" s="62"/>
       <c r="I227" s="9"/>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" s="11"/>
-      <c r="C228" s="63"/>
+      <c r="C228" s="62"/>
       <c r="D228" s="11" t="s">
         <v>116</v>
       </c>
@@ -8351,12 +8608,12 @@
       </c>
       <c r="F228" s="11"/>
       <c r="G228" s="11"/>
-      <c r="H228" s="63"/>
+      <c r="H228" s="62"/>
       <c r="I228" s="9"/>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229" s="11"/>
-      <c r="C229" s="63"/>
+      <c r="C229" s="62"/>
       <c r="D229" s="11" t="s">
         <v>115</v>
       </c>
@@ -8365,12 +8622,12 @@
       </c>
       <c r="F229" s="11"/>
       <c r="G229" s="11"/>
-      <c r="H229" s="63"/>
+      <c r="H229" s="62"/>
       <c r="I229" s="9"/>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B230" s="11"/>
-      <c r="C230" s="63"/>
+      <c r="C230" s="62"/>
       <c r="D230" s="11" t="s">
         <v>116</v>
       </c>
@@ -8379,12 +8636,12 @@
       </c>
       <c r="F230" s="11"/>
       <c r="G230" s="11"/>
-      <c r="H230" s="63"/>
+      <c r="H230" s="62"/>
       <c r="I230" s="9"/>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B231" s="11"/>
-      <c r="C231" s="63"/>
+      <c r="C231" s="62"/>
       <c r="D231" s="11" t="s">
         <v>115</v>
       </c>
@@ -8393,11 +8650,11 @@
       </c>
       <c r="F231" s="11"/>
       <c r="G231" s="11"/>
-      <c r="H231" s="63"/>
+      <c r="H231" s="62"/>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B232" s="11"/>
-      <c r="C232" s="63"/>
+      <c r="C232" s="62"/>
       <c r="D232" s="11" t="s">
         <v>116</v>
       </c>
@@ -8406,11 +8663,11 @@
       </c>
       <c r="F232" s="11"/>
       <c r="G232" s="11"/>
-      <c r="H232" s="63"/>
+      <c r="H232" s="62"/>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B233" s="11"/>
-      <c r="C233" s="63"/>
+      <c r="C233" s="62"/>
       <c r="D233" s="11" t="s">
         <v>115</v>
       </c>
@@ -8419,11 +8676,11 @@
       </c>
       <c r="F233" s="11"/>
       <c r="G233" s="11"/>
-      <c r="H233" s="63"/>
+      <c r="H233" s="62"/>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B234" s="11"/>
-      <c r="C234" s="63"/>
+      <c r="C234" s="62"/>
       <c r="D234" s="11" t="s">
         <v>116</v>
       </c>
@@ -8432,11 +8689,11 @@
       </c>
       <c r="F234" s="11"/>
       <c r="G234" s="11"/>
-      <c r="H234" s="63"/>
+      <c r="H234" s="62"/>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B235" s="11"/>
-      <c r="C235" s="63"/>
+      <c r="C235" s="62"/>
       <c r="D235" s="11" t="s">
         <v>115</v>
       </c>
@@ -8445,11 +8702,11 @@
       </c>
       <c r="F235" s="11"/>
       <c r="G235" s="11"/>
-      <c r="H235" s="63"/>
+      <c r="H235" s="62"/>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B236" s="11"/>
-      <c r="C236" s="63"/>
+      <c r="C236" s="62"/>
       <c r="D236" s="11" t="s">
         <v>116</v>
       </c>
@@ -8458,11 +8715,11 @@
       </c>
       <c r="F236" s="11"/>
       <c r="G236" s="11"/>
-      <c r="H236" s="63"/>
+      <c r="H236" s="62"/>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B237" s="11"/>
-      <c r="C237" s="63"/>
+      <c r="C237" s="62"/>
       <c r="D237" s="11" t="s">
         <v>115</v>
       </c>
@@ -8471,11 +8728,11 @@
       </c>
       <c r="F237" s="11"/>
       <c r="G237" s="11"/>
-      <c r="H237" s="63"/>
+      <c r="H237" s="62"/>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B238" s="11"/>
-      <c r="C238" s="63"/>
+      <c r="C238" s="62"/>
       <c r="D238" s="11" t="s">
         <v>116</v>
       </c>
@@ -8484,11 +8741,11 @@
       </c>
       <c r="F238" s="11"/>
       <c r="G238" s="11"/>
-      <c r="H238" s="63"/>
+      <c r="H238" s="62"/>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B239" s="11"/>
-      <c r="C239" s="63"/>
+      <c r="C239" s="62"/>
       <c r="D239" s="11" t="s">
         <v>115</v>
       </c>
@@ -8497,11 +8754,11 @@
       </c>
       <c r="F239" s="11"/>
       <c r="G239" s="11"/>
-      <c r="H239" s="63"/>
+      <c r="H239" s="62"/>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B240" s="11"/>
-      <c r="C240" s="63"/>
+      <c r="C240" s="62"/>
       <c r="D240" s="11" t="s">
         <v>116</v>
       </c>
@@ -8510,11 +8767,11 @@
       </c>
       <c r="F240" s="11"/>
       <c r="G240" s="11"/>
-      <c r="H240" s="63"/>
+      <c r="H240" s="62"/>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="11"/>
-      <c r="C241" s="63"/>
+      <c r="C241" s="62"/>
       <c r="D241" s="11" t="s">
         <v>115</v>
       </c>
@@ -8523,11 +8780,11 @@
       </c>
       <c r="F241" s="11"/>
       <c r="G241" s="11"/>
-      <c r="H241" s="63"/>
+      <c r="H241" s="62"/>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="11"/>
-      <c r="C242" s="63"/>
+      <c r="C242" s="62"/>
       <c r="D242" s="11" t="s">
         <v>116</v>
       </c>
@@ -8536,11 +8793,11 @@
       </c>
       <c r="F242" s="11"/>
       <c r="G242" s="11"/>
-      <c r="H242" s="63"/>
+      <c r="H242" s="62"/>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="11"/>
-      <c r="C243" s="63"/>
+      <c r="C243" s="62"/>
       <c r="D243" s="11" t="s">
         <v>115</v>
       </c>
@@ -8549,11 +8806,11 @@
       </c>
       <c r="F243" s="11"/>
       <c r="G243" s="11"/>
-      <c r="H243" s="63"/>
+      <c r="H243" s="62"/>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" s="11"/>
-      <c r="C244" s="63"/>
+      <c r="C244" s="62"/>
       <c r="D244" s="11" t="s">
         <v>116</v>
       </c>
@@ -8562,11 +8819,11 @@
       </c>
       <c r="F244" s="11"/>
       <c r="G244" s="11"/>
-      <c r="H244" s="63"/>
+      <c r="H244" s="62"/>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="11"/>
-      <c r="C245" s="63"/>
+      <c r="C245" s="62"/>
       <c r="D245" s="11" t="s">
         <v>115</v>
       </c>
@@ -8575,11 +8832,11 @@
       </c>
       <c r="F245" s="11"/>
       <c r="G245" s="11"/>
-      <c r="H245" s="63"/>
+      <c r="H245" s="62"/>
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="11"/>
-      <c r="C246" s="63"/>
+      <c r="C246" s="62"/>
       <c r="D246" s="11" t="s">
         <v>116</v>
       </c>
@@ -8588,11 +8845,11 @@
       </c>
       <c r="F246" s="11"/>
       <c r="G246" s="11"/>
-      <c r="H246" s="63"/>
+      <c r="H246" s="62"/>
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" s="11"/>
-      <c r="C247" s="63"/>
+      <c r="C247" s="62"/>
       <c r="D247" s="11" t="s">
         <v>115</v>
       </c>
@@ -8601,11 +8858,11 @@
       </c>
       <c r="F247" s="11"/>
       <c r="G247" s="11"/>
-      <c r="H247" s="63"/>
+      <c r="H247" s="62"/>
     </row>
     <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" s="11"/>
-      <c r="C248" s="63"/>
+      <c r="C248" s="62"/>
       <c r="D248" s="11" t="s">
         <v>116</v>
       </c>
@@ -8614,11 +8871,11 @@
       </c>
       <c r="F248" s="11"/>
       <c r="G248" s="11"/>
-      <c r="H248" s="63"/>
+      <c r="H248" s="62"/>
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" s="11"/>
-      <c r="C249" s="63"/>
+      <c r="C249" s="62"/>
       <c r="D249" s="11" t="s">
         <v>115</v>
       </c>
@@ -8627,11 +8884,11 @@
       </c>
       <c r="F249" s="11"/>
       <c r="G249" s="11"/>
-      <c r="H249" s="63"/>
+      <c r="H249" s="62"/>
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" s="11"/>
-      <c r="C250" s="63"/>
+      <c r="C250" s="62"/>
       <c r="D250" s="11" t="s">
         <v>116</v>
       </c>
@@ -8640,11 +8897,11 @@
       </c>
       <c r="F250" s="11"/>
       <c r="G250" s="11"/>
-      <c r="H250" s="63"/>
+      <c r="H250" s="62"/>
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" s="11"/>
-      <c r="C251" s="63"/>
+      <c r="C251" s="62"/>
       <c r="D251" s="11" t="s">
         <v>115</v>
       </c>
@@ -8653,11 +8910,11 @@
       </c>
       <c r="F251" s="11"/>
       <c r="G251" s="11"/>
-      <c r="H251" s="63"/>
+      <c r="H251" s="62"/>
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" s="11"/>
-      <c r="C252" s="63"/>
+      <c r="C252" s="62"/>
       <c r="D252" s="11" t="s">
         <v>116</v>
       </c>
@@ -8666,11 +8923,11 @@
       </c>
       <c r="F252" s="11"/>
       <c r="G252" s="11"/>
-      <c r="H252" s="63"/>
+      <c r="H252" s="62"/>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" s="11"/>
-      <c r="C253" s="63"/>
+      <c r="C253" s="62"/>
       <c r="D253" s="11" t="s">
         <v>115</v>
       </c>
@@ -8679,11 +8936,11 @@
       </c>
       <c r="F253" s="11"/>
       <c r="G253" s="11"/>
-      <c r="H253" s="63"/>
+      <c r="H253" s="62"/>
     </row>
     <row r="254" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B254" s="12"/>
-      <c r="C254" s="64"/>
+      <c r="C254" s="63"/>
       <c r="D254" s="12" t="s">
         <v>116</v>
       </c>
@@ -8692,13 +8949,264 @@
       </c>
       <c r="F254" s="12"/>
       <c r="G254" s="12"/>
-      <c r="H254" s="64"/>
+      <c r="H254" s="63"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C156">
     <sortCondition ref="C2"/>
   </sortState>
   <mergeCells count="275">
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="H241:H242"/>
+    <mergeCell ref="H243:H244"/>
+    <mergeCell ref="H245:H246"/>
+    <mergeCell ref="H209:H210"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="H215:H216"/>
+    <mergeCell ref="H217:H218"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="H183:H184"/>
+    <mergeCell ref="H185:H186"/>
+    <mergeCell ref="H187:H188"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="H201:H202"/>
+    <mergeCell ref="H247:H248"/>
+    <mergeCell ref="H249:H250"/>
+    <mergeCell ref="H251:H252"/>
+    <mergeCell ref="H253:H254"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="H223:H224"/>
+    <mergeCell ref="H225:H226"/>
+    <mergeCell ref="H227:H228"/>
+    <mergeCell ref="H229:H230"/>
+    <mergeCell ref="H231:H232"/>
+    <mergeCell ref="H233:H234"/>
+    <mergeCell ref="H235:H236"/>
+    <mergeCell ref="H237:H238"/>
+    <mergeCell ref="H239:H240"/>
+    <mergeCell ref="H205:H206"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="H203:H204"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="H167:H168"/>
+    <mergeCell ref="H169:H170"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="H175:H176"/>
+    <mergeCell ref="H181:H182"/>
+    <mergeCell ref="H177:H178"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="H197:H198"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="H179:H180"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="C241:C242"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="H153:H154"/>
     <mergeCell ref="C87:C88"/>
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="C91:C92"/>
@@ -8723,257 +9231,6 @@
     <mergeCell ref="H101:H102"/>
     <mergeCell ref="H111:H112"/>
     <mergeCell ref="H113:H114"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="H153:H154"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="C241:C242"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="H203:H204"/>
-    <mergeCell ref="H163:H164"/>
-    <mergeCell ref="H165:H166"/>
-    <mergeCell ref="H167:H168"/>
-    <mergeCell ref="H169:H170"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="H175:H176"/>
-    <mergeCell ref="H181:H182"/>
-    <mergeCell ref="H177:H178"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="H197:H198"/>
-    <mergeCell ref="H171:H172"/>
-    <mergeCell ref="H179:H180"/>
-    <mergeCell ref="H247:H248"/>
-    <mergeCell ref="H249:H250"/>
-    <mergeCell ref="H251:H252"/>
-    <mergeCell ref="H253:H254"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="H223:H224"/>
-    <mergeCell ref="H225:H226"/>
-    <mergeCell ref="H227:H228"/>
-    <mergeCell ref="H229:H230"/>
-    <mergeCell ref="H231:H232"/>
-    <mergeCell ref="H233:H234"/>
-    <mergeCell ref="H235:H236"/>
-    <mergeCell ref="H237:H238"/>
-    <mergeCell ref="H239:H240"/>
-    <mergeCell ref="H205:H206"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="H241:H242"/>
-    <mergeCell ref="H243:H244"/>
-    <mergeCell ref="H245:H246"/>
-    <mergeCell ref="H209:H210"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="H215:H216"/>
-    <mergeCell ref="H217:H218"/>
-    <mergeCell ref="H219:H220"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="H183:H184"/>
-    <mergeCell ref="H185:H186"/>
-    <mergeCell ref="H187:H188"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="H191:H192"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="H201:H202"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8984,8 +9241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G8"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9001,14 +9258,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="74" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J3" t="s">
@@ -9036,10 +9293,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="72" t="s">
         <v>333</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="67" t="s">
         <v>281</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -9051,7 +9308,7 @@
       <c r="F5" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="67" t="s">
         <v>565</v>
       </c>
       <c r="J5" t="s">
@@ -9059,8 +9316,8 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="67"/>
-      <c r="C6" s="64"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="17" t="s">
         <v>573</v>
       </c>
@@ -9070,16 +9327,16 @@
       <c r="F6" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="G6" s="64"/>
+      <c r="G6" s="63"/>
       <c r="J6" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="72" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="67" t="s">
         <v>676</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -9091,13 +9348,13 @@
       <c r="F7" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="67" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="9" t="s">
         <v>670</v>
       </c>
@@ -9107,11 +9364,11 @@
       <c r="F8" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="G8" s="63"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="62" t="s">
         <v>215</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -9123,13 +9380,13 @@
       <c r="F9" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="62" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
-      <c r="C10" s="63"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="9" t="s">
         <v>679</v>
       </c>
@@ -9139,11 +9396,11 @@
       <c r="F10" s="30" t="s">
         <v>680</v>
       </c>
-      <c r="G10" s="63"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="62" t="s">
         <v>216</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -9155,13 +9412,13 @@
       <c r="F11" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="62" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="63"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="9" t="s">
         <v>218</v>
       </c>
@@ -9171,11 +9428,11 @@
       <c r="F12" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="G12" s="63"/>
+      <c r="G12" s="62"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="62" t="s">
         <v>257</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -9187,11 +9444,11 @@
       <c r="F13" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G13" s="63"/>
+      <c r="G13" s="62"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
-      <c r="C14" s="63"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="9" t="s">
         <v>261</v>
       </c>
@@ -9201,11 +9458,11 @@
       <c r="F14" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G14" s="63"/>
+      <c r="G14" s="62"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="62" t="s">
         <v>687</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -9217,13 +9474,13 @@
       <c r="F15" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="62" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
-      <c r="C16" s="63"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="9" t="s">
         <v>689</v>
       </c>
@@ -9233,11 +9490,11 @@
       <c r="F16" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="G16" s="63"/>
+      <c r="G16" s="62"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="62" t="s">
         <v>779</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -9247,7 +9504,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="30"/>
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="62" t="s">
         <v>706</v>
       </c>
       <c r="H17" t="s">
@@ -9256,7 +9513,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="63"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="9" t="s">
         <v>715</v>
       </c>
@@ -9264,14 +9521,14 @@
         <v>2</v>
       </c>
       <c r="F18" s="30"/>
-      <c r="G18" s="63"/>
+      <c r="G18" s="62"/>
       <c r="H18" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="62" t="s">
         <v>780</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -9281,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="62" t="s">
         <v>606</v>
       </c>
       <c r="H19" s="40" t="s">
@@ -9290,7 +9547,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
-      <c r="C20" s="63"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="9" t="s">
         <v>648</v>
       </c>
@@ -9298,14 +9555,14 @@
         <v>2</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="63"/>
+      <c r="G20" s="62"/>
       <c r="H20" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="62" t="s">
         <v>654</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -9317,13 +9574,13 @@
       <c r="F21" s="30" t="s">
         <v>657</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="62" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
-      <c r="C22" s="63"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="9" t="s">
         <v>656</v>
       </c>
@@ -9333,11 +9590,11 @@
       <c r="F22" s="30" t="s">
         <v>658</v>
       </c>
-      <c r="G22" s="63"/>
+      <c r="G22" s="62"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="62" t="s">
         <v>782</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -9349,7 +9606,7 @@
       <c r="F23" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="G23" s="63" t="s">
+      <c r="G23" s="62" t="s">
         <v>565</v>
       </c>
       <c r="H23" t="s">
@@ -9358,7 +9615,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
-      <c r="C24" s="63"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="9" t="s">
         <v>313</v>
       </c>
@@ -9368,14 +9625,14 @@
       <c r="F24" s="38" t="s">
         <v>494</v>
       </c>
-      <c r="G24" s="63"/>
+      <c r="G24" s="62"/>
       <c r="H24" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="62" t="s">
         <v>188</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -9387,11 +9644,11 @@
       <c r="F25" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="G25" s="63"/>
+      <c r="G25" s="62"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
-      <c r="C26" s="64"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="17" t="s">
         <v>190</v>
       </c>
@@ -9401,13 +9658,13 @@
       <c r="F26" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="G26" s="64"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="62" t="s">
         <v>692</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -9419,13 +9676,13 @@
       <c r="F27" s="30" t="s">
         <v>694</v>
       </c>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="62" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="67"/>
-      <c r="C28" s="63"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="9" t="s">
         <v>695</v>
       </c>
@@ -9435,11 +9692,11 @@
       <c r="F28" s="30" t="s">
         <v>696</v>
       </c>
-      <c r="G28" s="63"/>
+      <c r="G28" s="62"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="29"/>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="62" t="s">
         <v>197</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -9451,11 +9708,11 @@
       <c r="F29" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="G29" s="63"/>
+      <c r="G29" s="62"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="29"/>
-      <c r="C30" s="63"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="9" t="s">
         <v>199</v>
       </c>
@@ -9465,11 +9722,11 @@
       <c r="F30" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="G30" s="63"/>
+      <c r="G30" s="62"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="62" t="s">
         <v>244</v>
       </c>
       <c r="D31" s="9" t="s">
@@ -9481,11 +9738,11 @@
       <c r="F31" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="G31" s="63"/>
+      <c r="G31" s="62"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
-      <c r="C32" s="63"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="9" t="s">
         <v>246</v>
       </c>
@@ -9495,11 +9752,11 @@
       <c r="F32" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="G32" s="63"/>
+      <c r="G32" s="62"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="62" t="s">
         <v>649</v>
       </c>
       <c r="D33" s="9" t="s">
@@ -9511,13 +9768,13 @@
       <c r="F33" s="30" t="s">
         <v>651</v>
       </c>
-      <c r="G33" s="63" t="s">
+      <c r="G33" s="62" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
-      <c r="C34" s="63"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="9" t="s">
         <v>652</v>
       </c>
@@ -9527,11 +9784,11 @@
       <c r="F34" s="30" t="s">
         <v>653</v>
       </c>
-      <c r="G34" s="63"/>
+      <c r="G34" s="62"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="62" t="s">
         <v>336</v>
       </c>
       <c r="D35" t="s">
@@ -9543,13 +9800,13 @@
       <c r="F35" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="62" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
-      <c r="C36" s="63"/>
+      <c r="C36" s="62"/>
       <c r="D36" t="s">
         <v>856</v>
       </c>
@@ -9559,11 +9816,11 @@
       <c r="F36" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="G36" s="63"/>
+      <c r="G36" s="62"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="62" t="s">
         <v>209</v>
       </c>
       <c r="D37" s="9" t="s">
@@ -9575,13 +9832,13 @@
       <c r="F37" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="G37" s="63" t="s">
+      <c r="G37" s="62" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
-      <c r="C38" s="63"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="9" t="s">
         <v>211</v>
       </c>
@@ -9591,11 +9848,11 @@
       <c r="F38" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="G38" s="63"/>
+      <c r="G38" s="62"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="62" t="s">
         <v>799</v>
       </c>
       <c r="D39" s="40" t="s">
@@ -9607,13 +9864,13 @@
       <c r="F39" s="40" t="s">
         <v>800</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="62" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
-      <c r="C40" s="63"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="40" t="s">
         <v>798</v>
       </c>
@@ -9623,11 +9880,11 @@
       <c r="F40" s="40" t="s">
         <v>801</v>
       </c>
-      <c r="G40" s="63"/>
+      <c r="G40" s="62"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="62" t="s">
         <v>101</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -9639,13 +9896,13 @@
       <c r="F41" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="G41" s="63" t="s">
+      <c r="G41" s="62" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
-      <c r="C42" s="63"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="9" t="s">
         <v>697</v>
       </c>
@@ -9655,11 +9912,11 @@
       <c r="F42" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="G42" s="63"/>
+      <c r="G42" s="62"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="62" t="s">
         <v>708</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -9669,13 +9926,13 @@
         <v>1</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="63" t="s">
+      <c r="G43" s="62" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
-      <c r="C44" s="63"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="9" t="s">
         <v>710</v>
       </c>
@@ -9683,11 +9940,11 @@
         <v>2</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="G44" s="63"/>
+      <c r="G44" s="62"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="62" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="9" t="s">
@@ -9699,11 +9956,11 @@
       <c r="F45" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="G45" s="63"/>
+      <c r="G45" s="62"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
-      <c r="C46" s="63"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="9" t="s">
         <v>268</v>
       </c>
@@ -9713,11 +9970,11 @@
       <c r="F46" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="G46" s="63"/>
+      <c r="G46" s="62"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="62" t="s">
         <v>203</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -9729,11 +9986,11 @@
       <c r="F47" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="G47" s="63"/>
+      <c r="G47" s="62"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
-      <c r="C48" s="63"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="9" t="s">
         <v>205</v>
       </c>
@@ -9743,11 +10000,11 @@
       <c r="F48" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="G48" s="63"/>
+      <c r="G48" s="62"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="11"/>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="62" t="s">
         <v>219</v>
       </c>
       <c r="D49" s="9" t="s">
@@ -9759,11 +10016,11 @@
       <c r="F49" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="G49" s="63"/>
+      <c r="G49" s="62"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="12"/>
-      <c r="C50" s="64"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="17" t="s">
         <v>221</v>
       </c>
@@ -9773,13 +10030,13 @@
       <c r="F50" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="G50" s="64"/>
+      <c r="G50" s="63"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="C51" s="63" t="s">
+      <c r="C51" s="62" t="s">
         <v>301</v>
       </c>
       <c r="D51" s="9" t="s">
@@ -9791,13 +10048,13 @@
       <c r="F51" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="G51" s="63" t="s">
+      <c r="G51" s="62" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="67"/>
-      <c r="C52" s="63"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="9" t="s">
         <v>566</v>
       </c>
@@ -9807,11 +10064,11 @@
       <c r="F52" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="G52" s="63"/>
+      <c r="G52" s="62"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="62" t="s">
         <v>303</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -9823,13 +10080,13 @@
       <c r="F53" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="G53" s="63" t="s">
+      <c r="G53" s="62" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="11"/>
-      <c r="C54" s="63"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="9" t="s">
         <v>305</v>
       </c>
@@ -9839,11 +10096,11 @@
       <c r="F54" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="G54" s="63"/>
+      <c r="G54" s="62"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="11"/>
-      <c r="C55" s="63" t="s">
+      <c r="C55" s="62" t="s">
         <v>306</v>
       </c>
       <c r="D55" s="9" t="s">
@@ -9855,13 +10112,13 @@
       <c r="F55" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="G55" s="63" t="s">
+      <c r="G55" s="62" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="11"/>
-      <c r="C56" s="63"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="9" t="s">
         <v>569</v>
       </c>
@@ -9871,11 +10128,11 @@
       <c r="F56" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="G56" s="63"/>
+      <c r="G56" s="62"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="11"/>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="62" t="s">
         <v>308</v>
       </c>
       <c r="D57" s="9" t="s">
@@ -9887,13 +10144,13 @@
       <c r="F57" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="G57" s="63" t="s">
+      <c r="G57" s="62" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="12"/>
-      <c r="C58" s="64"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="17" t="s">
         <v>570</v>
       </c>
@@ -9903,13 +10160,13 @@
       <c r="F58" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="G58" s="64"/>
+      <c r="G58" s="63"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="72" t="s">
         <v>320</v>
       </c>
-      <c r="C59" s="68" t="s">
+      <c r="C59" s="67" t="s">
         <v>247</v>
       </c>
       <c r="D59" s="18" t="s">
@@ -9921,11 +10178,11 @@
       <c r="F59" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="G59" s="68"/>
+      <c r="G59" s="67"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="67"/>
-      <c r="C60" s="63"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="11" t="s">
         <v>249</v>
       </c>
@@ -9935,11 +10192,11 @@
       <c r="F60" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="G60" s="63"/>
+      <c r="G60" s="62"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="28"/>
-      <c r="C61" s="63" t="s">
+      <c r="C61" s="62" t="s">
         <v>792</v>
       </c>
       <c r="D61" s="9" t="s">
@@ -9951,13 +10208,13 @@
       <c r="F61" s="30" t="s">
         <v>644</v>
       </c>
-      <c r="G61" s="63" t="s">
+      <c r="G61" s="62" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="28"/>
-      <c r="C62" s="63"/>
+      <c r="C62" s="62"/>
       <c r="D62" s="9" t="s">
         <v>645</v>
       </c>
@@ -9967,11 +10224,11 @@
       <c r="F62" s="30" t="s">
         <v>646</v>
       </c>
-      <c r="G62" s="63"/>
+      <c r="G62" s="62"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="28"/>
-      <c r="C63" s="63" t="s">
+      <c r="C63" s="62" t="s">
         <v>638</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -9983,13 +10240,13 @@
       <c r="F63" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="G63" s="63" t="s">
+      <c r="G63" s="62" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="28"/>
-      <c r="C64" s="64"/>
+      <c r="C64" s="63"/>
       <c r="D64" s="17" t="s">
         <v>640</v>
       </c>
@@ -9999,13 +10256,13 @@
       <c r="F64" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="G64" s="64"/>
+      <c r="G64" s="63"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="66" t="s">
+      <c r="B65" s="72" t="s">
         <v>321</v>
       </c>
-      <c r="C65" s="68" t="s">
+      <c r="C65" s="67" t="s">
         <v>591</v>
       </c>
       <c r="D65" s="9" t="s">
@@ -10017,13 +10274,13 @@
       <c r="F65" s="30" t="s">
         <v>590</v>
       </c>
-      <c r="G65" s="63" t="s">
+      <c r="G65" s="62" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="67"/>
-      <c r="C66" s="64"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="9" t="s">
         <v>588</v>
       </c>
@@ -10033,13 +10290,13 @@
       <c r="F66" s="30" t="s">
         <v>589</v>
       </c>
-      <c r="G66" s="64"/>
+      <c r="G66" s="63"/>
     </row>
     <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="66" t="s">
+      <c r="B67" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="C67" s="68" t="s">
+      <c r="C67" s="67" t="s">
         <v>285</v>
       </c>
       <c r="D67" s="18" t="s">
@@ -10051,16 +10308,16 @@
       <c r="F67" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="G67" s="68" t="s">
+      <c r="G67" s="67" t="s">
         <v>666</v>
       </c>
-      <c r="H67" s="75" t="s">
+      <c r="H67" s="64" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="67"/>
-      <c r="C68" s="64"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="63"/>
       <c r="D68" s="17" t="s">
         <v>665</v>
       </c>
@@ -10070,14 +10327,14 @@
       <c r="F68" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="G68" s="64"/>
-      <c r="H68" s="75"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="64"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="66" t="s">
+      <c r="B69" s="72" t="s">
         <v>323</v>
       </c>
-      <c r="C69" s="63" t="s">
+      <c r="C69" s="62" t="s">
         <v>270</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -10089,11 +10346,11 @@
       <c r="F69" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="G69" s="63"/>
+      <c r="G69" s="62"/>
     </row>
     <row r="70" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="67"/>
-      <c r="C70" s="63"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="62"/>
       <c r="D70" s="9" t="s">
         <v>272</v>
       </c>
@@ -10103,11 +10360,11 @@
       <c r="F70" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="G70" s="63"/>
+      <c r="G70" s="62"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="11"/>
-      <c r="C71" s="63" t="s">
+      <c r="C71" s="62" t="s">
         <v>239</v>
       </c>
       <c r="D71" s="9" t="s">
@@ -10119,11 +10376,11 @@
       <c r="F71" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="G71" s="63"/>
+      <c r="G71" s="62"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="11"/>
-      <c r="C72" s="63"/>
+      <c r="C72" s="62"/>
       <c r="D72" s="9" t="s">
         <v>241</v>
       </c>
@@ -10133,11 +10390,11 @@
       <c r="F72" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="G72" s="63"/>
+      <c r="G72" s="62"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="11"/>
-      <c r="C73" s="63" t="s">
+      <c r="C73" s="62" t="s">
         <v>262</v>
       </c>
       <c r="D73" s="9" t="s">
@@ -10149,13 +10406,13 @@
       <c r="F73" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="G73" s="63" t="s">
+      <c r="G73" s="62" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="11"/>
-      <c r="C74" s="63"/>
+      <c r="C74" s="62"/>
       <c r="D74" s="9" t="s">
         <v>264</v>
       </c>
@@ -10165,11 +10422,11 @@
       <c r="F74" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="G74" s="63"/>
+      <c r="G74" s="62"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="11"/>
-      <c r="C75" s="63" t="s">
+      <c r="C75" s="62" t="s">
         <v>300</v>
       </c>
       <c r="D75" s="9" t="s">
@@ -10181,13 +10438,13 @@
       <c r="F75" s="30" t="s">
         <v>595</v>
       </c>
-      <c r="G75" s="63" t="s">
+      <c r="G75" s="62" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="11"/>
-      <c r="C76" s="63"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="9" t="s">
         <v>593</v>
       </c>
@@ -10197,11 +10454,11 @@
       <c r="F76" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="G76" s="63"/>
+      <c r="G76" s="62"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="11"/>
-      <c r="C77" s="63" t="s">
+      <c r="C77" s="62" t="s">
         <v>788</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -10213,13 +10470,13 @@
       <c r="F77" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="G77" s="63" t="s">
+      <c r="G77" s="62" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="12"/>
-      <c r="C78" s="64"/>
+      <c r="C78" s="63"/>
       <c r="D78" s="17" t="s">
         <v>598</v>
       </c>
@@ -10229,13 +10486,13 @@
       <c r="F78" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="G78" s="64"/>
+      <c r="G78" s="63"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="66" t="s">
+      <c r="B79" s="72" t="s">
         <v>324</v>
       </c>
-      <c r="C79" s="63" t="s">
+      <c r="C79" s="62" t="s">
         <v>250</v>
       </c>
       <c r="D79" s="9" t="s">
@@ -10247,11 +10504,11 @@
       <c r="F79" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="G79" s="63"/>
+      <c r="G79" s="62"/>
     </row>
     <row r="80" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="67"/>
-      <c r="C80" s="63"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="62"/>
       <c r="D80" s="9" t="s">
         <v>252</v>
       </c>
@@ -10261,11 +10518,11 @@
       <c r="F80" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="G80" s="63"/>
+      <c r="G80" s="62"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="11"/>
-      <c r="C81" s="63" t="s">
+      <c r="C81" s="62" t="s">
         <v>297</v>
       </c>
       <c r="D81" s="9" t="s">
@@ -10277,13 +10534,13 @@
       <c r="F81" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="G81" s="63" t="s">
+      <c r="G81" s="62" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="11"/>
-      <c r="C82" s="63"/>
+      <c r="C82" s="62"/>
       <c r="D82" s="9" t="s">
         <v>299</v>
       </c>
@@ -10293,11 +10550,11 @@
       <c r="F82" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="G82" s="63"/>
+      <c r="G82" s="62"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="11"/>
-      <c r="C83" s="63" t="s">
+      <c r="C83" s="62" t="s">
         <v>294</v>
       </c>
       <c r="D83" s="9" t="s">
@@ -10309,13 +10566,13 @@
       <c r="F83" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="G83" s="63" t="s">
+      <c r="G83" s="62" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="11"/>
-      <c r="C84" s="63"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="9" t="s">
         <v>296</v>
       </c>
@@ -10325,11 +10582,11 @@
       <c r="F84" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="G84" s="63"/>
+      <c r="G84" s="62"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="11"/>
-      <c r="C85" s="63" t="s">
+      <c r="C85" s="62" t="s">
         <v>601</v>
       </c>
       <c r="D85" s="9" t="s">
@@ -10341,13 +10598,13 @@
       <c r="F85" s="30" t="s">
         <v>603</v>
       </c>
-      <c r="G85" s="63" t="s">
+      <c r="G85" s="62" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="11"/>
-      <c r="C86" s="63"/>
+      <c r="C86" s="62"/>
       <c r="D86" s="9" t="s">
         <v>604</v>
       </c>
@@ -10357,11 +10614,11 @@
       <c r="F86" s="30" t="s">
         <v>605</v>
       </c>
-      <c r="G86" s="63"/>
+      <c r="G86" s="62"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="11"/>
-      <c r="C87" s="63" t="s">
+      <c r="C87" s="62" t="s">
         <v>180</v>
       </c>
       <c r="D87" s="9" t="s">
@@ -10373,11 +10630,11 @@
       <c r="F87" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="G87" s="63"/>
+      <c r="G87" s="62"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="11"/>
-      <c r="C88" s="63"/>
+      <c r="C88" s="62"/>
       <c r="D88" s="9" t="s">
         <v>182</v>
       </c>
@@ -10387,11 +10644,11 @@
       <c r="F88" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="G88" s="63"/>
+      <c r="G88" s="62"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="11"/>
-      <c r="C89" s="63" t="s">
+      <c r="C89" s="62" t="s">
         <v>200</v>
       </c>
       <c r="D89" s="9" t="s">
@@ -10403,11 +10660,11 @@
       <c r="F89" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="G89" s="63"/>
+      <c r="G89" s="62"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="11"/>
-      <c r="C90" s="63"/>
+      <c r="C90" s="62"/>
       <c r="D90" s="9" t="s">
         <v>202</v>
       </c>
@@ -10417,11 +10674,11 @@
       <c r="F90" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="G90" s="63"/>
+      <c r="G90" s="62"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="11"/>
-      <c r="C91" s="63" t="s">
+      <c r="C91" s="62" t="s">
         <v>181</v>
       </c>
       <c r="D91" s="9" t="s">
@@ -10433,11 +10690,11 @@
       <c r="F91" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="G91" s="63"/>
+      <c r="G91" s="62"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="11"/>
-      <c r="C92" s="63"/>
+      <c r="C92" s="62"/>
       <c r="D92" s="9" t="s">
         <v>184</v>
       </c>
@@ -10447,11 +10704,11 @@
       <c r="F92" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="G92" s="63"/>
+      <c r="G92" s="62"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="11"/>
-      <c r="C93" s="63" t="s">
+      <c r="C93" s="62" t="s">
         <v>222</v>
       </c>
       <c r="D93" s="9" t="s">
@@ -10463,11 +10720,11 @@
       <c r="F93" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="G93" s="63"/>
+      <c r="G93" s="62"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="11"/>
-      <c r="C94" s="63"/>
+      <c r="C94" s="62"/>
       <c r="D94" s="9" t="s">
         <v>224</v>
       </c>
@@ -10477,11 +10734,11 @@
       <c r="F94" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="G94" s="63"/>
+      <c r="G94" s="62"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="11"/>
-      <c r="C95" s="63" t="s">
+      <c r="C95" s="62" t="s">
         <v>954</v>
       </c>
       <c r="D95" s="9" t="s">
@@ -10493,13 +10750,13 @@
       <c r="F95" s="30" t="s">
         <v>957</v>
       </c>
-      <c r="G95" s="63" t="s">
+      <c r="G95" s="62" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="11"/>
-      <c r="C96" s="63"/>
+      <c r="C96" s="62"/>
       <c r="D96" s="9" t="s">
         <v>956</v>
       </c>
@@ -10509,11 +10766,11 @@
       <c r="F96" s="30" t="s">
         <v>958</v>
       </c>
-      <c r="G96" s="63"/>
+      <c r="G96" s="62"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="11"/>
-      <c r="C97" s="63" t="s">
+      <c r="C97" s="62" t="s">
         <v>659</v>
       </c>
       <c r="D97" s="9" t="s">
@@ -10525,13 +10782,13 @@
       <c r="F97" s="30" t="s">
         <v>660</v>
       </c>
-      <c r="G97" s="63" t="s">
+      <c r="G97" s="62" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="11"/>
-      <c r="C98" s="63"/>
+      <c r="C98" s="62"/>
       <c r="D98" s="9" t="s">
         <v>662</v>
       </c>
@@ -10541,11 +10798,11 @@
       <c r="F98" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="G98" s="63"/>
+      <c r="G98" s="62"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="11"/>
-      <c r="C99" s="63" t="s">
+      <c r="C99" s="62" t="s">
         <v>291</v>
       </c>
       <c r="D99" s="9" t="s">
@@ -10557,11 +10814,11 @@
       <c r="F99" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="G99" s="63"/>
+      <c r="G99" s="62"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="11"/>
-      <c r="C100" s="63"/>
+      <c r="C100" s="62"/>
       <c r="D100" s="9" t="s">
         <v>293</v>
       </c>
@@ -10571,11 +10828,11 @@
       <c r="F100" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="G100" s="63"/>
+      <c r="G100" s="62"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="11"/>
-      <c r="C101" s="63" t="s">
+      <c r="C101" s="62" t="s">
         <v>288</v>
       </c>
       <c r="D101" s="9" t="s">
@@ -10587,11 +10844,11 @@
       <c r="F101" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="G101" s="63"/>
+      <c r="G101" s="62"/>
     </row>
     <row r="102" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="12"/>
-      <c r="C102" s="64"/>
+      <c r="C102" s="63"/>
       <c r="D102" s="17" t="s">
         <v>290</v>
       </c>
@@ -10601,13 +10858,13 @@
       <c r="F102" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="G102" s="64"/>
+      <c r="G102" s="63"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="66" t="s">
+      <c r="B103" s="72" t="s">
         <v>334</v>
       </c>
-      <c r="C103" s="68" t="s">
+      <c r="C103" s="67" t="s">
         <v>206</v>
       </c>
       <c r="D103" s="18" t="s">
@@ -10619,11 +10876,11 @@
       <c r="F103" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="G103" s="68"/>
+      <c r="G103" s="67"/>
     </row>
     <row r="104" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="67"/>
-      <c r="C104" s="64"/>
+      <c r="B104" s="73"/>
+      <c r="C104" s="63"/>
       <c r="D104" s="17" t="s">
         <v>208</v>
       </c>
@@ -10633,13 +10890,13 @@
       <c r="F104" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="G104" s="64"/>
+      <c r="G104" s="63"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="66" t="s">
+      <c r="B105" s="72" t="s">
         <v>325</v>
       </c>
-      <c r="C105" s="63" t="s">
+      <c r="C105" s="62" t="s">
         <v>783</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -10651,7 +10908,7 @@
       <c r="F105" s="38" t="s">
         <v>755</v>
       </c>
-      <c r="G105" s="63" t="s">
+      <c r="G105" s="62" t="s">
         <v>565</v>
       </c>
       <c r="H105" t="s">
@@ -10659,8 +10916,8 @@
       </c>
     </row>
     <row r="106" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="67"/>
-      <c r="C106" s="63"/>
+      <c r="B106" s="73"/>
+      <c r="C106" s="62"/>
       <c r="D106" s="9" t="s">
         <v>571</v>
       </c>
@@ -10670,14 +10927,14 @@
       <c r="F106" s="38" t="s">
         <v>756</v>
       </c>
-      <c r="G106" s="63"/>
+      <c r="G106" s="62"/>
       <c r="H106" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="11"/>
-      <c r="C107" s="63" t="s">
+      <c r="C107" s="62" t="s">
         <v>225</v>
       </c>
       <c r="D107" s="9" t="s">
@@ -10689,11 +10946,11 @@
       <c r="F107" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G107" s="63"/>
+      <c r="G107" s="62"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="11"/>
-      <c r="C108" s="63"/>
+      <c r="C108" s="62"/>
       <c r="D108" s="9" t="s">
         <v>227</v>
       </c>
@@ -10703,11 +10960,11 @@
       <c r="F108" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G108" s="63"/>
+      <c r="G108" s="62"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="11"/>
-      <c r="C109" s="63" t="s">
+      <c r="C109" s="62" t="s">
         <v>558</v>
       </c>
       <c r="D109" s="9" t="s">
@@ -10725,7 +10982,7 @@
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="11"/>
-      <c r="C110" s="63"/>
+      <c r="C110" s="62"/>
       <c r="D110" s="9" t="s">
         <v>567</v>
       </c>
@@ -10739,7 +10996,7 @@
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="11"/>
-      <c r="C111" s="63" t="s">
+      <c r="C111" s="62" t="s">
         <v>559</v>
       </c>
       <c r="D111" s="9" t="s">
@@ -10751,11 +11008,11 @@
       <c r="F111" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="G111" s="63"/>
+      <c r="G111" s="62"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="11"/>
-      <c r="C112" s="63"/>
+      <c r="C112" s="62"/>
       <c r="D112" s="9" t="s">
         <v>760</v>
       </c>
@@ -10765,11 +11022,11 @@
       <c r="F112" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="G112" s="63"/>
+      <c r="G112" s="62"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="11"/>
-      <c r="C113" s="63" t="s">
+      <c r="C113" s="62" t="s">
         <v>242</v>
       </c>
       <c r="D113" s="9" t="s">
@@ -10781,13 +11038,13 @@
       <c r="F113" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="G113" s="63" t="s">
+      <c r="G113" s="62" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="114" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="12"/>
-      <c r="C114" s="64"/>
+      <c r="C114" s="63"/>
       <c r="D114" s="17" t="s">
         <v>668</v>
       </c>
@@ -10797,13 +11054,13 @@
       <c r="F114" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="G114" s="64"/>
+      <c r="G114" s="63"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="66" t="s">
+      <c r="B115" s="72" t="s">
         <v>326</v>
       </c>
-      <c r="C115" s="63" t="s">
+      <c r="C115" s="62" t="s">
         <v>612</v>
       </c>
       <c r="D115" s="9" t="s">
@@ -10815,11 +11072,11 @@
       <c r="F115" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="G115" s="63"/>
+      <c r="G115" s="62"/>
     </row>
     <row r="116" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="67"/>
-      <c r="C116" s="63"/>
+      <c r="B116" s="73"/>
+      <c r="C116" s="62"/>
       <c r="D116" s="9" t="s">
         <v>615</v>
       </c>
@@ -10829,11 +11086,11 @@
       <c r="F116" t="s">
         <v>762</v>
       </c>
-      <c r="G116" s="63"/>
+      <c r="G116" s="62"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="11"/>
-      <c r="C117" s="63" t="s">
+      <c r="C117" s="62" t="s">
         <v>613</v>
       </c>
       <c r="D117" s="9" t="s">
@@ -10845,11 +11102,11 @@
       <c r="F117" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="G117" s="63"/>
+      <c r="G117" s="62"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="11"/>
-      <c r="C118" s="63"/>
+      <c r="C118" s="62"/>
       <c r="D118" s="9" t="s">
         <v>617</v>
       </c>
@@ -10859,11 +11116,11 @@
       <c r="F118" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="G118" s="63"/>
+      <c r="G118" s="62"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="11"/>
-      <c r="C119" s="63" t="s">
+      <c r="C119" s="62" t="s">
         <v>621</v>
       </c>
       <c r="D119" s="9" t="s">
@@ -10875,13 +11132,13 @@
       <c r="F119" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="G119" s="63" t="s">
+      <c r="G119" s="62" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="11"/>
-      <c r="C120" s="63"/>
+      <c r="C120" s="62"/>
       <c r="D120" s="9" t="s">
         <v>622</v>
       </c>
@@ -10891,11 +11148,11 @@
       <c r="F120" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="G120" s="63"/>
+      <c r="G120" s="62"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="11"/>
-      <c r="C121" s="63" t="s">
+      <c r="C121" s="62" t="s">
         <v>623</v>
       </c>
       <c r="D121" s="9" t="s">
@@ -10907,13 +11164,13 @@
       <c r="F121" s="30" t="s">
         <v>626</v>
       </c>
-      <c r="G121" s="63" t="s">
+      <c r="G121" s="62" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="11"/>
-      <c r="C122" s="63"/>
+      <c r="C122" s="62"/>
       <c r="D122" s="9" t="s">
         <v>625</v>
       </c>
@@ -10923,11 +11180,11 @@
       <c r="F122" s="30" t="s">
         <v>627</v>
       </c>
-      <c r="G122" s="63"/>
+      <c r="G122" s="62"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="11"/>
-      <c r="C123" s="63" t="s">
+      <c r="C123" s="62" t="s">
         <v>212</v>
       </c>
       <c r="D123" s="9" t="s">
@@ -10939,11 +11196,11 @@
       <c r="F123" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="G123" s="63"/>
+      <c r="G123" s="62"/>
     </row>
     <row r="124" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="12"/>
-      <c r="C124" s="64"/>
+      <c r="C124" s="63"/>
       <c r="D124" s="17" t="s">
         <v>214</v>
       </c>
@@ -10953,13 +11210,13 @@
       <c r="F124" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="G124" s="64"/>
+      <c r="G124" s="63"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="66" t="s">
+      <c r="B125" s="72" t="s">
         <v>327</v>
       </c>
-      <c r="C125" s="68" t="s">
+      <c r="C125" s="67" t="s">
         <v>191</v>
       </c>
       <c r="D125" s="18" t="s">
@@ -10971,11 +11228,11 @@
       <c r="F125" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="G125" s="68"/>
+      <c r="G125" s="67"/>
     </row>
     <row r="126" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="67"/>
-      <c r="C126" s="63"/>
+      <c r="B126" s="73"/>
+      <c r="C126" s="62"/>
       <c r="D126" s="11" t="s">
         <v>193</v>
       </c>
@@ -10985,12 +11242,12 @@
       <c r="F126" s="11" t="s">
         <v>768</v>
       </c>
-      <c r="G126" s="77"/>
+      <c r="G126" s="75"/>
       <c r="H126" s="9"/>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="28"/>
-      <c r="C127" s="63" t="s">
+      <c r="C127" s="62" t="s">
         <v>607</v>
       </c>
       <c r="D127" s="9" t="s">
@@ -11002,14 +11259,14 @@
       <c r="F127" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="G127" s="63" t="s">
+      <c r="G127" s="62" t="s">
         <v>606</v>
       </c>
       <c r="H127" s="9"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="71"/>
-      <c r="C128" s="63"/>
+      <c r="C128" s="62"/>
       <c r="D128" s="11" t="s">
         <v>610</v>
       </c>
@@ -11019,12 +11276,12 @@
       <c r="F128" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="G128" s="63"/>
+      <c r="G128" s="62"/>
       <c r="H128" s="9"/>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="71"/>
-      <c r="C129" s="63" t="s">
+      <c r="C129" s="62" t="s">
         <v>784</v>
       </c>
       <c r="D129" s="39" t="s">
@@ -11036,7 +11293,7 @@
       <c r="F129" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="G129" s="63" t="s">
+      <c r="G129" s="62" t="s">
         <v>606</v>
       </c>
       <c r="H129" s="32" t="s">
@@ -11048,7 +11305,7 @@
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="71"/>
-      <c r="C130" s="63"/>
+      <c r="C130" s="62"/>
       <c r="D130" s="39" t="s">
         <v>672</v>
       </c>
@@ -11058,14 +11315,14 @@
       <c r="F130" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="G130" s="63"/>
+      <c r="G130" s="62"/>
       <c r="H130" s="32" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="71"/>
-      <c r="C131" s="63" t="s">
+      <c r="C131" s="62" t="s">
         <v>633</v>
       </c>
       <c r="D131" s="11" t="s">
@@ -11077,14 +11334,14 @@
       <c r="F131" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="G131" s="63" t="s">
+      <c r="G131" s="62" t="s">
         <v>606</v>
       </c>
       <c r="H131" s="9"/>
     </row>
     <row r="132" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="25"/>
-      <c r="C132" s="64"/>
+      <c r="C132" s="63"/>
       <c r="D132" s="12" t="s">
         <v>634</v>
       </c>
@@ -11094,14 +11351,14 @@
       <c r="F132" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="G132" s="64"/>
+      <c r="G132" s="63"/>
       <c r="I132" s="3"/>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="66" t="s">
+      <c r="B133" s="72" t="s">
         <v>328</v>
       </c>
-      <c r="C133" s="63" t="s">
+      <c r="C133" s="62" t="s">
         <v>236</v>
       </c>
       <c r="D133" s="9" t="s">
@@ -11113,11 +11370,11 @@
       <c r="F133" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="G133" s="63"/>
+      <c r="G133" s="62"/>
     </row>
     <row r="134" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="67"/>
-      <c r="C134" s="63"/>
+      <c r="B134" s="73"/>
+      <c r="C134" s="62"/>
       <c r="D134" s="9" t="s">
         <v>238</v>
       </c>
@@ -11127,11 +11384,11 @@
       <c r="F134" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="G134" s="63"/>
+      <c r="G134" s="62"/>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="29"/>
-      <c r="C135" s="63" t="s">
+      <c r="C135" s="62" t="s">
         <v>236</v>
       </c>
       <c r="D135" s="9" t="s">
@@ -11143,13 +11400,13 @@
       <c r="F135" s="35" t="s">
         <v>722</v>
       </c>
-      <c r="G135" s="63" t="s">
+      <c r="G135" s="62" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="29"/>
-      <c r="C136" s="63"/>
+      <c r="C136" s="62"/>
       <c r="D136" s="9" t="s">
         <v>717</v>
       </c>
@@ -11159,11 +11416,11 @@
       <c r="F136" s="35" t="s">
         <v>723</v>
       </c>
-      <c r="G136" s="63"/>
+      <c r="G136" s="62"/>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="11"/>
-      <c r="C137" s="63" t="s">
+      <c r="C137" s="62" t="s">
         <v>194</v>
       </c>
       <c r="D137" s="9" t="s">
@@ -11175,11 +11432,11 @@
       <c r="F137" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="G137" s="63"/>
+      <c r="G137" s="62"/>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="11"/>
-      <c r="C138" s="63"/>
+      <c r="C138" s="62"/>
       <c r="D138" s="9" t="s">
         <v>196</v>
       </c>
@@ -11189,11 +11446,11 @@
       <c r="F138" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="G138" s="63"/>
+      <c r="G138" s="62"/>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="11"/>
-      <c r="C139" s="63" t="s">
+      <c r="C139" s="62" t="s">
         <v>273</v>
       </c>
       <c r="D139" s="9" t="s">
@@ -11205,11 +11462,11 @@
       <c r="F139" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G139" s="63"/>
+      <c r="G139" s="62"/>
     </row>
     <row r="140" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="12"/>
-      <c r="C140" s="64"/>
+      <c r="C140" s="63"/>
       <c r="D140" s="17" t="s">
         <v>275</v>
       </c>
@@ -11219,13 +11476,13 @@
       <c r="F140" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="G140" s="64"/>
+      <c r="G140" s="63"/>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="66" t="s">
+      <c r="B141" s="72" t="s">
         <v>628</v>
       </c>
-      <c r="C141" s="63" t="s">
+      <c r="C141" s="62" t="s">
         <v>806</v>
       </c>
       <c r="D141" t="s">
@@ -11237,13 +11494,13 @@
       <c r="F141" t="s">
         <v>804</v>
       </c>
-      <c r="G141" s="68" t="s">
+      <c r="G141" s="67" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="142" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="67"/>
-      <c r="C142" s="63"/>
+      <c r="B142" s="73"/>
+      <c r="C142" s="62"/>
       <c r="D142" t="s">
         <v>803</v>
       </c>
@@ -11253,11 +11510,11 @@
       <c r="F142" t="s">
         <v>805</v>
       </c>
-      <c r="G142" s="63"/>
+      <c r="G142" s="62"/>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="13"/>
-      <c r="C143" s="63" t="s">
+      <c r="C143" s="62" t="s">
         <v>739</v>
       </c>
       <c r="D143" s="9" t="s">
@@ -11269,13 +11526,13 @@
       <c r="F143" s="30" t="s">
         <v>743</v>
       </c>
-      <c r="G143" s="63" t="s">
+      <c r="G143" s="62" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="11"/>
-      <c r="C144" s="63"/>
+      <c r="C144" s="62"/>
       <c r="D144" s="11" t="s">
         <v>741</v>
       </c>
@@ -11285,11 +11542,11 @@
       <c r="F144" s="11" t="s">
         <v>740</v>
       </c>
-      <c r="G144" s="63"/>
+      <c r="G144" s="62"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="42"/>
-      <c r="C145" s="63" t="s">
+      <c r="C145" s="62" t="s">
         <v>629</v>
       </c>
       <c r="D145" s="9" t="s">
@@ -11301,13 +11558,13 @@
       <c r="F145" s="30" t="s">
         <v>773</v>
       </c>
-      <c r="G145" s="63" t="s">
+      <c r="G145" s="62" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="42"/>
-      <c r="C146" s="63"/>
+      <c r="C146" s="62"/>
       <c r="D146" s="11" t="s">
         <v>631</v>
       </c>
@@ -11317,29 +11574,29 @@
       <c r="F146" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="G146" s="63"/>
+      <c r="G146" s="62"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="42"/>
-      <c r="C147" s="63"/>
+      <c r="C147" s="62"/>
       <c r="D147" s="9"/>
       <c r="E147" s="23"/>
       <c r="F147" s="3"/>
-      <c r="G147" s="63"/>
+      <c r="G147" s="62"/>
     </row>
     <row r="148" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="41"/>
-      <c r="C148" s="64"/>
+      <c r="C148" s="63"/>
       <c r="D148" s="17"/>
       <c r="E148" s="22"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="64"/>
+      <c r="G148" s="63"/>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="66" t="s">
+      <c r="B149" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="C149" s="63" t="s">
+      <c r="C149" s="62" t="s">
         <v>310</v>
       </c>
       <c r="D149" s="9" t="s">
@@ -11351,13 +11608,13 @@
       <c r="F149" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="G149" s="63" t="s">
+      <c r="G149" s="62" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="150" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="67"/>
-      <c r="C150" s="63"/>
+      <c r="B150" s="73"/>
+      <c r="C150" s="62"/>
       <c r="D150" s="9" t="s">
         <v>568</v>
       </c>
@@ -11367,11 +11624,11 @@
       <c r="F150" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="G150" s="63"/>
+      <c r="G150" s="62"/>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="29"/>
-      <c r="C151" s="63" t="s">
+      <c r="C151" s="62" t="s">
         <v>681</v>
       </c>
       <c r="D151" s="9" t="s">
@@ -11383,13 +11640,13 @@
       <c r="F151" s="30" t="s">
         <v>686</v>
       </c>
-      <c r="G151" s="63" t="s">
+      <c r="G151" s="62" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="29"/>
-      <c r="C152" s="63"/>
+      <c r="C152" s="62"/>
       <c r="D152" s="9" t="s">
         <v>684</v>
       </c>
@@ -11399,11 +11656,11 @@
       <c r="F152" s="30" t="s">
         <v>685</v>
       </c>
-      <c r="G152" s="63"/>
+      <c r="G152" s="62"/>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" s="11"/>
-      <c r="C153" s="63" t="s">
+      <c r="C153" s="62" t="s">
         <v>110</v>
       </c>
       <c r="D153" s="9" t="s">
@@ -11415,13 +11672,13 @@
       <c r="F153" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="G153" s="63" t="s">
+      <c r="G153" s="62" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="11"/>
-      <c r="C154" s="63"/>
+      <c r="C154" s="62"/>
       <c r="D154" s="9" t="s">
         <v>600</v>
       </c>
@@ -11431,11 +11688,11 @@
       <c r="F154" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="G154" s="63"/>
+      <c r="G154" s="62"/>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="11"/>
-      <c r="C155" s="63" t="s">
+      <c r="C155" s="62" t="s">
         <v>786</v>
       </c>
       <c r="D155" s="9" t="s">
@@ -11447,7 +11704,7 @@
       <c r="F155" s="38" t="s">
         <v>552</v>
       </c>
-      <c r="G155" s="63" t="s">
+      <c r="G155" s="62" t="s">
         <v>565</v>
       </c>
       <c r="H155" t="s">
@@ -11456,7 +11713,7 @@
     </row>
     <row r="156" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B156" s="11"/>
-      <c r="C156" s="63"/>
+      <c r="C156" s="62"/>
       <c r="D156" s="9" t="s">
         <v>572</v>
       </c>
@@ -11466,16 +11723,16 @@
       <c r="F156" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="G156" s="63"/>
+      <c r="G156" s="62"/>
       <c r="H156" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B157" s="66" t="s">
+      <c r="B157" s="72" t="s">
         <v>330</v>
       </c>
-      <c r="C157" s="68" t="s">
+      <c r="C157" s="67" t="s">
         <v>185</v>
       </c>
       <c r="D157" s="18" t="s">
@@ -11487,11 +11744,11 @@
       <c r="F157" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="G157" s="68"/>
+      <c r="G157" s="67"/>
     </row>
     <row r="158" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="67"/>
-      <c r="C158" s="64"/>
+      <c r="B158" s="73"/>
+      <c r="C158" s="63"/>
       <c r="D158" s="17" t="s">
         <v>187</v>
       </c>
@@ -11501,13 +11758,13 @@
       <c r="F158" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="G158" s="64"/>
+      <c r="G158" s="63"/>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B159" s="66" t="s">
+      <c r="B159" s="72" t="s">
         <v>331</v>
       </c>
-      <c r="C159" s="63" t="s">
+      <c r="C159" s="62" t="s">
         <v>253</v>
       </c>
       <c r="D159" s="9" t="s">
@@ -11519,11 +11776,11 @@
       <c r="F159" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="G159" s="63"/>
+      <c r="G159" s="62"/>
     </row>
     <row r="160" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="67"/>
-      <c r="C160" s="63"/>
+      <c r="B160" s="73"/>
+      <c r="C160" s="62"/>
       <c r="D160" s="9" t="s">
         <v>255</v>
       </c>
@@ -11533,11 +11790,11 @@
       <c r="F160" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="G160" s="63"/>
+      <c r="G160" s="62"/>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="11"/>
-      <c r="C161" s="63"/>
+      <c r="C161" s="62"/>
       <c r="D161" s="9" t="s">
         <v>179</v>
       </c>
@@ -11545,11 +11802,11 @@
         <v>1</v>
       </c>
       <c r="F161" s="3"/>
-      <c r="G161" s="63"/>
+      <c r="G161" s="62"/>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="11"/>
-      <c r="C162" s="63"/>
+      <c r="C162" s="62"/>
       <c r="D162" s="9" t="s">
         <v>178</v>
       </c>
@@ -11557,11 +11814,11 @@
         <v>2</v>
       </c>
       <c r="F162" s="3"/>
-      <c r="G162" s="63"/>
+      <c r="G162" s="62"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="11"/>
-      <c r="C163" s="63"/>
+      <c r="C163" s="62"/>
       <c r="D163" s="9" t="s">
         <v>179</v>
       </c>
@@ -11569,11 +11826,11 @@
         <v>1</v>
       </c>
       <c r="F163" s="3"/>
-      <c r="G163" s="63"/>
+      <c r="G163" s="62"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="11"/>
-      <c r="C164" s="63"/>
+      <c r="C164" s="62"/>
       <c r="D164" s="9" t="s">
         <v>178</v>
       </c>
@@ -11581,11 +11838,11 @@
         <v>2</v>
       </c>
       <c r="F164" s="3"/>
-      <c r="G164" s="63"/>
+      <c r="G164" s="62"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="11"/>
-      <c r="C165" s="63"/>
+      <c r="C165" s="62"/>
       <c r="D165" s="9" t="s">
         <v>179</v>
       </c>
@@ -11593,11 +11850,11 @@
         <v>1</v>
       </c>
       <c r="F165" s="3"/>
-      <c r="G165" s="63"/>
+      <c r="G165" s="62"/>
     </row>
     <row r="166" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="12"/>
-      <c r="C166" s="64"/>
+      <c r="C166" s="63"/>
       <c r="D166" s="17" t="s">
         <v>178</v>
       </c>
@@ -11605,47 +11862,130 @@
         <v>2</v>
       </c>
       <c r="F166" s="4"/>
-      <c r="G166" s="64"/>
+      <c r="G166" s="63"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H171" s="55"/>
+      <c r="H171" s="54"/>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H172" s="55"/>
+      <c r="H172" s="54"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C106">
     <sortCondition ref="C2"/>
   </sortState>
   <mergeCells count="183">
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="G85:G86"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="C7:C8"/>
@@ -11670,6 +12010,21 @@
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="G51:G52"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="G53:G54"/>
     <mergeCell ref="C41:C42"/>
@@ -11679,6 +12034,19 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="G79:G80"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="G67:G68"/>
     <mergeCell ref="C69:C70"/>
@@ -11690,117 +12058,6 @@
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="B128:B131"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11809,10 +12066,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:M26"/>
+  <dimension ref="A3:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11828,22 +12085,22 @@
     <col min="10" max="10" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="83" t="s">
+    <row r="3" spans="1:10" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="77" t="s">
         <v>807</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-    </row>
-    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="52"/>
-      <c r="B4" s="54"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="51"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
@@ -11853,63 +12110,65 @@
       <c r="E4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="57" t="s">
         <v>418</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="58" t="s">
         <v>976</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="58" t="s">
         <v>977</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="58" t="s">
         <v>981</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="66" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="67" t="s">
         <v>796</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="79" t="s">
         <v>794</v>
       </c>
-      <c r="E5" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="87" t="s">
+      <c r="E5" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="83" t="s">
         <v>795</v>
       </c>
-      <c r="G5" s="81">
+      <c r="G5" s="85">
         <v>69</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="84" t="s">
+      <c r="H5" s="85"/>
+      <c r="I5" s="85" t="s">
+        <v>998</v>
+      </c>
+      <c r="J5" s="78" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="67"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="60"/>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="73"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
       <c r="J6" s="70"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>822</v>
       </c>
       <c r="D7" s="40" t="s">
@@ -11924,17 +12183,19 @@
       <c r="G7" s="45">
         <v>61</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="81">
         <v>64</v>
       </c>
-      <c r="I7" s="80"/>
+      <c r="I7" s="81" t="s">
+        <v>997</v>
+      </c>
       <c r="J7" s="69" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="73"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="40" t="s">
         <v>815</v>
       </c>
@@ -11947,13 +12208,13 @@
       <c r="G8" s="45">
         <v>61</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
       <c r="J8" s="69"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="62" t="s">
         <v>825</v>
       </c>
       <c r="D9" s="40" t="s">
@@ -11968,17 +12229,19 @@
       <c r="G9" s="45">
         <v>58</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="87">
         <v>61</v>
       </c>
-      <c r="I9" s="78"/>
+      <c r="I9" s="87" t="s">
+        <v>999</v>
+      </c>
       <c r="J9" s="69" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
-      <c r="C10" s="63"/>
+      <c r="C10" s="62"/>
       <c r="D10" t="s">
         <v>824</v>
       </c>
@@ -11991,13 +12254,13 @@
       <c r="G10" s="45">
         <v>60</v>
       </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
       <c r="J10" s="69"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="62" t="s">
         <v>828</v>
       </c>
       <c r="D11" t="s">
@@ -12015,354 +12278,564 @@
       <c r="H11" s="45" t="s">
         <v>978</v>
       </c>
-      <c r="I11" s="45"/>
+      <c r="I11" s="60" t="s">
+        <v>851</v>
+      </c>
       <c r="J11" s="69" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="51" t="s">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="89" t="s">
         <v>851</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="60" t="s">
         <v>851</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="90" t="s">
         <v>851</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57" t="s">
+      <c r="G12" s="60"/>
+      <c r="H12" s="60" t="s">
         <v>979</v>
       </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="70"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>810</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>808</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>818</v>
-      </c>
-      <c r="G13" s="62">
+      <c r="I12" s="60" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="69"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="62" t="s">
+        <v>988</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>982</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>991</v>
+      </c>
+      <c r="G13" s="60">
+        <v>61</v>
+      </c>
+      <c r="H13" s="87">
         <v>64</v>
       </c>
-      <c r="H13" s="81">
-        <v>67</v>
-      </c>
-      <c r="I13" s="81"/>
+      <c r="I13" s="95" t="s">
+        <v>1001</v>
+      </c>
       <c r="J13" s="69" t="s">
         <v>565</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="67"/>
-      <c r="C14" s="63"/>
-      <c r="D14" t="s">
-        <v>809</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="G14" s="45">
-        <v>64</v>
-      </c>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="91" t="s">
+        <v>983</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="93" t="s">
+        <v>992</v>
+      </c>
+      <c r="G14" s="60">
+        <v>61</v>
+      </c>
+      <c r="H14" s="87"/>
+      <c r="I14" s="95"/>
       <c r="J14" s="69"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
-      <c r="C15" s="63" t="s">
-        <v>813</v>
-      </c>
-      <c r="D15" t="s">
-        <v>811</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>820</v>
-      </c>
-      <c r="G15" s="45">
-        <v>61</v>
-      </c>
-      <c r="H15" s="78">
-        <v>64</v>
-      </c>
-      <c r="I15" s="78"/>
+      <c r="C15" s="62" t="s">
+        <v>989</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>984</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="93" t="s">
+        <v>993</v>
+      </c>
+      <c r="G15" s="60">
+        <v>60</v>
+      </c>
+      <c r="H15" s="87">
+        <v>63</v>
+      </c>
+      <c r="I15" s="87" t="s">
+        <v>1002</v>
+      </c>
       <c r="J15" s="69" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="17" t="s">
-        <v>812</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="G16" s="57">
+    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="91" t="s">
+        <v>985</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="93" t="s">
+        <v>994</v>
+      </c>
+      <c r="G16" s="60">
         <v>62</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="70"/>
-      <c r="L16" s="40"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="73" t="s">
-        <v>325</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>849</v>
-      </c>
-      <c r="D17" t="s">
-        <v>846</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>852</v>
-      </c>
-      <c r="G17" s="45">
-        <v>60</v>
-      </c>
-      <c r="H17" s="80">
-        <v>63</v>
-      </c>
-      <c r="I17" s="80"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="69"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="62" t="s">
+        <v>990</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>986</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="93" t="s">
+        <v>995</v>
+      </c>
+      <c r="G17" s="60">
+        <v>62</v>
+      </c>
+      <c r="H17" s="87">
+        <v>64</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>1003</v>
+      </c>
       <c r="J17" s="69" t="s">
         <v>565</v>
       </c>
-      <c r="L17" s="40"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="74"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
       <c r="C18" s="63"/>
-      <c r="D18" t="s">
-        <v>847</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>853</v>
-      </c>
-      <c r="G18" s="45">
-        <v>63</v>
-      </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="69"/>
-      <c r="L18" s="40"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="63" t="s">
-        <v>850</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>851</v>
+      <c r="D18" s="92" t="s">
+        <v>987</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="94" t="s">
+        <v>996</v>
+      </c>
+      <c r="G18" s="61">
+        <v>61</v>
+      </c>
+      <c r="H18" s="82"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="70"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>810</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>808</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>851</v>
-      </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="78" t="s">
-        <v>980</v>
-      </c>
-      <c r="I19" s="78"/>
+      <c r="F19" s="40" t="s">
+        <v>818</v>
+      </c>
+      <c r="G19" s="59">
+        <v>64</v>
+      </c>
+      <c r="H19" s="85">
+        <v>67</v>
+      </c>
+      <c r="I19" s="85" t="s">
+        <v>1004</v>
+      </c>
       <c r="J19" s="69" t="s">
         <v>565</v>
       </c>
       <c r="L19" s="40"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="17" t="s">
-        <v>848</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="G20" s="57">
-        <v>61</v>
-      </c>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="70"/>
-      <c r="L20" s="40"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="73" t="s">
-        <v>329</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>837</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>831</v>
+      <c r="M19" s="40"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="73"/>
+      <c r="C20" s="62"/>
+      <c r="D20" t="s">
+        <v>809</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="G20" s="45">
+        <v>64</v>
+      </c>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="69"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="62" t="s">
+        <v>813</v>
+      </c>
+      <c r="D21" t="s">
+        <v>811</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="G21" s="45">
         <v>61</v>
       </c>
-      <c r="H21" s="80">
-        <v>63</v>
-      </c>
-      <c r="I21" s="80"/>
+      <c r="H21" s="87">
+        <v>64</v>
+      </c>
+      <c r="I21" s="87" t="s">
+        <v>1004</v>
+      </c>
       <c r="J21" s="69" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
-      <c r="B22" s="74"/>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="12"/>
       <c r="C22" s="63"/>
-      <c r="D22" s="40" t="s">
-        <v>832</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>839</v>
-      </c>
-      <c r="G22" s="45">
+      <c r="D22" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="G22" s="56">
+        <v>62</v>
+      </c>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="70"/>
+      <c r="L22" s="40"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>849</v>
+      </c>
+      <c r="D23" t="s">
+        <v>846</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>852</v>
+      </c>
+      <c r="G23" s="45">
         <v>60</v>
       </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="69"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="C23" s="63" t="s">
-        <v>840</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>833</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>842</v>
-      </c>
-      <c r="G23" s="45">
-        <v>61</v>
-      </c>
-      <c r="H23" s="78">
-        <v>64</v>
-      </c>
-      <c r="I23" s="78"/>
+      <c r="H23" s="81">
+        <v>63</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>1005</v>
+      </c>
       <c r="J23" s="69" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="40" t="s">
-        <v>834</v>
+      <c r="L23" s="40"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="66"/>
+      <c r="C24" s="62"/>
+      <c r="D24" t="s">
+        <v>847</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="G24" s="45">
-        <v>62</v>
-      </c>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
+        <v>63</v>
+      </c>
+      <c r="H24" s="87"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="69"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="C25" s="63" t="s">
-        <v>841</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>835</v>
+      <c r="L24" s="40"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="62" t="s">
+        <v>850</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>851</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F25" t="s">
-        <v>844</v>
-      </c>
-      <c r="G25" s="45">
-        <v>62</v>
-      </c>
-      <c r="H25" s="78">
-        <v>65</v>
-      </c>
-      <c r="I25" s="78"/>
+      <c r="F25" s="20" t="s">
+        <v>851</v>
+      </c>
+      <c r="G25" s="45"/>
+      <c r="H25" s="87" t="s">
+        <v>980</v>
+      </c>
+      <c r="I25" s="62" t="s">
+        <v>1006</v>
+      </c>
       <c r="J25" s="69" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
+      <c r="L25" s="40"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="53" t="s">
+      <c r="C26" s="63"/>
+      <c r="D26" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="G26" s="56">
+        <v>61</v>
+      </c>
+      <c r="H26" s="82"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="70"/>
+      <c r="L26" s="40"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="65" t="s">
+        <v>329</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>837</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>831</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>838</v>
+      </c>
+      <c r="G27" s="45">
+        <v>61</v>
+      </c>
+      <c r="H27" s="81">
+        <v>63</v>
+      </c>
+      <c r="I27" s="81" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J27" s="69" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="51"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="40" t="s">
+        <v>832</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>839</v>
+      </c>
+      <c r="G28" s="45">
+        <v>60</v>
+      </c>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="69"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="C29" s="62" t="s">
+        <v>840</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>833</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>842</v>
+      </c>
+      <c r="G29" s="45">
+        <v>61</v>
+      </c>
+      <c r="H29" s="87">
+        <v>64</v>
+      </c>
+      <c r="I29" s="87" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J29" s="69" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="40" t="s">
+        <v>834</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>843</v>
+      </c>
+      <c r="G30" s="45">
+        <v>62</v>
+      </c>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="69"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="C31" s="62" t="s">
+        <v>841</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>835</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>844</v>
+      </c>
+      <c r="G31" s="45">
+        <v>62</v>
+      </c>
+      <c r="H31" s="87">
+        <v>65</v>
+      </c>
+      <c r="I31" s="87" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J31" s="69" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="52" t="s">
         <v>836</v>
       </c>
-      <c r="E26" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="E32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="G26" s="57">
+      <c r="G32" s="56">
         <v>62</v>
       </c>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="70"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="64">
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="J5:J6"/>
@@ -12372,49 +12845,9 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I5:I6"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
